--- a/scraper-completo/DADOS EXTRAIDOS/extracao_consorciocontemplado.xlsx
+++ b/scraper-completo/DADOS EXTRAIDOS/extracao_consorciocontemplado.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="34" customWidth="1" min="8" max="8"/>
+    <col width="36" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="66" customWidth="1" min="10" max="10"/>
   </cols>
@@ -512,32 +512,32 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>CT4128</t>
+          <t>CT1872</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>41100,00</t>
+          <t>154000,00</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>21045,00</t>
+          <t>84690,00</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>46 x R$ 1.002,00</t>
+          <t>169 x R$ 998,00</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr"/>
@@ -560,32 +560,32 @@
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>CT4103</t>
+          <t>CT2943</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>60000,00</t>
+          <t>80000,00</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>35990,00</t>
+          <t>47990,00</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>31 x R$ 1.071,00</t>
+          <t>152 x R$ 435,00</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr"/>
@@ -608,7 +608,7 @@
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>CT3790</t>
+          <t>CT3156</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -618,22 +618,22 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>18700,00</t>
+          <t>125100,00</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>12925,00</t>
+          <t>70245,00</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -643,49 +643,49 @@
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>57 x R$ 355,00</t>
+          <t>64 x R$ 1.878,00</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>Taxa: R$ 650,00</t>
+          <t>VP06- Pesados ou Leves até 6 anos uso. Taxa: R$ 1.792,00</t>
         </is>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>CT4071</t>
+          <t>CT3272</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>20300,00</t>
+          <t>367000,00</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>14005,00</t>
+          <t>238340,00</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -695,20 +695,24 @@
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>92 x R$ 155,00</t>
+          <t>85 x R$ 2.191,00</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr"/>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>Santander, autoriza junção de cotas</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>CT4073</t>
+          <t>CT3405</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -718,17 +722,17 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>27800,00</t>
+          <t>32600,00</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>18380,00</t>
+          <t>25620,00</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -743,12 +747,12 @@
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>75 x R$ 262,00</t>
+          <t>31 x R$ 907,00</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr"/>
@@ -756,27 +760,27 @@
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>CT4118</t>
+          <t>CT3441</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>28700,00</t>
+          <t>147780,00</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>20425,00</t>
+          <t>78379,00</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -791,40 +795,44 @@
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>71 x R$ 227,00</t>
+          <t>62 x R$ 2.021,00</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr"/>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: 650,00</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>CT3405</t>
+          <t>CT3581</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>31096,89</t>
+          <t>364000,00</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>24544,84</t>
+          <t>274190,00</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -839,12 +847,12 @@
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>32 x R$ 942,00</t>
+          <t>27 x R$ 4.498,00</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr"/>
@@ -852,7 +860,7 @@
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>CT3839</t>
+          <t>CT3601</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -862,22 +870,22 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>35600,00</t>
+          <t>132300,00</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>21770,00</t>
+          <t>76605,00</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -887,24 +895,24 @@
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>32 x R$ 786,10</t>
+          <t>67 x R$ 1.803,00</t>
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>Veículos usado até 8 anos. Tem R$19.000,00 já pago</t>
+          <t>VP08 Taxa: R$ 1.844,00</t>
         </is>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>CT4136</t>
+          <t>CT3705</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -914,22 +922,22 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>42700,00</t>
+          <t>59269,00</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>22125,00</t>
+          <t>30953,45</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -939,49 +947,45 @@
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>49 x R$ 787,00</t>
+          <t>63 x R$ 993,00</t>
         </is>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 650,00</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr"/>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>CT3987</t>
+          <t>CT3722</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>151000,00</t>
+          <t>135000,00</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>66540,00</t>
+          <t>68740,00</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
@@ -991,12 +995,12 @@
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>20 x R$ 6.420,00</t>
+          <t>92 x R$ 1.396,00</t>
         </is>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr"/>
@@ -1004,27 +1008,27 @@
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>CT3645</t>
+          <t>CT3723</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>34478,00</t>
+          <t>153000,00</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>18713,90</t>
+          <t>77640,00</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -1039,12 +1043,12 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>57 x R$ 605,00</t>
+          <t>83 x R$ 1.847,00</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr"/>
@@ -1052,26 +1056,28 @@
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>CT4134</t>
+          <t>CT3735</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>58010,00</t>
+          <t>64641,00</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>23890,50</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>33</v>
+          <t>43222,05</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
@@ -1085,45 +1091,44 @@
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>2 x R$ 1.501,00
-31 x R$ 2.045,00</t>
+          <t>149 x R$ 357,00</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>As 02 primeiras parcelas serão de R$ 1.501,00</t>
+          <t>Taxa: R$ 896,00</t>
         </is>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>CT3705</t>
+          <t>CT3769</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>59269,00</t>
+          <t>79500,00</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>29953,45</t>
+          <t>50965,00</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
@@ -1138,12 +1143,12 @@
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>64 x R$ 993,00</t>
+          <t>152 x R$ 406,00</t>
         </is>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr"/>
@@ -1151,7 +1156,7 @@
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>CT3967</t>
+          <t>CT3777</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -1161,17 +1166,17 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>59880,00</t>
+          <t>200800,00</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>28984,00</t>
+          <t>106030,00</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -1186,20 +1191,24 @@
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>33 x R$ 1.716,00</t>
+          <t>66 x R$ 2.906,00</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J15" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>VP07 Taxa: R$ 1.957,00</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>CT4117</t>
+          <t>CT3790</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -1209,22 +1218,22 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>104900,00</t>
+          <t>18700,00</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>45235,00</t>
+          <t>12925,00</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
@@ -1234,40 +1243,44 @@
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>35 x R$ 2.623,00</t>
+          <t>57 x R$ 355,00</t>
         </is>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J16" s="4" t="inlineStr"/>
+          <t>15/03/2025</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 650,00</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>CT4080</t>
+          <t>CT3823</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>125000,00</t>
+          <t>75396,00</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>48240,00</t>
+          <t>46759,80</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>118</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -1277,29 +1290,29 @@
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>78 x R$ 1.798,00</t>
+          <t>118 x R$ 531,00</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>AF- Veículos Leve até 8 anos de uso</t>
+          <t>Taxa: R$ 1.067,00</t>
         </is>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>CT3926</t>
+          <t>CT3838</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1309,17 +1322,17 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>126460,00</t>
+          <t>207250,00</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>58313,00</t>
+          <t>106352,50</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
@@ -1334,24 +1347,20 @@
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>33 x R$ 3.322,00</t>
+          <t>64 x R$ 2.967,00</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 1.514,16</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr"/>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>CT3955</t>
+          <t>CT3839</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1361,22 +1370,22 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>109000,00</t>
+          <t>35800,00</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>65440,00</t>
+          <t>22780,00</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -1386,40 +1395,44 @@
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>50 x R$ 1.657,00</t>
+          <t>31 x R$ 786,10</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr"/>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>Veículos usado até 8 anos. Tem R$19.000,00 já pago</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>CT3156</t>
+          <t>CT3864</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>124093,00</t>
+          <t>422000,00</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>69194,65</t>
+          <t>223090,00</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>113</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -1429,49 +1442,45 @@
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>65 x R$ 1.878,00</t>
+          <t>113 x R$ 3.459,00</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>VP06- Pesados ou Leves até 6 anos uso. Taxa: R$ 1.792,00</t>
-        </is>
-      </c>
+          <t>15/02/2025</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr"/>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>CT3982</t>
+          <t>CT3871</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>124560,00</t>
+          <t>445000,00</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>71218,00</t>
+          <t>217240,00</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -1481,12 +1490,12 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>67 x R$ 1.773,00</t>
+          <t>181 x R$ 2.641,00</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
@@ -1494,32 +1503,36 @@
           <t>15/03/2025</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>Oportunidade !</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>CT3991</t>
+          <t>CT3897</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>125500,00</t>
+          <t>71243,00</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>82265,00</t>
+          <t>45552,15</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -1534,40 +1547,44 @@
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>65 x R$ 1.840,00</t>
+          <t>191 x R$ 472,00</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 700,00</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>CT3842</t>
+          <t>CT3913</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>127500,00</t>
+          <t>106225,00</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>76365,00</t>
+          <t>53301,25</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -1582,40 +1599,44 @@
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>64 x R$ 1.646,00</t>
+          <t>126 x R$ 943,00</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr"/>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: 1.017,00</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>CT3777</t>
+          <t>CT3920</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>199640,00</t>
+          <t>115300,00</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>111972,00</t>
+          <t>55755,00</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -1625,29 +1646,25 @@
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>67 x R$ 2.906,00</t>
+          <t>153 x R$ 875,00</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>VP07 Taxa: R$ 1.957,00</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr"/>
     </row>
     <row r="25" ht="30" customHeight="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>CT3838</t>
+          <t>CT3955</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1657,17 +1674,17 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>206180,00</t>
+          <t>109000,00</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>112299,00</t>
+          <t>69440,00</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
@@ -1682,12 +1699,12 @@
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>65 x R$ 2.967,00</t>
+          <t>49 x R$ 1.657,00</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr"/>
@@ -1695,7 +1712,7 @@
     <row r="26" ht="30" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>CT3196</t>
+          <t>CT3967</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1705,17 +1722,17 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>260000,00</t>
+          <t>59880,00</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>146990,00</t>
+          <t>29984,00</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
@@ -1725,49 +1742,45 @@
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>45 x R$ 4.094,48</t>
+          <t>32 x R$ 1.716,00</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
-        </is>
-      </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>Veículos Leve ou Pesado 6 anos uso, cota com R$ 129 mil já pagos</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr"/>
     </row>
     <row r="27" ht="30" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>CT4036</t>
+          <t>CT3970</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>331000,00</t>
+          <t>111000,00</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>156540,00</t>
+          <t>55540,00</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
@@ -1782,49 +1795,45 @@
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>83 x R$ 3.628,00</t>
+          <t>132 x R$ 909,00</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>VP 13 - VEICULOS PESADOS</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr"/>
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>CT4086</t>
+          <t>CT3982</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>85500,00</t>
+          <t>124560,00</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>48265,00</t>
+          <t>71218,00</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
@@ -1834,12 +1843,12 @@
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>112 x R$ 588,00</t>
+          <t>67 x R$ 1.773,00</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>15/03/2025</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr"/>
@@ -1847,7 +1856,7 @@
     <row r="29" ht="30" customHeight="1">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>CT4116</t>
+          <t>CT3984</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1857,22 +1866,22 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>96700,00</t>
+          <t>711000,00</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>47825,00</t>
+          <t>368540,00</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
@@ -1882,12 +1891,12 @@
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>152 x R$ 637,00</t>
+          <t>112 x R$ 5.736,00</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr"/>
@@ -1895,32 +1904,32 @@
     <row r="30" ht="30" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>CT4058</t>
+          <t>CT3987</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>97500,00</t>
+          <t>153000,00</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>48865,00</t>
+          <t>73640,00</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
@@ -1930,7 +1939,7 @@
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>147 x R$ 656,00</t>
+          <t>18 x R$ 6.720,00</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
@@ -1943,32 +1952,32 @@
     <row r="31" ht="30" customHeight="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>CT4018</t>
+          <t>CT3991</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>107000,00</t>
+          <t>129000,00</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>48340,00</t>
+          <t>83440,00</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
@@ -1978,12 +1987,12 @@
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>138 x R$ 930,00</t>
+          <t>64 x R$ 1.665,00</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr"/>
@@ -2001,17 +2010,17 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>110000,00</t>
+          <t>111000,00</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>55490,00</t>
+          <t>57540,00</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -2026,12 +2035,12 @@
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>132 x R$ 924,00</t>
+          <t>130 x R$ 924,00</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr"/>
@@ -2039,7 +2048,7 @@
     <row r="33" ht="30" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>CT4129</t>
+          <t>CT4006</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -2049,37 +2058,37 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>111900,00</t>
+          <t>110000,00</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>54585,00</t>
+          <t>65490,00</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>140 x R$ 794,00</t>
+          <t>176 x R$ 553,00</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr"/>
@@ -2087,7 +2096,7 @@
     <row r="34" ht="30" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>CT3995</t>
+          <t>CT4014</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -2097,22 +2106,22 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>123000,00</t>
+          <t>450465,00</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>61140,00</t>
+          <t>222513,25</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>154</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
@@ -2122,12 +2131,12 @@
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>152 x R$ 825,00</t>
+          <t>154 x R$ 3.003,00</t>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr"/>
@@ -2135,7 +2144,7 @@
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>CT4059</t>
+          <t>CT4015</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -2145,22 +2154,22 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>135000,00</t>
+          <t>443571,00</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>66740,00</t>
+          <t>222168,55</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
@@ -2170,12 +2179,12 @@
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>156 x R$ 1.163,00</t>
+          <t>151 x R$ 2.901,01</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr"/>
@@ -2183,7 +2192,7 @@
     <row r="36" ht="30" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>CT3996</t>
+          <t>CT4016</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -2193,22 +2202,22 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>143000,00</t>
+          <t>894000,00</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>73140,00</t>
+          <t>444690,00</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
@@ -2218,20 +2227,24 @@
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>161 x R$ 1.060,00</t>
+          <t>153 x R$ 5.094,00</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-      <c r="J36" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>Junção</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="30" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>CT3951</t>
+          <t>CT4018</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -2241,17 +2254,17 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>159400,00</t>
+          <t>107000,00</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>70960,00</t>
+          <t>48340,00</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
@@ -2266,12 +2279,12 @@
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>172 x R$ 1.061,00</t>
+          <t>137 x R$ 930,00</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr"/>
@@ -2279,7 +2292,7 @@
     <row r="38" ht="30" customHeight="1">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>CT4143</t>
+          <t>CT4021</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -2289,22 +2302,22 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>169000,00</t>
+          <t>118000,00</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>82440,00</t>
+          <t>61890,00</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
@@ -2314,20 +2327,24 @@
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>147 x R$ 1.074,00</t>
+          <t>153 x R$ 929,00</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="J38" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.162,40</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="30" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>CT4065</t>
+          <t>CT4022</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -2337,22 +2354,22 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>188154,00</t>
+          <t>474351,00</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>84397,70</t>
+          <t>259707,55</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>105</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
@@ -2362,20 +2379,24 @@
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>139 x R$ 1.289,00</t>
+          <t>105 x R$ 3.603,00</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="J39" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>Taxa; R$ 4.722,00</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="30" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>CT4130</t>
+          <t>CT4025</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -2385,22 +2406,22 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>211800,00</t>
+          <t>181500,00</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>100580,00</t>
+          <t>81065,00</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
@@ -2410,12 +2431,12 @@
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>137 x R$ 1.759,00</t>
+          <t>29 x R$ 5.315,00</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr"/>
@@ -2423,7 +2444,7 @@
     <row r="41" ht="30" customHeight="1">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>CT3952</t>
+          <t>CT4026</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -2433,17 +2454,17 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>60500,00</t>
+          <t>730000,00</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>34015,00</t>
+          <t>460490,00</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
@@ -2458,12 +2479,12 @@
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>148 x R$ 415,00</t>
+          <t>19 x R$ 23.155,00</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr"/>
@@ -2471,7 +2492,7 @@
     <row r="42" ht="30" customHeight="1">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>CT3978</t>
+          <t>CT4028</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -2481,17 +2502,17 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>60600,00</t>
+          <t>830000,00</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>34020,00</t>
+          <t>425490,00</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
@@ -2506,12 +2527,12 @@
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>152 x R$ 416,00</t>
+          <t>74 x R$ 11.992,00</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr"/>
@@ -2519,7 +2540,7 @@
     <row r="43" ht="30" customHeight="1">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>CT4131</t>
+          <t>CT4029</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -2529,17 +2550,17 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>62800,00</t>
+          <t>1070000,00</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>31040,00</t>
+          <t>591490,00</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
@@ -2554,12 +2575,12 @@
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>144 x R$ 466,00</t>
+          <t>19 x R$ 37.850,00</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr"/>
@@ -2567,32 +2588,32 @@
     <row r="44" ht="30" customHeight="1">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>CT4024</t>
+          <t>CT4036</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>103500,00</t>
+          <t>331000,00</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>34165,00</t>
+          <t>161540,00</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
@@ -2602,20 +2623,24 @@
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>33 x R$ 3.695,00</t>
+          <t>82 x R$ 3.636,00</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-      <c r="J44" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>VP 13 - VEICULOS PESADOS</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="30" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>CT4147</t>
+          <t>CT4054</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -2625,22 +2650,22 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>109000,00</t>
+          <t>300000,00</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>55440,00</t>
+          <t>174990,00</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
@@ -2650,12 +2675,12 @@
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>80 x R$ 1.364,00</t>
+          <t>97 x R$ 2.568,00</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr"/>
@@ -2663,7 +2688,7 @@
     <row r="46" ht="30" customHeight="1">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>CT3436</t>
+          <t>CT4056</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -2673,22 +2698,22 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>125795,00</t>
+          <t>104000,00</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>70279,75</t>
+          <t>50190,00</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>184</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
@@ -2698,24 +2723,20 @@
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>63 x R$ 1.685,00</t>
+          <t>184 x R$ 687,00</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>20/04/2025</t>
-        </is>
-      </c>
-      <c r="J46" s="4" t="inlineStr">
-        <is>
-          <t>taxa: R$ 650,00</t>
-        </is>
-      </c>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="J46" s="4" t="inlineStr"/>
     </row>
     <row r="47" ht="30" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>CT4132</t>
+          <t>CT4065</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -2725,22 +2746,22 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>137600,00</t>
+          <t>189660,00</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>72870,00</t>
+          <t>86473,00</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
@@ -2750,12 +2771,12 @@
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>125 x R$ 920,00</t>
+          <t>138 x R$ 1.289,00</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr"/>
@@ -2763,59 +2784,59 @@
     <row r="48" ht="30" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>CT3441</t>
+          <t>CT4080</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>146443,00</t>
+          <t>125000,00</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>80312,15</t>
+          <t>48240,00</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>63 x R$ 2.021,00</t>
+          <t>78 x R$ 1.798,00</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>20/04/2025</t>
+          <t>15/04/2025</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>Taxa: 650,00</t>
+          <t>AF- Veículos Leve até 8 anos de uso</t>
         </is>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>CT4104</t>
+          <t>CT4082</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -2825,22 +2846,22 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>218063,00</t>
+          <t>404000,00</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>100893,15</t>
+          <t>250190,00</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
@@ -2850,12 +2871,12 @@
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>120 x R$ 2.126,00</t>
+          <t>158 x R$ 1.899,00</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr"/>
@@ -2863,7 +2884,7 @@
     <row r="50" ht="30" customHeight="1">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>CT3581</t>
+          <t>CT4086</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -2873,22 +2894,22 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>362000,00</t>
+          <t>86000,00</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>270090,00</t>
+          <t>48290,00</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
@@ -2898,12 +2919,12 @@
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>28 x R$ 4.498,00</t>
+          <t>111 x R$ 588,00</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr"/>
@@ -2911,7 +2932,7 @@
     <row r="51" ht="30" customHeight="1">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>CT4026</t>
+          <t>CT4089</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -2921,22 +2942,20 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>720000,00</t>
+          <t>96240,00</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>424990,00</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+          <t>28802,00</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>61</v>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
@@ -2946,20 +2965,25 @@
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>21 x R$ 23.155,00</t>
+          <t>3 x R$ 2.491,00
+58 x R$ 1.934,00</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="J51" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>As 03 primeiras parcelas serão de R$ 2.491,00</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="30" customHeight="1">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>CT4028</t>
+          <t>CT4093</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -2969,22 +2993,22 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>820000,00</t>
+          <t>527000,00</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>396990,00</t>
+          <t>259340,00</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
@@ -2994,12 +3018,12 @@
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>76 x R$ 11.992,00</t>
+          <t>180 x R$ 3.430,00</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr"/>
@@ -3007,7 +3031,7 @@
     <row r="53" ht="30" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>CT4029</t>
+          <t>CT4094</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -3017,22 +3041,22 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>1060000,00</t>
+          <t>546000,00</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>552990,00</t>
+          <t>290290,00</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
@@ -3042,12 +3066,12 @@
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>20 x R$ 37.850,00</t>
+          <t>144 x R$ 4.370,00</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr"/>
@@ -3055,7 +3079,7 @@
     <row r="54" ht="30" customHeight="1">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>CT3735</t>
+          <t>CT4100</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -3065,17 +3089,17 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>64641,00</t>
+          <t>73100,00</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>43222,05</t>
+          <t>35645,00</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>182</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
@@ -3085,29 +3109,25 @@
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>150 x R$ 357,00</t>
+          <t>182 x R$ 479,00</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J54" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 896,00</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J54" s="4" t="inlineStr"/>
     </row>
     <row r="55" ht="30" customHeight="1">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>CT4097</t>
+          <t>CT4106</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -3117,17 +3137,17 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>70000,00</t>
+          <t>274500,00</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>41490,00</t>
+          <t>140715,00</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
@@ -3142,20 +3162,24 @@
       </c>
       <c r="H55" s="5" t="inlineStr">
         <is>
-          <t>193 x R$ 378,00</t>
+          <t>145 x R$ 1.718,00</t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J55" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>Taxa transf R$ 3923,00</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="30" customHeight="1">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>CT4137</t>
+          <t>CT4109</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -3165,17 +3189,17 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>70000,00</t>
+          <t>845000,00</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>45490,00</t>
+          <t>422240,00</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
@@ -3190,12 +3214,12 @@
       </c>
       <c r="H56" s="5" t="inlineStr">
         <is>
-          <t>192 x R$ 471,00</t>
+          <t>180 x R$ 5.557,00</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr"/>
@@ -3203,7 +3227,7 @@
     <row r="57" ht="30" customHeight="1">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>CT3897</t>
+          <t>CT4110</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -3213,18 +3237,16 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>70880,00</t>
+          <t>119000,00</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>45534,00</t>
-        </is>
-      </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
+          <t>54940,00</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>102</v>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
@@ -3238,7 +3260,8 @@
       </c>
       <c r="H57" s="5" t="inlineStr">
         <is>
-          <t>192 x R$ 472,00</t>
+          <t>3 x R$ 2.056,00.
+99 x R$ 1.317,00</t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
@@ -3248,14 +3271,14 @@
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
-          <t>Taxa: R$ 1.000,00</t>
+          <t>As 03 primeiras parcelas serão de R$ 2.056,00. Taxa: R$ 1.720,22</t>
         </is>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>CT4100</t>
+          <t>CT4116</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -3265,22 +3288,22 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>73500,00</t>
+          <t>96700,00</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>35665,00</t>
+          <t>48825,00</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
@@ -3290,12 +3313,12 @@
       </c>
       <c r="H58" s="5" t="inlineStr">
         <is>
-          <t>183 x R$ 479,00</t>
+          <t>151 x R$ 637,00</t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr"/>
@@ -3303,32 +3326,32 @@
     <row r="59" ht="30" customHeight="1">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>CT3823</t>
+          <t>CT4118</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>75396,00</t>
+          <t>28700,00</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>46759,80</t>
+          <t>21425,00</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
@@ -3338,12 +3361,12 @@
       </c>
       <c r="H59" s="5" t="inlineStr">
         <is>
-          <t>119 x R$ 531,00</t>
+          <t>70 x R$ 227,00</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr"/>
@@ -3351,7 +3374,7 @@
     <row r="60" ht="30" customHeight="1">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>CT3769</t>
+          <t>CT4126</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -3361,18 +3384,16 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>79500,00</t>
+          <t>119911,00</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>50965,00</t>
-        </is>
-      </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
+          <t>55985,55</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>153</v>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
@@ -3386,20 +3407,25 @@
       </c>
       <c r="H60" s="5" t="inlineStr">
         <is>
-          <t>153 x R$ 406,00</t>
+          <t>9 x R$ 1.083,40
+144 x R$ 816,45</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J60" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>Sendo as 9 primeiras parcelas de R$ 1.083,40</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="30" customHeight="1">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>CT2943</t>
+          <t>CT4127</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -3409,18 +3435,16 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>80000,00</t>
+          <t>134700,00</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>47990,00</t>
-        </is>
-      </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
+          <t>65725,00</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>147</v>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
@@ -3434,20 +3458,25 @@
       </c>
       <c r="H61" s="5" t="inlineStr">
         <is>
-          <t>153 x R$ 435,00</t>
+          <t>10 x R$ 1.245,13
+137 x R$ 948,25</t>
         </is>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J61" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t>Sendo as 10 primeiras parcelas de R$ 1.245,13</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="30" customHeight="1">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>CT3340</t>
+          <t>CT4129</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -3457,49 +3486,45 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>87643,00</t>
+          <t>112520,00</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>48372,15</t>
+          <t>54616,00</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H62" s="5" t="inlineStr">
         <is>
-          <t>108 x R$ 872,00</t>
+          <t>139 x R$ 794,00</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J62" s="4" t="inlineStr">
-        <is>
-          <t>taxa: R$ 844,00</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J62" s="4" t="inlineStr"/>
     </row>
     <row r="63" ht="30" customHeight="1">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>CT4088</t>
+          <t>CT4130</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -3509,20 +3534,22 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>94100,00</t>
+          <t>212000,00</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>30695,00</t>
-        </is>
-      </c>
-      <c r="E63" s="4" t="n">
-        <v>77</v>
+          <t>100590,00</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
@@ -3532,25 +3559,20 @@
       </c>
       <c r="H63" s="5" t="inlineStr">
         <is>
-          <t>4 x R$ 1.865,00
-73 x R$ 1.489,00</t>
+          <t>136 x R$ 1.759,00</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J63" s="4" t="inlineStr">
-        <is>
-          <t>As 04 primeiras parcelas serão de R$ 1.865,00</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J63" s="4" t="inlineStr"/>
     </row>
     <row r="64" ht="30" customHeight="1">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>CT4089</t>
+          <t>CT4137</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -3560,16 +3582,18 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>98600,00</t>
+          <t>70230,00</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>28920,00</t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="n">
-        <v>62</v>
+          <t>43501,50</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
@@ -3583,25 +3607,24 @@
       </c>
       <c r="H64" s="5" t="inlineStr">
         <is>
-          <t>4 x R$ 2.491,00
-58 x R$ 1.934,00</t>
+          <t>191 x R$ 471,00</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>As 04 primeiras parcelas serão de R$ 2.491,00</t>
+          <t>Taxa: R$ 1.000,00</t>
         </is>
       </c>
     </row>
     <row r="65" ht="30" customHeight="1">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>CT4056</t>
+          <t>CT4138</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -3611,17 +3634,17 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>104000,00</t>
+          <t>129450,00</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>50190,00</t>
+          <t>82462,50</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
@@ -3636,20 +3659,24 @@
       </c>
       <c r="H65" s="5" t="inlineStr">
         <is>
-          <t>184 x R$ 687,00</t>
+          <t>95 x R$ 1.187,00</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J65" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J65" s="4" t="inlineStr">
+        <is>
+          <t>A primeira parcela será de R$ 1.490,00</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="30" customHeight="1">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>CT3913</t>
+          <t>CT4139</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
@@ -3659,17 +3686,17 @@
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>105480,00</t>
+          <t>138900,00</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>52264,00</t>
+          <t>48935,00</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
@@ -3684,7 +3711,7 @@
       </c>
       <c r="H66" s="5" t="inlineStr">
         <is>
-          <t>127 x R$ 943,00</t>
+          <t>37 x R$ 4.211,00</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
@@ -3692,16 +3719,12 @@
           <t>15/04/2025</t>
         </is>
       </c>
-      <c r="J66" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: 1.017,00</t>
-        </is>
-      </c>
+      <c r="J66" s="4" t="inlineStr"/>
     </row>
     <row r="67" ht="30" customHeight="1">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>CT3946</t>
+          <t>CT4148</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -3711,17 +3734,17 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>106000,00</t>
+          <t>313982,00</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>53290,00</t>
+          <t>145689,10</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
@@ -3736,7 +3759,7 @@
       </c>
       <c r="H67" s="5" t="inlineStr">
         <is>
-          <t>177 x R$ 653,00</t>
+          <t>168 x R$ 1.981,00</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
@@ -3744,37 +3767,41 @@
           <t>15/04/2025</t>
         </is>
       </c>
-      <c r="J67" s="4" t="inlineStr"/>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>Sem seguro, taxa R$ 3.051,00</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>CT3862</t>
+          <t>CT4153</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>108000,00</t>
+          <t>83000,00</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>59390,00</t>
+          <t>37140,00</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
@@ -3784,12 +3811,12 @@
       </c>
       <c r="H68" s="5" t="inlineStr">
         <is>
-          <t>189 x R$ 585,00</t>
+          <t>20 x R$ 3.670,00</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr"/>
@@ -3797,32 +3824,32 @@
     <row r="69" ht="30" customHeight="1">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>CT4006</t>
+          <t>CT4154</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>109000,00</t>
+          <t>89000,00</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>65440,00</t>
+          <t>47440,00</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
@@ -3832,12 +3859,12 @@
       </c>
       <c r="H69" s="5" t="inlineStr">
         <is>
-          <t>177 x R$ 553,00</t>
+          <t>14 x R$ 4.620,00</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="J69" s="4" t="inlineStr"/>
@@ -3845,47 +3872,47 @@
     <row r="70" ht="30" customHeight="1">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>CT3970</t>
+          <t>CT4155</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>109746,00</t>
+          <t>109100,00</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>54477,30</t>
+          <t>56955,00</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H70" s="5" t="inlineStr">
         <is>
-          <t>133 x R$ 941,00</t>
+          <t>79 x R$ 1.293,00</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr"/>
@@ -3893,32 +3920,32 @@
     <row r="71" ht="30" customHeight="1">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>CT3920</t>
+          <t>CT4156</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>113500,00</t>
+          <t>119000,00</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>55665,00</t>
+          <t>67940,00</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
@@ -3928,12 +3955,12 @@
       </c>
       <c r="H71" s="5" t="inlineStr">
         <is>
-          <t>156 x R$ 823,00</t>
+          <t>48 x R$ 2.250,00</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr"/>
@@ -3941,7 +3968,7 @@
     <row r="72" ht="30" customHeight="1">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>CT4105</t>
+          <t>CT4157</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -3951,17 +3978,17 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>113780,00</t>
+          <t>70180,00</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>62679,00</t>
+          <t>42499,00</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
@@ -3976,24 +4003,24 @@
       </c>
       <c r="H72" s="5" t="inlineStr">
         <is>
-          <t>155 x R$ 796,00</t>
+          <t>192 x R$ 470,00</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>Taxa: R$ 1.132,45</t>
+          <t>Taxa: R$ 1.000,00</t>
         </is>
       </c>
     </row>
     <row r="73" ht="30" customHeight="1">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>CT4021</t>
+          <t>CT4158</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -4003,16 +4030,18 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>116300,00</t>
+          <t>70000,00</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>59805,00</t>
-        </is>
-      </c>
-      <c r="E73" s="4" t="n">
-        <v>154</v>
+          <t>37490,00</t>
+        </is>
+      </c>
+      <c r="E73" s="4" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
@@ -4026,25 +4055,24 @@
       </c>
       <c r="H73" s="5" t="inlineStr">
         <is>
-          <t>2 x R$ 457,00
-152 x R$ 929,00</t>
+          <t>192 x R$ 472,00</t>
         </is>
       </c>
       <c r="I73" s="4" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J73" s="4" t="inlineStr">
         <is>
-          <t>As 02 primeiras parcelas serão de R$ 457,00</t>
+          <t>Taxa: R$ 1.000,00</t>
         </is>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>CT4126</t>
+          <t>CT4159</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -4054,16 +4082,16 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>119911,00</t>
+          <t>72488,00</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>57985,55</t>
+          <t>42614,40</t>
         </is>
       </c>
       <c r="E74" s="4" t="n">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
@@ -4077,25 +4105,25 @@
       </c>
       <c r="H74" s="5" t="inlineStr">
         <is>
-          <t>10 x R$ 1.083,40
-144 x R$ 816,45</t>
+          <t>2 x R$ 557,00
+186 x R$ 390,00</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t>Sendo as 10 primeiras parcelas de R$ 1.083,40</t>
+          <t>As 02 primeiras parcelas serão de R$ 557,00</t>
         </is>
       </c>
     </row>
     <row r="75" ht="30" customHeight="1">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>CT4110</t>
+          <t>CT4160</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -4105,17 +4133,17 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>120420,00</t>
+          <t>73414,00</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>53011,00</t>
+          <t>43660,70</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
@@ -4130,24 +4158,24 @@
       </c>
       <c r="H75" s="5" t="inlineStr">
         <is>
-          <t>99 x R$ 1.317,00</t>
+          <t>188 x R$ 392,00</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>Taxa: R$ 1.720,22</t>
+          <t>A primeira parcela será de R$ 559,00</t>
         </is>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>CT3902</t>
+          <t>CT4161</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -4157,17 +4185,17 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>127200,00</t>
+          <t>74591,00</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>79350,00</t>
+          <t>43719,55</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
@@ -4182,24 +4210,20 @@
       </c>
       <c r="H76" s="5" t="inlineStr">
         <is>
-          <t>99 x R$ 1.187,00</t>
+          <t>168 x R$ 410,00</t>
         </is>
       </c>
       <c r="I76" s="4" t="inlineStr">
         <is>
-          <t>15/02/2025</t>
-        </is>
-      </c>
-      <c r="J76" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 1.817,00</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J76" s="4" t="inlineStr"/>
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>CT4111</t>
+          <t>CT4162</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -4209,17 +4233,17 @@
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>127800,00</t>
+          <t>75961,00</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>48380,00</t>
+          <t>43788,05</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
@@ -4234,24 +4258,20 @@
       </c>
       <c r="H77" s="5" t="inlineStr">
         <is>
-          <t>87 x R$ 1.829,00</t>
+          <t>177 x R$ 412,00</t>
         </is>
       </c>
       <c r="I77" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J77" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 1.963,35</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J77" s="4" t="inlineStr"/>
     </row>
     <row r="78" ht="30" customHeight="1">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>CT4138</t>
+          <t>CT4164</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -4261,16 +4281,18 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>128776,00</t>
+          <t>96030,00</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>81428,80</t>
-        </is>
-      </c>
-      <c r="E78" s="4" t="n">
-        <v>97</v>
+          <t>79791,50</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
@@ -4284,25 +4306,20 @@
       </c>
       <c r="H78" s="5" t="inlineStr">
         <is>
-          <t>2 x R$ 1.490,00
-95 x R$ 1.187,00</t>
+          <t>145 x R$ 390,00</t>
         </is>
       </c>
       <c r="I78" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J78" s="4" t="inlineStr">
-        <is>
-          <t>As 02 primeiras parcelas serão de R$ 1.490,00</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J78" s="4" t="inlineStr"/>
     </row>
     <row r="79" ht="30" customHeight="1">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>CT4141</t>
+          <t>CT4165</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -4312,17 +4329,17 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>129400,00</t>
+          <t>109168,00</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>66460,00</t>
+          <t>73448,40</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
@@ -4337,12 +4354,12 @@
       </c>
       <c r="H79" s="5" t="inlineStr">
         <is>
-          <t>100 x R$ 1.269,06</t>
+          <t>177 x R$ 468,00</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J79" s="4" t="inlineStr"/>
@@ -4350,7 +4367,7 @@
     <row r="80" ht="30" customHeight="1">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>CT3722</t>
+          <t>CT4166</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -4360,17 +4377,17 @@
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>134000,00</t>
+          <t>109960,00</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>73690,00</t>
+          <t>72488,00</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
@@ -4385,12 +4402,12 @@
       </c>
       <c r="H80" s="5" t="inlineStr">
         <is>
-          <t>93 x R$ 1.396,00</t>
+          <t>177 x R$ 469,00</t>
         </is>
       </c>
       <c r="I80" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J80" s="4" t="inlineStr"/>
@@ -4398,30 +4415,32 @@
     <row r="81" ht="30" customHeight="1">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>CT4127</t>
+          <t>CT4174</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>134700,00</t>
+          <t>16600,00</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>67725,00</t>
-        </is>
-      </c>
-      <c r="E81" s="4" t="n">
-        <v>148</v>
+          <t>10820,00</t>
+        </is>
+      </c>
+      <c r="E81" s="4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G81" s="4" t="inlineStr">
@@ -4431,25 +4450,24 @@
       </c>
       <c r="H81" s="5" t="inlineStr">
         <is>
-          <t>11 x R$ 1.245,13
-137 x R$ 948,25</t>
+          <t>52 x R$ 512,00</t>
         </is>
       </c>
       <c r="I81" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="J81" s="4" t="inlineStr">
         <is>
-          <t>Sendo as 11 primeiras parcelas de R$ 1.245,13</t>
+          <t>Taxa: R$ 650,00</t>
         </is>
       </c>
     </row>
     <row r="82" ht="30" customHeight="1">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>CT4113</t>
+          <t>CT4176</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -4459,16 +4477,18 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>136900,00</t>
+          <t>99500,00</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>52835,00</t>
-        </is>
-      </c>
-      <c r="E82" s="4" t="n">
-        <v>87</v>
+          <t>57965,00</t>
+        </is>
+      </c>
+      <c r="E82" s="4" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
@@ -4482,25 +4502,24 @@
       </c>
       <c r="H82" s="5" t="inlineStr">
         <is>
-          <t>4 x R$ 2.545,00
-83 x R$ 1.672,00</t>
+          <t>186 x R$ 554,00</t>
         </is>
       </c>
       <c r="I82" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J82" s="4" t="inlineStr">
         <is>
-          <t>As 04 primeiras parcelas serão de R$ 2.545,00</t>
+          <t>Taxa: R$ 1.505,60</t>
         </is>
       </c>
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>CT4145</t>
+          <t>CT4178</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -4510,37 +4529,37 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>137500,00</t>
+          <t>168265,00</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>48865,00</t>
+          <t>85403,25</t>
         </is>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G83" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H83" s="5" t="inlineStr">
         <is>
-          <t>89 x R$ 1.676,00</t>
+          <t>137 x R$ 1.271,00</t>
         </is>
       </c>
       <c r="I83" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="J83" s="4" t="inlineStr"/>
@@ -4548,7 +4567,7 @@
     <row r="84" ht="30" customHeight="1">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>CT4139</t>
+          <t>CT4180</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -4558,22 +4577,22 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>138900,00</t>
+          <t>151180,00</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>48935,00</t>
+          <t>72549,00</t>
         </is>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G84" s="4" t="inlineStr">
@@ -4583,12 +4602,12 @@
       </c>
       <c r="H84" s="5" t="inlineStr">
         <is>
-          <t>37 x R$ 4.211,00</t>
+          <t>142 x R$ 1.114,00</t>
         </is>
       </c>
       <c r="I84" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J84" s="4" t="inlineStr"/>
@@ -4596,7 +4615,7 @@
     <row r="85" ht="30" customHeight="1">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>CT3723</t>
+          <t>CT4181</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -4606,22 +4625,22 @@
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>152000,00</t>
+          <t>214849,00</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>83590,00</t>
+          <t>101732,45</t>
         </is>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G85" s="4" t="inlineStr">
@@ -4631,40 +4650,44 @@
       </c>
       <c r="H85" s="5" t="inlineStr">
         <is>
-          <t>84 x R$ 1.847,00</t>
+          <t>176 x R$ 1.464,00</t>
         </is>
       </c>
       <c r="I85" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J85" s="4" t="inlineStr"/>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J85" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.000,00</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>CT1872</t>
+          <t>CT4182</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>153500,00</t>
+          <t>44300,00</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>83665,00</t>
+          <t>24205,00</t>
         </is>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
@@ -4679,20 +4702,24 @@
       </c>
       <c r="H86" s="5" t="inlineStr">
         <is>
-          <t>170 x R$ 998,00</t>
+          <t>40 x R$ 911,00</t>
         </is>
       </c>
       <c r="I86" s="4" t="inlineStr">
         <is>
-          <t>15/04/2023</t>
-        </is>
-      </c>
-      <c r="J86" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J86" s="4" t="inlineStr">
+        <is>
+          <t>AF103</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="30" customHeight="1">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>CT4092</t>
+          <t>CT4184</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -4702,16 +4729,18 @@
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>160000,00</t>
+          <t>807000,00</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>33990,00</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="n">
-        <v>36</v>
+          <t>404340,00</t>
+        </is>
+      </c>
+      <c r="E87" s="4" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
@@ -4725,25 +4754,20 @@
       </c>
       <c r="H87" s="5" t="inlineStr">
         <is>
-          <t>4 x R$ 6.128,00
-32 x R$ 5.346,00</t>
+          <t>112 x R$ 5.680,00</t>
         </is>
       </c>
       <c r="I87" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J87" s="4" t="inlineStr">
-        <is>
-          <t>As 04 primeiras parcelas serão de R$ 6.128,00</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J87" s="4" t="inlineStr"/>
     </row>
     <row r="88" ht="30" customHeight="1">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>CT4140</t>
+          <t>CT4185</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -4753,22 +4777,22 @@
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>187600,00</t>
+          <t>105000,00</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>99370,00</t>
+          <t>52240,00</t>
         </is>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G88" s="4" t="inlineStr">
@@ -4778,12 +4802,12 @@
       </c>
       <c r="H88" s="5" t="inlineStr">
         <is>
-          <t>154 x R$ 1.055,00</t>
+          <t>168 x R$ 695,00</t>
         </is>
       </c>
       <c r="I88" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J88" s="4" t="inlineStr"/>
@@ -4791,7 +4815,7 @@
     <row r="89" ht="30" customHeight="1">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>CT4114</t>
+          <t>CT4186</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -4801,20 +4825,22 @@
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>195300,00</t>
+          <t>60500,00</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>39755,00</t>
-        </is>
-      </c>
-      <c r="E89" s="4" t="n">
-        <v>36</v>
+          <t>33015,00</t>
+        </is>
+      </c>
+      <c r="E89" s="4" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G89" s="4" t="inlineStr">
@@ -4824,25 +4850,20 @@
       </c>
       <c r="H89" s="5" t="inlineStr">
         <is>
-          <t>4 x R$ 7.107,00
-32 x R$ 6.325,00</t>
+          <t>158 x R$ 362,00</t>
         </is>
       </c>
       <c r="I89" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J89" s="4" t="inlineStr">
-        <is>
-          <t>As 04 primeiras parcelas serão de R$ 7.107,00</t>
-        </is>
-      </c>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="J89" s="4" t="inlineStr"/>
     </row>
     <row r="90" ht="30" customHeight="1">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>CT4087</t>
+          <t>CT4192</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
@@ -4852,22 +4873,22 @@
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>200000,00</t>
+          <t>160000,00</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>94990,00</t>
+          <t>73990,00</t>
         </is>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G90" s="4" t="inlineStr">
@@ -4877,12 +4898,12 @@
       </c>
       <c r="H90" s="5" t="inlineStr">
         <is>
-          <t>191 x R$ 1.051,00</t>
+          <t>171 x R$ 1.061,00</t>
         </is>
       </c>
       <c r="I90" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J90" s="4" t="inlineStr"/>
@@ -4890,7 +4911,7 @@
     <row r="91" ht="30" customHeight="1">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>CT4106</t>
+          <t>CT4193</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -4900,49 +4921,45 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>274596,00</t>
+          <t>104500,00</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>139719,80</t>
+          <t>43215,00</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G91" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H91" s="5" t="inlineStr">
         <is>
-          <t>146 x R$ 1.718,00</t>
+          <t>31 x R$ 3.695,00</t>
         </is>
       </c>
       <c r="I91" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J91" s="4" t="inlineStr">
-        <is>
-          <t>Taxa transf R$ 3923,00</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J91" s="4" t="inlineStr"/>
     </row>
     <row r="92" ht="30" customHeight="1">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>CT4107</t>
+          <t>CT4195</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -4952,17 +4969,17 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>276168,00</t>
+          <t>74889,00</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>142798,40</t>
+          <t>38734,45</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
@@ -4977,24 +4994,24 @@
       </c>
       <c r="H92" s="5" t="inlineStr">
         <is>
-          <t>145 x R$ 1.678,00</t>
+          <t>134 x R$ 530,00</t>
         </is>
       </c>
       <c r="I92" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J92" s="4" t="inlineStr">
         <is>
-          <t>Taxa Transf R$ 3945,25</t>
+          <t>Taxa: R$ 589,00</t>
         </is>
       </c>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>CT4079</t>
+          <t>CT4196</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -5004,37 +5021,37 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>278300,00</t>
+          <t>765000,00</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>142905,00</t>
+          <t>387240,00</t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G93" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H93" s="5" t="inlineStr">
         <is>
-          <t>150 x R$ 1.789,00</t>
+          <t>73 x R$ 12.295,00</t>
         </is>
       </c>
       <c r="I93" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J93" s="4" t="inlineStr"/>
@@ -5042,7 +5059,7 @@
     <row r="94" ht="30" customHeight="1">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>CT4054</t>
+          <t>CT4197</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -5052,22 +5069,22 @@
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>300000,00</t>
+          <t>1590000,00</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>174990,00</t>
+          <t>771490,00</t>
         </is>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G94" s="4" t="inlineStr">
@@ -5077,12 +5094,12 @@
       </c>
       <c r="H94" s="5" t="inlineStr">
         <is>
-          <t>98 x R$ 2.568,00</t>
+          <t>74 x R$ 24.285,00</t>
         </is>
       </c>
       <c r="I94" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J94" s="4" t="inlineStr"/>
@@ -5090,7 +5107,7 @@
     <row r="95" ht="30" customHeight="1">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>CT4148</t>
+          <t>CT4198</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
@@ -5100,22 +5117,22 @@
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>314000,00</t>
+          <t>333500,00</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>149690,00</t>
+          <t>251675,00</t>
         </is>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G95" s="4" t="inlineStr">
@@ -5125,12 +5142,12 @@
       </c>
       <c r="H95" s="5" t="inlineStr">
         <is>
-          <t>170 x R$ 1.973,00</t>
+          <t>50 x R$ 2.102,00</t>
         </is>
       </c>
       <c r="I95" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J95" s="4" t="inlineStr"/>
@@ -5138,7 +5155,7 @@
     <row r="96" ht="30" customHeight="1">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>CT3875</t>
+          <t>CT4199</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
@@ -5148,37 +5165,37 @@
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>355000,00</t>
+          <t>257500,00</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>172740,00</t>
+          <t>125865,00</t>
         </is>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>101</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G96" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H96" s="5" t="inlineStr">
         <is>
-          <t>136 x R$ 2.932,49</t>
+          <t>101 x R$ 2.303,00</t>
         </is>
       </c>
       <c r="I96" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J96" s="4" t="inlineStr"/>
@@ -5186,80 +5203,84 @@
     <row r="97" ht="30" customHeight="1">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>CT4032</t>
+          <t>CT4202</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>371000,00</t>
+          <t>97500,00</t>
         </is>
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>188540,00</t>
+          <t>34865,00</t>
         </is>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G97" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H97" s="5" t="inlineStr">
         <is>
-          <t>135 x R$ 2.436,00</t>
+          <t>35 x R$ 3.053,00</t>
         </is>
       </c>
       <c r="I97" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J97" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 650,00</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="30" customHeight="1">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>CT4082</t>
+          <t>CT4203</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>403000,00</t>
+          <t>292800,00</t>
         </is>
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
-          <t>260140,00</t>
+          <t>119630,00</t>
         </is>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G98" s="4" t="inlineStr">
@@ -5269,12 +5290,12 @@
       </c>
       <c r="H98" s="5" t="inlineStr">
         <is>
-          <t>159 x R$ 1.899,00</t>
+          <t>41 x R$ 7.249,00</t>
         </is>
       </c>
       <c r="I98" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J98" s="4" t="inlineStr"/>
@@ -5282,7 +5303,7 @@
     <row r="99" ht="30" customHeight="1">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>CT3864</t>
+          <t>CT4204</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
@@ -5292,17 +5313,17 @@
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>422000,00</t>
+          <t>140000,00</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>216090,00</t>
+          <t>90990,00</t>
         </is>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F99" s="4" t="inlineStr">
@@ -5312,17 +5333,17 @@
       </c>
       <c r="G99" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H99" s="5" t="inlineStr">
         <is>
-          <t>113 x R$ 3.461,00</t>
+          <t>60 x R$ 1.357,00</t>
         </is>
       </c>
       <c r="I99" s="4" t="inlineStr">
         <is>
-          <t>15/02/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J99" s="4" t="inlineStr"/>
@@ -5330,7 +5351,7 @@
     <row r="100" ht="30" customHeight="1">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>CT4015</t>
+          <t>CT4206</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
@@ -5340,22 +5361,22 @@
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>439000,00</t>
+          <t>112525,00</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>221940,00</t>
+          <t>54616,25</t>
         </is>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G100" s="4" t="inlineStr">
@@ -5365,12 +5386,12 @@
       </c>
       <c r="H100" s="5" t="inlineStr">
         <is>
-          <t>152 x R$ 2.901,01</t>
+          <t>163 x R$ 791,00</t>
         </is>
       </c>
       <c r="I100" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J100" s="4" t="inlineStr"/>
@@ -5378,7 +5399,7 @@
     <row r="101" ht="30" customHeight="1">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>CT3871</t>
+          <t>CT4209</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
@@ -5388,49 +5409,45 @@
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>445000,00</t>
+          <t>161000,00</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>217240,00</t>
+          <t>78040,00</t>
         </is>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G101" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H101" s="5" t="inlineStr">
         <is>
-          <t>181 x R$ 2.641,00</t>
+          <t>142 x R$ 1.115,00</t>
         </is>
       </c>
       <c r="I101" s="4" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
-        </is>
-      </c>
-      <c r="J101" s="4" t="inlineStr">
-        <is>
-          <t>Oportunidade !</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J101" s="4" t="inlineStr"/>
     </row>
     <row r="102" ht="30" customHeight="1">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>CT4014</t>
+          <t>CT4210</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
@@ -5440,17 +5457,17 @@
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>446000,00</t>
+          <t>83200,00</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>222290,00</t>
+          <t>42150,00</t>
         </is>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
@@ -5460,17 +5477,17 @@
       </c>
       <c r="G102" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H102" s="5" t="inlineStr">
         <is>
-          <t>155 x R$ 3.003,00</t>
+          <t>147 x R$ 716,00</t>
         </is>
       </c>
       <c r="I102" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J102" s="4" t="inlineStr"/>
@@ -5478,27 +5495,27 @@
     <row r="103" ht="30" customHeight="1">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>CT4085</t>
+          <t>CT4217</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>457500,00</t>
+          <t>254019,00</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>222865,00</t>
+          <t>144690,95</t>
         </is>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
@@ -5508,17 +5525,17 @@
       </c>
       <c r="G103" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H103" s="5" t="inlineStr">
         <is>
-          <t>118 x R$ 3.222,00</t>
+          <t>64 x R$ 3.520,00</t>
         </is>
       </c>
       <c r="I103" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J103" s="4" t="inlineStr"/>
@@ -5526,27 +5543,27 @@
     <row r="104" ht="30" customHeight="1">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>CT4093</t>
+          <t>CT4218</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>526000,00</t>
+          <t>332255,00</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>258290,00</t>
+          <t>173602,75</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
@@ -5561,12 +5578,12 @@
       </c>
       <c r="H104" s="5" t="inlineStr">
         <is>
-          <t>181 x R$ 3.430,00</t>
+          <t>64 x R$ 4.841,00</t>
         </is>
       </c>
       <c r="I104" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J104" s="4" t="inlineStr"/>
@@ -5574,32 +5591,32 @@
     <row r="105" ht="30" customHeight="1">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>CT4094</t>
+          <t>CT4219</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>544000,00</t>
+          <t>39100,00</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>293190,00</t>
+          <t>29945,00</t>
         </is>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G105" s="4" t="inlineStr">
@@ -5609,12 +5626,12 @@
       </c>
       <c r="H105" s="5" t="inlineStr">
         <is>
-          <t>145 x R$ 4.370,00</t>
+          <t>33 x R$ 539,00</t>
         </is>
       </c>
       <c r="I105" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J105" s="4" t="inlineStr"/>
@@ -5622,32 +5639,32 @@
     <row r="106" ht="30" customHeight="1">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>CT3984</t>
+          <t>CT4220</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>710000,00</t>
+          <t>43200,00</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>368490,00</t>
+          <t>37150,00</t>
         </is>
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G106" s="4" t="inlineStr">
@@ -5657,12 +5674,12 @@
       </c>
       <c r="H106" s="5" t="inlineStr">
         <is>
-          <t>113 x R$ 5.736,00</t>
+          <t>39 x R$ 319,00</t>
         </is>
       </c>
       <c r="I106" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J106" s="4" t="inlineStr"/>
@@ -5670,84 +5687,80 @@
     <row r="107" ht="30" customHeight="1">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>CT4035</t>
+          <t>CT4221</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>726000,00</t>
+          <t>58600,00</t>
         </is>
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>356290,00</t>
+          <t>39920,00</t>
         </is>
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G107" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H107" s="5" t="inlineStr">
         <is>
-          <t>135 x R$ 5.368,00</t>
+          <t>54 x R$ 549,00</t>
         </is>
       </c>
       <c r="I107" s="4" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
-        </is>
-      </c>
-      <c r="J107" s="4" t="inlineStr">
-        <is>
-          <t>Oportunidade !</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J107" s="4" t="inlineStr"/>
     </row>
     <row r="108" ht="30" customHeight="1">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>CT3699</t>
+          <t>CT4222</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>775028,00</t>
+          <t>59350,00</t>
         </is>
       </c>
       <c r="D108" s="4" t="inlineStr">
         <is>
-          <t>408741,40</t>
+          <t>39957,50</t>
         </is>
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G108" s="4" t="inlineStr">
@@ -5757,49 +5770,45 @@
       </c>
       <c r="H108" s="5" t="inlineStr">
         <is>
-          <t>108 x R$ 7.679,00</t>
+          <t>45 x R$ 719,00</t>
         </is>
       </c>
       <c r="I108" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J108" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 9.500,00</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J108" s="4" t="inlineStr"/>
     </row>
     <row r="109" ht="30" customHeight="1">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>CT4124</t>
+          <t>CT4223</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>790000,00</t>
+          <t>77600,00</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>375490,00</t>
+          <t>53870,00</t>
         </is>
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G109" s="4" t="inlineStr">
@@ -5809,12 +5818,12 @@
       </c>
       <c r="H109" s="5" t="inlineStr">
         <is>
-          <t>145 x R$ 6.342,00</t>
+          <t>39 x R$ 1.022,00</t>
         </is>
       </c>
       <c r="I109" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J109" s="4" t="inlineStr"/>
@@ -5822,32 +5831,32 @@
     <row r="110" ht="30" customHeight="1">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>CT4109</t>
+          <t>CT4224</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>842000,00</t>
+          <t>89000,00</t>
         </is>
       </c>
       <c r="D110" s="4" t="inlineStr">
         <is>
-          <t>427090,00</t>
+          <t>52440,00</t>
         </is>
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G110" s="4" t="inlineStr">
@@ -5857,12 +5866,12 @@
       </c>
       <c r="H110" s="5" t="inlineStr">
         <is>
-          <t>181 x R$ 5.557,00</t>
+          <t>20 x R$ 3.184,00</t>
         </is>
       </c>
       <c r="I110" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J110" s="4" t="inlineStr"/>
@@ -5870,32 +5879,32 @@
     <row r="111" ht="30" customHeight="1">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>CT4016</t>
+          <t>CT4225</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>885000,00</t>
+          <t>92150,00</t>
         </is>
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>444240,00</t>
+          <t>57597,50</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G111" s="4" t="inlineStr">
@@ -5905,24 +5914,20 @@
       </c>
       <c r="H111" s="5" t="inlineStr">
         <is>
-          <t>154 x R$ 5.094,00</t>
+          <t>67 x R$ 1.015,00</t>
         </is>
       </c>
       <c r="I111" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J111" s="4" t="inlineStr">
-        <is>
-          <t>Junção</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J111" s="4" t="inlineStr"/>
     </row>
     <row r="112" ht="30" customHeight="1">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>CT3272</t>
+          <t>CT4226</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
@@ -5932,22 +5937,22 @@
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>364000,00</t>
+          <t>106000,00</t>
         </is>
       </c>
       <c r="D112" s="4" t="inlineStr">
         <is>
-          <t>235190,00</t>
+          <t>54290,00</t>
         </is>
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G112" s="4" t="inlineStr">
@@ -5957,24 +5962,20 @@
       </c>
       <c r="H112" s="5" t="inlineStr">
         <is>
-          <t>86 x R$ 2.191,00</t>
+          <t>165 x R$ 641,00</t>
         </is>
       </c>
       <c r="I112" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="J112" s="4" t="inlineStr">
-        <is>
-          <t>Santander, autoriza junção de cotas</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J112" s="4" t="inlineStr"/>
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>CT3866</t>
+          <t>CT4228</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
@@ -5984,22 +5985,22 @@
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>426000,00</t>
+          <t>205600,00</t>
         </is>
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>208290,00</t>
+          <t>110270,00</t>
         </is>
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G113" s="4" t="inlineStr">
@@ -6009,15 +6010,1445 @@
       </c>
       <c r="H113" s="5" t="inlineStr">
         <is>
-          <t>126 x R$ 3.108,00</t>
+          <t>153 x R$ 1.189,00</t>
         </is>
       </c>
       <c r="I113" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="J113" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J113" s="4" t="inlineStr">
+        <is>
+          <t>Oportunidade, cota com R$89mil já pago</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="30" customHeight="1">
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>CT4231</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>650000,00</t>
+        </is>
+      </c>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t>386490,00</t>
+        </is>
+      </c>
+      <c r="E114" s="4" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G114" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H114" s="5" t="inlineStr">
+        <is>
+          <t>93 x R$ 4.162,00</t>
+        </is>
+      </c>
+      <c r="I114" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J114" s="4" t="inlineStr"/>
+    </row>
+    <row r="115" ht="30" customHeight="1">
+      <c r="A115" s="4" t="inlineStr">
+        <is>
+          <t>CT4232</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>155000,00</t>
+        </is>
+      </c>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t>61740,00</t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="F115" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G115" s="4" t="inlineStr">
+        <is>
+          <t>Reservada</t>
+        </is>
+      </c>
+      <c r="H115" s="5" t="inlineStr">
+        <is>
+          <t>144 x R$ 1.275,00</t>
+        </is>
+      </c>
+      <c r="I115" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J115" s="4" t="inlineStr"/>
+    </row>
+    <row r="116" ht="30" customHeight="1">
+      <c r="A116" s="4" t="inlineStr">
+        <is>
+          <t>CT4238</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>126597,00</t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>74319,85</t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G116" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H116" s="5" t="inlineStr">
+        <is>
+          <t>63 x R$ 2.030,00</t>
+        </is>
+      </c>
+      <c r="I116" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J116" s="4" t="inlineStr"/>
+    </row>
+    <row r="117" ht="30" customHeight="1">
+      <c r="A117" s="4" t="inlineStr">
+        <is>
+          <t>CT4239</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t>82973,00</t>
+        </is>
+      </c>
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t>46138,65</t>
+        </is>
+      </c>
+      <c r="E117" s="4" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="F117" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G117" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H117" s="5" t="inlineStr">
+        <is>
+          <t>133 x R$ 723,00</t>
+        </is>
+      </c>
+      <c r="I117" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J117" s="4" t="inlineStr"/>
+    </row>
+    <row r="118" ht="30" customHeight="1">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>CT4240</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>189000,00</t>
+        </is>
+      </c>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t>39440,00</t>
+        </is>
+      </c>
+      <c r="E118" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G118" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H118" s="5" t="inlineStr">
+        <is>
+          <t>35 x R$ 6.325,00</t>
+        </is>
+      </c>
+      <c r="I118" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J118" s="4" t="inlineStr"/>
+    </row>
+    <row r="119" ht="30" customHeight="1">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>CT4241</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>588000,00</t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t>294390,00</t>
+        </is>
+      </c>
+      <c r="E119" s="4" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F119" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G119" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H119" s="5" t="inlineStr">
+        <is>
+          <t>109 x R$ 4.758,00</t>
+        </is>
+      </c>
+      <c r="I119" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J119" s="4" t="inlineStr"/>
+    </row>
+    <row r="120" ht="30" customHeight="1">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>CT4242</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>142000,00</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t>72090,00</t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G120" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H120" s="5" t="inlineStr">
+        <is>
+          <t>189 x R$ 806,00</t>
+        </is>
+      </c>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J120" s="4" t="inlineStr"/>
+    </row>
+    <row r="121" ht="30" customHeight="1">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>CT4243</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>70000,00</t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="inlineStr">
+        <is>
+          <t>38490,00</t>
+        </is>
+      </c>
+      <c r="E121" s="4" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="F121" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G121" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H121" s="5" t="inlineStr">
+        <is>
+          <t>194 x R$ 444,00</t>
+        </is>
+      </c>
+      <c r="I121" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J121" s="4" t="inlineStr"/>
+    </row>
+    <row r="122" ht="30" customHeight="1">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>CT4244</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>295000,00</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t>138740,00</t>
+        </is>
+      </c>
+      <c r="E122" s="4" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G122" s="4" t="inlineStr">
+        <is>
+          <t>Reservada</t>
+        </is>
+      </c>
+      <c r="H122" s="5" t="inlineStr">
+        <is>
+          <t>147 x R$ 1.942,00</t>
+        </is>
+      </c>
+      <c r="I122" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J122" s="4" t="inlineStr">
+        <is>
+          <t>Taxa transf R$ 4250,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="30" customHeight="1">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>CT4245</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>394200,00</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>256700,00</t>
+        </is>
+      </c>
+      <c r="E123" s="4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G123" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H123" s="5" t="inlineStr">
+        <is>
+          <t>96 x R$ 2.480,00</t>
+        </is>
+      </c>
+      <c r="I123" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J123" s="4" t="inlineStr">
+        <is>
+          <t>Oportunidade , cota com deságio !</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="30" customHeight="1">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>CT4246</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>700000,00</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>434990,00</t>
+        </is>
+      </c>
+      <c r="E124" s="4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G124" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H124" s="5" t="inlineStr">
+        <is>
+          <t>96 x R$ 5.075,00</t>
+        </is>
+      </c>
+      <c r="I124" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J124" s="4" t="inlineStr">
+        <is>
+          <t>Oportunidade, cota com Deságio !</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="30" customHeight="1">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
+          <t>CT4247</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t>102420,00</t>
+        </is>
+      </c>
+      <c r="D125" s="4" t="inlineStr">
+        <is>
+          <t>50111,00</t>
+        </is>
+      </c>
+      <c r="E125" s="4" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="F125" s="4" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G125" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H125" s="5" t="inlineStr">
+        <is>
+          <t>175 x R$ 711,00</t>
+        </is>
+      </c>
+      <c r="I125" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J125" s="4" t="inlineStr"/>
+    </row>
+    <row r="126" ht="30" customHeight="1">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>CT4249</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>102000,00</t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
+        <is>
+          <t>59090,00</t>
+        </is>
+      </c>
+      <c r="E126" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>Rodobens</t>
+        </is>
+      </c>
+      <c r="G126" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H126" s="5" t="inlineStr">
+        <is>
+          <t>65 x R$ 1.690,00</t>
+        </is>
+      </c>
+      <c r="I126" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J126" s="4" t="inlineStr">
+        <is>
+          <t>As 18 últimas parcelas serão de R$ 1.292,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="30" customHeight="1">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>CT4251</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>164200,00</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>86200,00</t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>Rodobens</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H127" s="5" t="inlineStr">
+        <is>
+          <t>25 x R$ 722,00
+129 x R$ 1.109,00</t>
+        </is>
+      </c>
+      <c r="I127" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J127" s="4" t="inlineStr">
+        <is>
+          <t>As 25 primeiras parcelas serão de R$ 722,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="30" customHeight="1">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>CT4252</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>173000,00</t>
+        </is>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
+        <is>
+          <t>87640,00</t>
+        </is>
+      </c>
+      <c r="E128" s="4" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>Rodobens</t>
+        </is>
+      </c>
+      <c r="G128" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H128" s="5" t="inlineStr">
+        <is>
+          <t>122 x R$ 1.541,00</t>
+        </is>
+      </c>
+      <c r="I128" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J128" s="4" t="inlineStr">
+        <is>
+          <t>As 30 últimas parcelas serão de R$ 1.456,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="30" customHeight="1">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>CT4253</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>200000,00</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t>94990,00</t>
+        </is>
+      </c>
+      <c r="E129" s="4" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="F129" s="4" t="inlineStr">
+        <is>
+          <t>Rodobens</t>
+        </is>
+      </c>
+      <c r="G129" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H129" s="5" t="inlineStr">
+        <is>
+          <t>154 x R$ 1.505,00</t>
+        </is>
+      </c>
+      <c r="I129" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J129" s="4" t="inlineStr">
+        <is>
+          <t>As primeiras 24 parcelas serão de R$ 980,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="30" customHeight="1">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>CT4254</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>218000,00</t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t>137890,00</t>
+        </is>
+      </c>
+      <c r="E130" s="4" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>Rodobens</t>
+        </is>
+      </c>
+      <c r="G130" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H130" s="5" t="inlineStr">
+        <is>
+          <t>62 x R$ 2.226,00</t>
+        </is>
+      </c>
+      <c r="I130" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J130" s="4" t="inlineStr"/>
+    </row>
+    <row r="131" ht="30" customHeight="1">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>CT4255</t>
+        </is>
+      </c>
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>242000,00</t>
+        </is>
+      </c>
+      <c r="D131" s="4" t="inlineStr">
+        <is>
+          <t>122090,00</t>
+        </is>
+      </c>
+      <c r="E131" s="4" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F131" s="4" t="inlineStr">
+        <is>
+          <t>Rodobens</t>
+        </is>
+      </c>
+      <c r="G131" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H131" s="5" t="inlineStr">
+        <is>
+          <t>137 x R$ 1.867,00</t>
+        </is>
+      </c>
+      <c r="I131" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J131" s="4" t="inlineStr"/>
+    </row>
+    <row r="132" ht="30" customHeight="1">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>CT4256</t>
+        </is>
+      </c>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>144000,00</t>
+        </is>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
+          <t>74190,00</t>
+        </is>
+      </c>
+      <c r="E132" s="4" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G132" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H132" s="5" t="inlineStr">
+        <is>
+          <t>164 x R$ 1.092,00</t>
+        </is>
+      </c>
+      <c r="I132" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J132" s="4" t="inlineStr"/>
+    </row>
+    <row r="133" ht="30" customHeight="1">
+      <c r="A133" s="4" t="inlineStr">
+        <is>
+          <t>CT4257</t>
+        </is>
+      </c>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>197000,00</t>
+        </is>
+      </c>
+      <c r="D133" s="4" t="inlineStr">
+        <is>
+          <t>83840,00</t>
+        </is>
+      </c>
+      <c r="E133" s="4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F133" s="4" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G133" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H133" s="5" t="inlineStr">
+        <is>
+          <t>152 x R$ 1.488,00</t>
+        </is>
+      </c>
+      <c r="I133" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J133" s="4" t="inlineStr"/>
+    </row>
+    <row r="134" ht="30" customHeight="1">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>CT4258</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>153000,00</t>
+        </is>
+      </c>
+      <c r="D134" s="4" t="inlineStr">
+        <is>
+          <t>81640,00</t>
+        </is>
+      </c>
+      <c r="E134" s="4" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G134" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H134" s="5" t="inlineStr">
+        <is>
+          <t>161 x R$ 1.140,00</t>
+        </is>
+      </c>
+      <c r="I134" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J134" s="4" t="inlineStr"/>
+    </row>
+    <row r="135" ht="30" customHeight="1">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>CT4259</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>123748,00</t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>56186,40</t>
+        </is>
+      </c>
+      <c r="E135" s="4" t="n">
+        <v>111</v>
+      </c>
+      <c r="F135" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G135" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H135" s="5" t="inlineStr">
+        <is>
+          <t>3 x R$ 1.771,00.
+108 x R$ 1.083,00</t>
+        </is>
+      </c>
+      <c r="I135" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J135" s="4" t="inlineStr">
+        <is>
+          <t>As 03 primeiras parcelas serão de R$ 1.771,00. Taxa: R$ 1.768,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="30" customHeight="1">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>CT4260</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>111650,00</t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>55572,50</t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G136" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H136" s="5" t="inlineStr">
+        <is>
+          <t>162 x R$ 735,00</t>
+        </is>
+      </c>
+      <c r="I136" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J136" s="4" t="inlineStr"/>
+    </row>
+    <row r="137" ht="30" customHeight="1">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>CT4261</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>54600,00</t>
+        </is>
+      </c>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t>29720,00</t>
+        </is>
+      </c>
+      <c r="E137" s="4" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F137" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G137" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H137" s="5" t="inlineStr">
+        <is>
+          <t>158 x R$ 375,00</t>
+        </is>
+      </c>
+      <c r="I137" s="4" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="J137" s="4" t="inlineStr"/>
+    </row>
+    <row r="138" ht="30" customHeight="1">
+      <c r="A138" s="4" t="inlineStr">
+        <is>
+          <t>CT4262</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t>69750,00</t>
+        </is>
+      </c>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t>39477,50</t>
+        </is>
+      </c>
+      <c r="E138" s="4" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G138" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H138" s="5" t="inlineStr">
+        <is>
+          <t>138 x R$ 486,00</t>
+        </is>
+      </c>
+      <c r="I138" s="4" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="J138" s="4" t="inlineStr"/>
+    </row>
+    <row r="139" ht="30" customHeight="1">
+      <c r="A139" s="4" t="inlineStr">
+        <is>
+          <t>CT4263</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>79700,00</t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
+          <t>41975,00</t>
+        </is>
+      </c>
+      <c r="E139" s="4" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F139" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G139" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H139" s="5" t="inlineStr">
+        <is>
+          <t>163 x R$ 560,00</t>
+        </is>
+      </c>
+      <c r="I139" s="4" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="J139" s="4" t="inlineStr"/>
+    </row>
+    <row r="140" ht="30" customHeight="1">
+      <c r="A140" s="4" t="inlineStr">
+        <is>
+          <t>CT4264</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>137200,00</t>
+        </is>
+      </c>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t>71850,00</t>
+        </is>
+      </c>
+      <c r="E140" s="4" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G140" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H140" s="5" t="inlineStr">
+        <is>
+          <t>141 x R$ 1.099,00</t>
+        </is>
+      </c>
+      <c r="I140" s="4" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="J140" s="4" t="inlineStr"/>
+    </row>
+    <row r="141" ht="30" customHeight="1">
+      <c r="A141" s="4" t="inlineStr">
+        <is>
+          <t>CT4265</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t>148020,00</t>
+        </is>
+      </c>
+      <c r="D141" s="4" t="inlineStr">
+        <is>
+          <t>77391,00</t>
+        </is>
+      </c>
+      <c r="E141" s="4" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F141" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G141" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H141" s="5" t="inlineStr">
+        <is>
+          <t>61 x R$ 2.021,00</t>
+        </is>
+      </c>
+      <c r="I141" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J141" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 650,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="30" customHeight="1">
+      <c r="A142" s="4" t="inlineStr">
+        <is>
+          <t>CT4266</t>
+        </is>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>52450,00</t>
+        </is>
+      </c>
+      <c r="D142" s="4" t="inlineStr">
+        <is>
+          <t>22612,50</t>
+        </is>
+      </c>
+      <c r="E142" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G142" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H142" s="5" t="inlineStr">
+        <is>
+          <t>44 x R$ 1.179,00</t>
+        </is>
+      </c>
+      <c r="I142" s="4" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J142" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scraper-completo/DADOS EXTRAIDOS/extracao_consorciocontemplado.xlsx
+++ b/scraper-completo/DADOS EXTRAIDOS/extracao_consorciocontemplado.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,12 +618,12 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>125100,00</t>
+          <t>125200,00</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>70245,00</t>
+          <t>70250,00</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>45552,15</t>
+          <t>43552,15</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
@@ -2354,17 +2354,17 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>474351,00</t>
+          <t>475000,00</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>259707,55</t>
+          <t>255740,00</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>105 x R$ 3.603,00</t>
+          <t>106 x R$ 3.603,00</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
@@ -2444,7 +2444,7 @@
     <row r="41" ht="30" customHeight="1">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>CT4026</t>
+          <t>CT4028</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -2454,17 +2454,17 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>730000,00</t>
+          <t>830000,00</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>460490,00</t>
+          <t>425490,00</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>19 x R$ 23.155,00</t>
+          <t>74 x R$ 11.992,00</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
     <row r="42" ht="30" customHeight="1">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>CT4028</t>
+          <t>CT4029</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -2502,17 +2502,17 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>830000,00</t>
+          <t>1070000,00</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>425490,00</t>
+          <t>591490,00</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
@@ -2527,12 +2527,12 @@
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>74 x R$ 11.992,00</t>
+          <t>19 x R$ 37.850,00</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr"/>
@@ -2540,32 +2540,32 @@
     <row r="43" ht="30" customHeight="1">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>CT4029</t>
+          <t>CT4036</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>1070000,00</t>
+          <t>331000,00</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>591490,00</t>
+          <t>161540,00</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
@@ -2575,40 +2575,44 @@
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>19 x R$ 37.850,00</t>
+          <t>82 x R$ 3.636,00</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J43" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>VP 13 - VEICULOS PESADOS</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="30" customHeight="1">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>CT4036</t>
+          <t>CT4054</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>331000,00</t>
+          <t>300000,00</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>161540,00</t>
+          <t>174990,00</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
@@ -2623,7 +2627,7 @@
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>82 x R$ 3.636,00</t>
+          <t>97 x R$ 2.568,00</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
@@ -2631,16 +2635,12 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J44" s="4" t="inlineStr">
-        <is>
-          <t>VP 13 - VEICULOS PESADOS</t>
-        </is>
-      </c>
+      <c r="J44" s="4" t="inlineStr"/>
     </row>
     <row r="45" ht="30" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>CT4054</t>
+          <t>CT4056</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -2650,17 +2650,17 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>300000,00</t>
+          <t>104000,00</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>174990,00</t>
+          <t>50190,00</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>184</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>97 x R$ 2.568,00</t>
+          <t>184 x R$ 687,00</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/04/2025</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr"/>
@@ -2688,7 +2688,7 @@
     <row r="46" ht="30" customHeight="1">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>CT4056</t>
+          <t>CT4065</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -2698,22 +2698,22 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>104000,00</t>
+          <t>189660,00</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>50190,00</t>
+          <t>86473,00</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>184 x R$ 687,00</t>
+          <t>138 x R$ 1.289,00</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr"/>
@@ -2736,32 +2736,32 @@
     <row r="47" ht="30" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>CT4065</t>
+          <t>CT4080</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>189660,00</t>
+          <t>125000,00</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>86473,00</t>
+          <t>48240,00</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
@@ -2771,40 +2771,44 @@
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>138 x R$ 1.289,00</t>
+          <t>77 x R$ 1.798,00</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J47" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>AF- Veículos Leve até 8 anos de uso</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="30" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>CT4080</t>
+          <t>CT4082</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>125000,00</t>
+          <t>404000,00</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>48240,00</t>
+          <t>250190,00</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
@@ -2814,29 +2818,25 @@
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>78 x R$ 1.798,00</t>
+          <t>158 x R$ 1.899,00</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>AF- Veículos Leve até 8 anos de uso</t>
-        </is>
-      </c>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr"/>
     </row>
     <row r="49" ht="30" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>CT4082</t>
+          <t>CT4086</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -2846,22 +2846,22 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>404000,00</t>
+          <t>86000,00</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>250190,00</t>
+          <t>48290,00</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>158 x R$ 1.899,00</t>
+          <t>111 x R$ 588,00</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr"/>
@@ -2884,7 +2884,7 @@
     <row r="50" ht="30" customHeight="1">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>CT4086</t>
+          <t>CT4089</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -2894,22 +2894,20 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>86000,00</t>
+          <t>96240,00</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>48290,00</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
+          <t>28802,00</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>61</v>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
@@ -2919,20 +2917,25 @@
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>111 x R$ 588,00</t>
+          <t>3 x R$ 2.491,00
+58 x R$ 1.934,00</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J50" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t>As 03 primeiras parcelas serão de R$ 2.491,00</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="30" customHeight="1">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>CT4089</t>
+          <t>CT4100</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -2942,16 +2945,18 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>96240,00</t>
+          <t>73100,00</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>28802,00</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="n">
-        <v>61</v>
+          <t>35645,00</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
@@ -2960,13 +2965,12 @@
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>3 x R$ 2.491,00
-58 x R$ 1.934,00</t>
+          <t>182 x R$ 479,00</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
@@ -2974,16 +2978,12 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>As 03 primeiras parcelas serão de R$ 2.491,00</t>
-        </is>
-      </c>
+      <c r="J51" s="4" t="inlineStr"/>
     </row>
     <row r="52" ht="30" customHeight="1">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>CT4093</t>
+          <t>CT4106</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -2993,17 +2993,17 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>527000,00</t>
+          <t>274500,00</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>259340,00</t>
+          <t>140715,00</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
@@ -3013,12 +3013,12 @@
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>180 x R$ 3.430,00</t>
+          <t>145 x R$ 1.718,00</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
@@ -3026,12 +3026,16 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J52" s="4" t="inlineStr"/>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t>Taxa transf R$ 3923,00</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="30" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>CT4094</t>
+          <t>CT4110</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -3041,18 +3045,16 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>546000,00</t>
+          <t>119000,00</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>290290,00</t>
-        </is>
-      </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
+          <t>54940,00</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>102</v>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
@@ -3066,55 +3068,60 @@
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>144 x R$ 4.370,00</t>
+          <t>3 x R$ 2.056,00.
+99 x R$ 1.317,00</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J53" s="4" t="inlineStr"/>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>As 03 primeiras parcelas serão de R$ 2.056,00. Taxa: R$ 1.720,22</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>CT4100</t>
+          <t>CT4118</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>73100,00</t>
+          <t>28700,00</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>35645,00</t>
+          <t>21425,00</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>182 x R$ 479,00</t>
+          <t>70 x R$ 227,00</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
@@ -3127,7 +3134,7 @@
     <row r="55" ht="30" customHeight="1">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>CT4106</t>
+          <t>CT4126</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -3137,18 +3144,16 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>274500,00</t>
+          <t>119911,00</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>140715,00</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
+          <t>55985,55</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>153</v>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
@@ -3162,7 +3167,8 @@
       </c>
       <c r="H55" s="5" t="inlineStr">
         <is>
-          <t>145 x R$ 1.718,00</t>
+          <t>9 x R$ 1.083,40
+144 x R$ 816,45</t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
@@ -3172,14 +3178,14 @@
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>Taxa transf R$ 3923,00</t>
+          <t>Sendo as 9 primeiras parcelas de R$ 1.083,40</t>
         </is>
       </c>
     </row>
     <row r="56" ht="30" customHeight="1">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>CT4109</t>
+          <t>CT4127</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -3189,18 +3195,16 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>845000,00</t>
+          <t>134700,00</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>422240,00</t>
-        </is>
-      </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
+          <t>65725,00</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>147</v>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
@@ -3214,7 +3218,8 @@
       </c>
       <c r="H56" s="5" t="inlineStr">
         <is>
-          <t>180 x R$ 5.557,00</t>
+          <t>10 x R$ 1.245,13
+137 x R$ 948,25</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
@@ -3222,12 +3227,16 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr"/>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>Sendo as 10 primeiras parcelas de R$ 1.245,13</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="30" customHeight="1">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>CT4110</t>
+          <t>CT4129</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -3237,20 +3246,22 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>119000,00</t>
+          <t>112520,00</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>54940,00</t>
-        </is>
-      </c>
-      <c r="E57" s="4" t="n">
-        <v>102</v>
+          <t>54616,00</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
@@ -3260,25 +3271,20 @@
       </c>
       <c r="H57" s="5" t="inlineStr">
         <is>
-          <t>3 x R$ 2.056,00.
-99 x R$ 1.317,00</t>
+          <t>139 x R$ 794,00</t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J57" s="4" t="inlineStr">
-        <is>
-          <t>As 03 primeiras parcelas serão de R$ 2.056,00. Taxa: R$ 1.720,22</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J57" s="4" t="inlineStr"/>
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>CT4116</t>
+          <t>CT4130</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -3288,17 +3294,17 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>96700,00</t>
+          <t>212000,00</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>48825,00</t>
+          <t>100590,00</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
@@ -3313,7 +3319,7 @@
       </c>
       <c r="H58" s="5" t="inlineStr">
         <is>
-          <t>151 x R$ 637,00</t>
+          <t>136 x R$ 1.759,00</t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
@@ -3326,32 +3332,32 @@
     <row r="59" ht="30" customHeight="1">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>CT4118</t>
+          <t>CT4137</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>28700,00</t>
+          <t>70230,00</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>21425,00</t>
+          <t>43501,50</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
@@ -3361,7 +3367,7 @@
       </c>
       <c r="H59" s="5" t="inlineStr">
         <is>
-          <t>70 x R$ 227,00</t>
+          <t>191 x R$ 471,00</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
@@ -3369,12 +3375,16 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.000,00</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>CT4126</t>
+          <t>CT4138</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -3384,16 +3394,18 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>119911,00</t>
+          <t>129450,00</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>55985,55</t>
-        </is>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>153</v>
+          <t>82462,50</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
@@ -3407,8 +3419,7 @@
       </c>
       <c r="H60" s="5" t="inlineStr">
         <is>
-          <t>9 x R$ 1.083,40
-144 x R$ 816,45</t>
+          <t>95 x R$ 1.187,00</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
@@ -3418,14 +3429,14 @@
       </c>
       <c r="J60" s="4" t="inlineStr">
         <is>
-          <t>Sendo as 9 primeiras parcelas de R$ 1.083,40</t>
+          <t>A primeira parcela será de R$ 1.490,00</t>
         </is>
       </c>
     </row>
     <row r="61" ht="30" customHeight="1">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>CT4127</t>
+          <t>CT4139</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -3435,16 +3446,18 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>134700,00</t>
+          <t>138900,00</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>65725,00</t>
-        </is>
-      </c>
-      <c r="E61" s="4" t="n">
-        <v>147</v>
+          <t>48935,00</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
@@ -3458,25 +3471,20 @@
       </c>
       <c r="H61" s="5" t="inlineStr">
         <is>
-          <t>10 x R$ 1.245,13
-137 x R$ 948,25</t>
+          <t>37 x R$ 4.211,00</t>
         </is>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J61" s="4" t="inlineStr">
-        <is>
-          <t>Sendo as 10 primeiras parcelas de R$ 1.245,13</t>
-        </is>
-      </c>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="J61" s="4" t="inlineStr"/>
     </row>
     <row r="62" ht="30" customHeight="1">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>CT4129</t>
+          <t>CT4148</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -3486,70 +3494,74 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>112520,00</t>
+          <t>313982,00</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>54616,00</t>
+          <t>145689,10</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H62" s="5" t="inlineStr">
         <is>
-          <t>139 x R$ 794,00</t>
+          <t>168 x R$ 1.981,00</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J62" s="4" t="inlineStr"/>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>Sem seguro, taxa R$ 3.051,00</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="30" customHeight="1">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>CT4130</t>
+          <t>CT4153</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>212000,00</t>
+          <t>83000,00</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>100590,00</t>
+          <t>37140,00</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
@@ -3559,12 +3571,12 @@
       </c>
       <c r="H63" s="5" t="inlineStr">
         <is>
-          <t>136 x R$ 1.759,00</t>
+          <t>20 x R$ 3.670,00</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr"/>
@@ -3572,32 +3584,32 @@
     <row r="64" ht="30" customHeight="1">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>CT4137</t>
+          <t>CT4154</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>70230,00</t>
+          <t>89000,00</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>43501,50</t>
+          <t>47440,00</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
@@ -3607,59 +3619,55 @@
       </c>
       <c r="H64" s="5" t="inlineStr">
         <is>
-          <t>191 x R$ 471,00</t>
+          <t>14 x R$ 4.620,00</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J64" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 1.000,00</t>
-        </is>
-      </c>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="J64" s="4" t="inlineStr"/>
     </row>
     <row r="65" ht="30" customHeight="1">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>CT4138</t>
+          <t>CT4155</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>129450,00</t>
+          <t>109100,00</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>82462,50</t>
+          <t>56955,00</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H65" s="5" t="inlineStr">
         <is>
-          <t>95 x R$ 1.187,00</t>
+          <t>79 x R$ 1.293,00</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
@@ -3667,41 +3675,37 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J65" s="4" t="inlineStr">
-        <is>
-          <t>A primeira parcela será de R$ 1.490,00</t>
-        </is>
-      </c>
+      <c r="J65" s="4" t="inlineStr"/>
     </row>
     <row r="66" ht="30" customHeight="1">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>CT4139</t>
+          <t>CT4156</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>138900,00</t>
+          <t>119000,00</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>48935,00</t>
+          <t>67940,00</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
@@ -3711,12 +3715,12 @@
       </c>
       <c r="H66" s="5" t="inlineStr">
         <is>
-          <t>37 x R$ 4.211,00</t>
+          <t>48 x R$ 2.250,00</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr"/>
@@ -3724,7 +3728,7 @@
     <row r="67" ht="30" customHeight="1">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>CT4148</t>
+          <t>CT4157</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -3734,17 +3738,17 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>313982,00</t>
+          <t>70180,00</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>145689,10</t>
+          <t>42499,00</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
@@ -3754,54 +3758,52 @@
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H67" s="5" t="inlineStr">
         <is>
-          <t>168 x R$ 1.981,00</t>
+          <t>192 x R$ 470,00</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>Sem seguro, taxa R$ 3.051,00</t>
+          <t>Taxa: R$ 1.000,00</t>
         </is>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>CT4153</t>
+          <t>CT4159</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>83000,00</t>
+          <t>72488,00</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>37140,00</t>
-        </is>
-      </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>42614,40</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>188</v>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
@@ -3811,45 +3813,50 @@
       </c>
       <c r="H68" s="5" t="inlineStr">
         <is>
-          <t>20 x R$ 3.670,00</t>
+          <t>2 x R$ 557,00
+186 x R$ 390,00</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="J68" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>As 02 primeiras parcelas serão de R$ 557,00</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="30" customHeight="1">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>CT4154</t>
+          <t>CT4160</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>89000,00</t>
+          <t>73414,00</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>47440,00</t>
+          <t>43660,70</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
@@ -3859,55 +3866,59 @@
       </c>
       <c r="H69" s="5" t="inlineStr">
         <is>
-          <t>14 x R$ 4.620,00</t>
+          <t>188 x R$ 392,00</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="J69" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>A primeira parcela será de R$ 559,00</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="30" customHeight="1">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>CT4155</t>
+          <t>CT4161</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>109100,00</t>
+          <t>74591,00</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>56955,00</t>
+          <t>43719,55</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H70" s="5" t="inlineStr">
         <is>
-          <t>79 x R$ 1.293,00</t>
+          <t>168 x R$ 410,00</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
@@ -3920,32 +3931,32 @@
     <row r="71" ht="30" customHeight="1">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>CT4156</t>
+          <t>CT4162</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>119000,00</t>
+          <t>75961,00</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>67940,00</t>
+          <t>43788,05</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
@@ -3955,7 +3966,7 @@
       </c>
       <c r="H71" s="5" t="inlineStr">
         <is>
-          <t>48 x R$ 2.250,00</t>
+          <t>177 x R$ 412,00</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
@@ -3968,7 +3979,7 @@
     <row r="72" ht="30" customHeight="1">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>CT4157</t>
+          <t>CT4164</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -3978,17 +3989,17 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>70180,00</t>
+          <t>96030,00</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>42499,00</t>
+          <t>79791,50</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
@@ -4003,7 +4014,7 @@
       </c>
       <c r="H72" s="5" t="inlineStr">
         <is>
-          <t>192 x R$ 470,00</t>
+          <t>145 x R$ 390,00</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
@@ -4011,16 +4022,12 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J72" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 1.000,00</t>
-        </is>
-      </c>
+      <c r="J72" s="4" t="inlineStr"/>
     </row>
     <row r="73" ht="30" customHeight="1">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>CT4158</t>
+          <t>CT4165</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -4030,17 +4037,17 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>70000,00</t>
+          <t>109168,00</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>37490,00</t>
+          <t>73448,40</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
@@ -4055,7 +4062,7 @@
       </c>
       <c r="H73" s="5" t="inlineStr">
         <is>
-          <t>192 x R$ 472,00</t>
+          <t>177 x R$ 468,00</t>
         </is>
       </c>
       <c r="I73" s="4" t="inlineStr">
@@ -4063,16 +4070,12 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J73" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 1.000,00</t>
-        </is>
-      </c>
+      <c r="J73" s="4" t="inlineStr"/>
     </row>
     <row r="74" ht="30" customHeight="1">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>CT4159</t>
+          <t>CT4166</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -4082,16 +4085,18 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
+          <t>109960,00</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
           <t>72488,00</t>
         </is>
       </c>
-      <c r="D74" s="4" t="inlineStr">
-        <is>
-          <t>42614,40</t>
-        </is>
-      </c>
-      <c r="E74" s="4" t="n">
-        <v>188</v>
+      <c r="E74" s="4" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
@@ -4105,8 +4110,7 @@
       </c>
       <c r="H74" s="5" t="inlineStr">
         <is>
-          <t>2 x R$ 557,00
-186 x R$ 390,00</t>
+          <t>177 x R$ 469,00</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
@@ -4114,41 +4118,37 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J74" s="4" t="inlineStr">
-        <is>
-          <t>As 02 primeiras parcelas serão de R$ 557,00</t>
-        </is>
-      </c>
+      <c r="J74" s="4" t="inlineStr"/>
     </row>
     <row r="75" ht="30" customHeight="1">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>CT4160</t>
+          <t>CT4174</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>73414,00</t>
+          <t>16600,00</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>43660,70</t>
+          <t>10820,00</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
@@ -4158,24 +4158,24 @@
       </c>
       <c r="H75" s="5" t="inlineStr">
         <is>
-          <t>188 x R$ 392,00</t>
+          <t>52 x R$ 512,00</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>A primeira parcela será de R$ 559,00</t>
+          <t>Taxa: R$ 650,00</t>
         </is>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>CT4161</t>
+          <t>CT4176</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -4185,17 +4185,17 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>74591,00</t>
+          <t>99500,00</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>43719,55</t>
+          <t>57965,00</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>186</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H76" s="5" t="inlineStr">
         <is>
-          <t>168 x R$ 410,00</t>
+          <t>186 x R$ 554,00</t>
         </is>
       </c>
       <c r="I76" s="4" t="inlineStr">
@@ -4218,12 +4218,16 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J76" s="4" t="inlineStr"/>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.505,60</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>CT4162</t>
+          <t>CT4178</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -4233,37 +4237,37 @@
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>75961,00</t>
+          <t>168265,00</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>43788,05</t>
+          <t>85403,25</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H77" s="5" t="inlineStr">
         <is>
-          <t>177 x R$ 412,00</t>
+          <t>137 x R$ 1.271,00</t>
         </is>
       </c>
       <c r="I77" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="J77" s="4" t="inlineStr"/>
@@ -4271,7 +4275,7 @@
     <row r="78" ht="30" customHeight="1">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>CT4164</t>
+          <t>CT4180</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -4281,22 +4285,22 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>96030,00</t>
+          <t>151180,00</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>79791,50</t>
+          <t>72549,00</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G78" s="4" t="inlineStr">
@@ -4306,12 +4310,12 @@
       </c>
       <c r="H78" s="5" t="inlineStr">
         <is>
-          <t>145 x R$ 390,00</t>
+          <t>142 x R$ 1.114,00</t>
         </is>
       </c>
       <c r="I78" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J78" s="4" t="inlineStr"/>
@@ -4319,7 +4323,7 @@
     <row r="79" ht="30" customHeight="1">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>CT4165</t>
+          <t>CT4181</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -4329,22 +4333,22 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>109168,00</t>
+          <t>214849,00</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>73448,40</t>
+          <t>101732,45</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G79" s="4" t="inlineStr">
@@ -4354,40 +4358,44 @@
       </c>
       <c r="H79" s="5" t="inlineStr">
         <is>
-          <t>177 x R$ 468,00</t>
+          <t>176 x R$ 1.464,00</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J79" s="4" t="inlineStr"/>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J79" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.000,00</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="30" customHeight="1">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>CT4166</t>
+          <t>CT4182</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>109960,00</t>
+          <t>44300,00</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>72488,00</t>
+          <t>24205,00</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
@@ -4402,7 +4410,7 @@
       </c>
       <c r="H80" s="5" t="inlineStr">
         <is>
-          <t>177 x R$ 469,00</t>
+          <t>40 x R$ 911,00</t>
         </is>
       </c>
       <c r="I80" s="4" t="inlineStr">
@@ -4410,37 +4418,41 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J80" s="4" t="inlineStr"/>
+      <c r="J80" s="4" t="inlineStr">
+        <is>
+          <t>AF103</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="30" customHeight="1">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>CT4174</t>
+          <t>CT4185</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>16600,00</t>
+          <t>105000,00</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>10820,00</t>
+          <t>52240,00</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G81" s="4" t="inlineStr">
@@ -4450,24 +4462,20 @@
       </c>
       <c r="H81" s="5" t="inlineStr">
         <is>
-          <t>52 x R$ 512,00</t>
+          <t>168 x R$ 695,00</t>
         </is>
       </c>
       <c r="I81" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="J81" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 650,00</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J81" s="4" t="inlineStr"/>
     </row>
     <row r="82" ht="30" customHeight="1">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>CT4176</t>
+          <t>CT4192</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -4477,49 +4485,45 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>99500,00</t>
+          <t>160000,00</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>57965,00</t>
+          <t>73990,00</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G82" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H82" s="5" t="inlineStr">
         <is>
-          <t>186 x R$ 554,00</t>
+          <t>171 x R$ 1.061,00</t>
         </is>
       </c>
       <c r="I82" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J82" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 1.505,60</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J82" s="4" t="inlineStr"/>
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>CT4178</t>
+          <t>CT4193</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -4529,17 +4533,17 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>168265,00</t>
+          <t>104500,00</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>85403,25</t>
+          <t>43215,00</t>
         </is>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
@@ -4549,17 +4553,17 @@
       </c>
       <c r="G83" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H83" s="5" t="inlineStr">
         <is>
-          <t>137 x R$ 1.271,00</t>
+          <t>31 x R$ 3.695,00</t>
         </is>
       </c>
       <c r="I83" s="4" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J83" s="4" t="inlineStr"/>
@@ -4567,7 +4571,7 @@
     <row r="84" ht="30" customHeight="1">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>CT4180</t>
+          <t>CT4195</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -4577,22 +4581,22 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>151180,00</t>
+          <t>74889,00</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>72549,00</t>
+          <t>38734,45</t>
         </is>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G84" s="4" t="inlineStr">
@@ -4602,20 +4606,24 @@
       </c>
       <c r="H84" s="5" t="inlineStr">
         <is>
-          <t>142 x R$ 1.114,00</t>
+          <t>134 x R$ 530,00</t>
         </is>
       </c>
       <c r="I84" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J84" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 589,00</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="30" customHeight="1">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>CT4181</t>
+          <t>CT4197</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -4625,22 +4633,22 @@
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>214849,00</t>
+          <t>1590000,00</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>101732,45</t>
+          <t>771490,00</t>
         </is>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G85" s="4" t="inlineStr">
@@ -4650,7 +4658,7 @@
       </c>
       <c r="H85" s="5" t="inlineStr">
         <is>
-          <t>176 x R$ 1.464,00</t>
+          <t>74 x R$ 24.285,00</t>
         </is>
       </c>
       <c r="I85" s="4" t="inlineStr">
@@ -4658,41 +4666,37 @@
           <t>10/05/2025</t>
         </is>
       </c>
-      <c r="J85" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 1.000,00</t>
-        </is>
-      </c>
+      <c r="J85" s="4" t="inlineStr"/>
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>CT4182</t>
+          <t>CT4198</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>44300,00</t>
+          <t>333500,00</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>24205,00</t>
+          <t>251675,00</t>
         </is>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G86" s="4" t="inlineStr">
@@ -4702,7 +4706,7 @@
       </c>
       <c r="H86" s="5" t="inlineStr">
         <is>
-          <t>40 x R$ 911,00</t>
+          <t>50 x R$ 2.102,00</t>
         </is>
       </c>
       <c r="I86" s="4" t="inlineStr">
@@ -4710,16 +4714,12 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J86" s="4" t="inlineStr">
-        <is>
-          <t>AF103</t>
-        </is>
-      </c>
+      <c r="J86" s="4" t="inlineStr"/>
     </row>
     <row r="87" ht="30" customHeight="1">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>CT4184</t>
+          <t>CT4199</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -4729,22 +4729,22 @@
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>807000,00</t>
+          <t>257500,00</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>404340,00</t>
+          <t>125865,00</t>
         </is>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>101</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G87" s="4" t="inlineStr">
@@ -4754,12 +4754,12 @@
       </c>
       <c r="H87" s="5" t="inlineStr">
         <is>
-          <t>112 x R$ 5.680,00</t>
+          <t>101 x R$ 2.303,00</t>
         </is>
       </c>
       <c r="I87" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J87" s="4" t="inlineStr"/>
@@ -4767,32 +4767,32 @@
     <row r="88" ht="30" customHeight="1">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>CT4185</t>
+          <t>CT4202</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>105000,00</t>
+          <t>97500,00</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>52240,00</t>
+          <t>34865,00</t>
         </is>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G88" s="4" t="inlineStr">
@@ -4802,40 +4802,44 @@
       </c>
       <c r="H88" s="5" t="inlineStr">
         <is>
-          <t>168 x R$ 695,00</t>
+          <t>35 x R$ 3.053,00</t>
         </is>
       </c>
       <c r="I88" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J88" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J88" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 650,00</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="30" customHeight="1">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>CT4186</t>
+          <t>CT4203</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>60500,00</t>
+          <t>292800,00</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>33015,00</t>
+          <t>119630,00</t>
         </is>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
@@ -4850,12 +4854,12 @@
       </c>
       <c r="H89" s="5" t="inlineStr">
         <is>
-          <t>158 x R$ 362,00</t>
+          <t>41 x R$ 7.249,00</t>
         </is>
       </c>
       <c r="I89" s="4" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J89" s="4" t="inlineStr"/>
@@ -4863,7 +4867,7 @@
     <row r="90" ht="30" customHeight="1">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>CT4192</t>
+          <t>CT4204</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
@@ -4873,37 +4877,37 @@
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>160000,00</t>
+          <t>140000,00</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>73990,00</t>
+          <t>90990,00</t>
         </is>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G90" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H90" s="5" t="inlineStr">
         <is>
-          <t>171 x R$ 1.061,00</t>
+          <t>60 x R$ 1.357,00</t>
         </is>
       </c>
       <c r="I90" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J90" s="4" t="inlineStr"/>
@@ -4911,7 +4915,7 @@
     <row r="91" ht="30" customHeight="1">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>CT4193</t>
+          <t>CT4206</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -4921,22 +4925,22 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>104500,00</t>
+          <t>112525,00</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>43215,00</t>
+          <t>54616,25</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G91" s="4" t="inlineStr">
@@ -4946,12 +4950,12 @@
       </c>
       <c r="H91" s="5" t="inlineStr">
         <is>
-          <t>31 x R$ 3.695,00</t>
+          <t>163 x R$ 791,00</t>
         </is>
       </c>
       <c r="I91" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J91" s="4" t="inlineStr"/>
@@ -4959,7 +4963,7 @@
     <row r="92" ht="30" customHeight="1">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>CT4195</t>
+          <t>CT4209</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -4969,22 +4973,22 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>74889,00</t>
+          <t>161000,00</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>38734,45</t>
+          <t>78040,00</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G92" s="4" t="inlineStr">
@@ -4994,24 +4998,20 @@
       </c>
       <c r="H92" s="5" t="inlineStr">
         <is>
-          <t>134 x R$ 530,00</t>
+          <t>142 x R$ 1.115,00</t>
         </is>
       </c>
       <c r="I92" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J92" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 589,00</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J92" s="4" t="inlineStr"/>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>CT4196</t>
+          <t>CT4210</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -5021,37 +5021,37 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>765000,00</t>
+          <t>83200,00</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>387240,00</t>
+          <t>42150,00</t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G93" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H93" s="5" t="inlineStr">
         <is>
-          <t>73 x R$ 12.295,00</t>
+          <t>147 x R$ 716,00</t>
         </is>
       </c>
       <c r="I93" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J93" s="4" t="inlineStr"/>
@@ -5059,32 +5059,32 @@
     <row r="94" ht="30" customHeight="1">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>CT4197</t>
+          <t>CT4217</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>1590000,00</t>
+          <t>254019,00</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>771490,00</t>
+          <t>144690,95</t>
         </is>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G94" s="4" t="inlineStr">
@@ -5094,12 +5094,12 @@
       </c>
       <c r="H94" s="5" t="inlineStr">
         <is>
-          <t>74 x R$ 24.285,00</t>
+          <t>64 x R$ 3.520,00</t>
         </is>
       </c>
       <c r="I94" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J94" s="4" t="inlineStr"/>
@@ -5107,32 +5107,32 @@
     <row r="95" ht="30" customHeight="1">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>CT4198</t>
+          <t>CT4218</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>333500,00</t>
+          <t>332255,00</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>251675,00</t>
+          <t>173602,75</t>
         </is>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G95" s="4" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="H95" s="5" t="inlineStr">
         <is>
-          <t>50 x R$ 2.102,00</t>
+          <t>64 x R$ 4.841,00</t>
         </is>
       </c>
       <c r="I95" s="4" t="inlineStr">
@@ -5155,32 +5155,32 @@
     <row r="96" ht="30" customHeight="1">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>CT4199</t>
+          <t>CT4219</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>257500,00</t>
+          <t>39100,00</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>125865,00</t>
+          <t>29945,00</t>
         </is>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G96" s="4" t="inlineStr">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="H96" s="5" t="inlineStr">
         <is>
-          <t>101 x R$ 2.303,00</t>
+          <t>33 x R$ 539,00</t>
         </is>
       </c>
       <c r="I96" s="4" t="inlineStr">
@@ -5203,7 +5203,7 @@
     <row r="97" ht="30" customHeight="1">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>CT4202</t>
+          <t>CT4220</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
@@ -5213,22 +5213,22 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>97500,00</t>
+          <t>43200,00</t>
         </is>
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>34865,00</t>
+          <t>37150,00</t>
         </is>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G97" s="4" t="inlineStr">
@@ -5238,24 +5238,20 @@
       </c>
       <c r="H97" s="5" t="inlineStr">
         <is>
-          <t>35 x R$ 3.053,00</t>
+          <t>39 x R$ 319,00</t>
         </is>
       </c>
       <c r="I97" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J97" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 650,00</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J97" s="4" t="inlineStr"/>
     </row>
     <row r="98" ht="30" customHeight="1">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>CT4203</t>
+          <t>CT4221</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -5265,22 +5261,22 @@
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>292800,00</t>
+          <t>58600,00</t>
         </is>
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
-          <t>119630,00</t>
+          <t>39920,00</t>
         </is>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G98" s="4" t="inlineStr">
@@ -5290,7 +5286,7 @@
       </c>
       <c r="H98" s="5" t="inlineStr">
         <is>
-          <t>41 x R$ 7.249,00</t>
+          <t>54 x R$ 549,00</t>
         </is>
       </c>
       <c r="I98" s="4" t="inlineStr">
@@ -5303,32 +5299,32 @@
     <row r="99" ht="30" customHeight="1">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>CT4204</t>
+          <t>CT4222</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>140000,00</t>
+          <t>59350,00</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>90990,00</t>
+          <t>39957,50</t>
         </is>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F99" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G99" s="4" t="inlineStr">
@@ -5338,12 +5334,12 @@
       </c>
       <c r="H99" s="5" t="inlineStr">
         <is>
-          <t>60 x R$ 1.357,00</t>
+          <t>45 x R$ 719,00</t>
         </is>
       </c>
       <c r="I99" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J99" s="4" t="inlineStr"/>
@@ -5351,27 +5347,27 @@
     <row r="100" ht="30" customHeight="1">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>CT4206</t>
+          <t>CT4223</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>112525,00</t>
+          <t>77600,00</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>54616,25</t>
+          <t>53870,00</t>
         </is>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
@@ -5386,7 +5382,7 @@
       </c>
       <c r="H100" s="5" t="inlineStr">
         <is>
-          <t>163 x R$ 791,00</t>
+          <t>39 x R$ 1.022,00</t>
         </is>
       </c>
       <c r="I100" s="4" t="inlineStr">
@@ -5399,32 +5395,32 @@
     <row r="101" ht="30" customHeight="1">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>CT4209</t>
+          <t>CT4224</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>161000,00</t>
+          <t>89000,00</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>78040,00</t>
+          <t>52440,00</t>
         </is>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G101" s="4" t="inlineStr">
@@ -5434,7 +5430,7 @@
       </c>
       <c r="H101" s="5" t="inlineStr">
         <is>
-          <t>142 x R$ 1.115,00</t>
+          <t>20 x R$ 3.184,00</t>
         </is>
       </c>
       <c r="I101" s="4" t="inlineStr">
@@ -5447,47 +5443,47 @@
     <row r="102" ht="30" customHeight="1">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>CT4210</t>
+          <t>CT4225</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>83200,00</t>
+          <t>92150,00</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>42150,00</t>
+          <t>57597,50</t>
         </is>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G102" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H102" s="5" t="inlineStr">
         <is>
-          <t>147 x R$ 716,00</t>
+          <t>67 x R$ 1.015,00</t>
         </is>
       </c>
       <c r="I102" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J102" s="4" t="inlineStr"/>
@@ -5495,27 +5491,27 @@
     <row r="103" ht="30" customHeight="1">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>CT4217</t>
+          <t>CT4226</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>254019,00</t>
+          <t>106000,00</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>144690,95</t>
+          <t>54290,00</t>
         </is>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
@@ -5530,7 +5526,7 @@
       </c>
       <c r="H103" s="5" t="inlineStr">
         <is>
-          <t>64 x R$ 3.520,00</t>
+          <t>165 x R$ 641,00</t>
         </is>
       </c>
       <c r="I103" s="4" t="inlineStr">
@@ -5543,27 +5539,27 @@
     <row r="104" ht="30" customHeight="1">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>CT4218</t>
+          <t>CT4228</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>332255,00</t>
+          <t>205600,00</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>173602,75</t>
+          <t>110270,00</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
@@ -5578,7 +5574,7 @@
       </c>
       <c r="H104" s="5" t="inlineStr">
         <is>
-          <t>64 x R$ 4.841,00</t>
+          <t>153 x R$ 1.189,00</t>
         </is>
       </c>
       <c r="I104" s="4" t="inlineStr">
@@ -5586,37 +5582,41 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J104" s="4" t="inlineStr"/>
+      <c r="J104" s="4" t="inlineStr">
+        <is>
+          <t>Oportunidade, cota com R$89mil já pago</t>
+        </is>
+      </c>
     </row>
     <row r="105" ht="30" customHeight="1">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>CT4219</t>
+          <t>CT4231</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>39100,00</t>
+          <t>650000,00</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>29945,00</t>
+          <t>386490,00</t>
         </is>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G105" s="4" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="H105" s="5" t="inlineStr">
         <is>
-          <t>33 x R$ 539,00</t>
+          <t>93 x R$ 4.162,00</t>
         </is>
       </c>
       <c r="I105" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J105" s="4" t="inlineStr"/>
@@ -5639,47 +5639,47 @@
     <row r="106" ht="30" customHeight="1">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>CT4220</t>
+          <t>CT4232</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>43200,00</t>
+          <t>155000,00</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>37150,00</t>
+          <t>61740,00</t>
         </is>
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G106" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H106" s="5" t="inlineStr">
         <is>
-          <t>39 x R$ 319,00</t>
+          <t>144 x R$ 1.275,00</t>
         </is>
       </c>
       <c r="I106" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J106" s="4" t="inlineStr"/>
@@ -5687,7 +5687,7 @@
     <row r="107" ht="30" customHeight="1">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>CT4221</t>
+          <t>CT4238</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
@@ -5697,22 +5697,22 @@
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>58600,00</t>
+          <t>126597,00</t>
         </is>
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>39920,00</t>
+          <t>74319,85</t>
         </is>
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G107" s="4" t="inlineStr">
@@ -5722,12 +5722,12 @@
       </c>
       <c r="H107" s="5" t="inlineStr">
         <is>
-          <t>54 x R$ 549,00</t>
+          <t>63 x R$ 2.030,00</t>
         </is>
       </c>
       <c r="I107" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J107" s="4" t="inlineStr"/>
@@ -5735,32 +5735,32 @@
     <row r="108" ht="30" customHeight="1">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>CT4222</t>
+          <t>CT4239</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>59350,00</t>
+          <t>82973,00</t>
         </is>
       </c>
       <c r="D108" s="4" t="inlineStr">
         <is>
-          <t>39957,50</t>
+          <t>46138,65</t>
         </is>
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G108" s="4" t="inlineStr">
@@ -5770,12 +5770,12 @@
       </c>
       <c r="H108" s="5" t="inlineStr">
         <is>
-          <t>45 x R$ 719,00</t>
+          <t>133 x R$ 723,00</t>
         </is>
       </c>
       <c r="I108" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J108" s="4" t="inlineStr"/>
@@ -5783,32 +5783,32 @@
     <row r="109" ht="30" customHeight="1">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>CT4223</t>
+          <t>CT4242</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>77600,00</t>
+          <t>142000,00</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>53870,00</t>
+          <t>72090,00</t>
         </is>
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G109" s="4" t="inlineStr">
@@ -5818,12 +5818,12 @@
       </c>
       <c r="H109" s="5" t="inlineStr">
         <is>
-          <t>39 x R$ 1.022,00</t>
+          <t>189 x R$ 806,00</t>
         </is>
       </c>
       <c r="I109" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J109" s="4" t="inlineStr"/>
@@ -5831,32 +5831,32 @@
     <row r="110" ht="30" customHeight="1">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>CT4224</t>
+          <t>CT4243</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>89000,00</t>
+          <t>70000,00</t>
         </is>
       </c>
       <c r="D110" s="4" t="inlineStr">
         <is>
-          <t>52440,00</t>
+          <t>38490,00</t>
         </is>
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>194</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G110" s="4" t="inlineStr">
@@ -5866,12 +5866,12 @@
       </c>
       <c r="H110" s="5" t="inlineStr">
         <is>
-          <t>20 x R$ 3.184,00</t>
+          <t>194 x R$ 444,00</t>
         </is>
       </c>
       <c r="I110" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J110" s="4" t="inlineStr"/>
@@ -5879,55 +5879,59 @@
     <row r="111" ht="30" customHeight="1">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>CT4225</t>
+          <t>CT4244</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>92150,00</t>
+          <t>295000,00</t>
         </is>
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>57597,50</t>
+          <t>139740,00</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G111" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H111" s="5" t="inlineStr">
         <is>
-          <t>67 x R$ 1.015,00</t>
+          <t>147 x R$ 1.942,00</t>
         </is>
       </c>
       <c r="I111" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J111" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J111" s="4" t="inlineStr">
+        <is>
+          <t>Taxa transf R$ 4250,00</t>
+        </is>
+      </c>
     </row>
     <row r="112" ht="30" customHeight="1">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>CT4226</t>
+          <t>CT4245</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
@@ -5937,17 +5941,17 @@
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>106000,00</t>
+          <t>394200,00</t>
         </is>
       </c>
       <c r="D112" s="4" t="inlineStr">
         <is>
-          <t>54290,00</t>
+          <t>256700,00</t>
         </is>
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>96</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
@@ -5962,7 +5966,7 @@
       </c>
       <c r="H112" s="5" t="inlineStr">
         <is>
-          <t>165 x R$ 641,00</t>
+          <t>96 x R$ 2.480,00</t>
         </is>
       </c>
       <c r="I112" s="4" t="inlineStr">
@@ -5970,12 +5974,16 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="J112" s="4" t="inlineStr"/>
+      <c r="J112" s="4" t="inlineStr">
+        <is>
+          <t>Oportunidade , cota com deságio !</t>
+        </is>
+      </c>
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>CT4228</t>
+          <t>CT4246</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
@@ -5985,17 +5993,17 @@
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>205600,00</t>
+          <t>700000,00</t>
         </is>
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>110270,00</t>
+          <t>434990,00</t>
         </is>
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>96</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
@@ -6010,7 +6018,7 @@
       </c>
       <c r="H113" s="5" t="inlineStr">
         <is>
-          <t>153 x R$ 1.189,00</t>
+          <t>96 x R$ 5.075,00</t>
         </is>
       </c>
       <c r="I113" s="4" t="inlineStr">
@@ -6020,14 +6028,14 @@
       </c>
       <c r="J113" s="4" t="inlineStr">
         <is>
-          <t>Oportunidade, cota com R$89mil já pago</t>
+          <t>Oportunidade, cota com Deságio !</t>
         </is>
       </c>
     </row>
     <row r="114" ht="30" customHeight="1">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>CT4231</t>
+          <t>CT4247</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
@@ -6037,22 +6045,22 @@
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>650000,00</t>
+          <t>102420,00</t>
         </is>
       </c>
       <c r="D114" s="4" t="inlineStr">
         <is>
-          <t>386490,00</t>
+          <t>50111,00</t>
         </is>
       </c>
       <c r="E114" s="4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F114" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G114" s="4" t="inlineStr">
@@ -6062,12 +6070,12 @@
       </c>
       <c r="H114" s="5" t="inlineStr">
         <is>
-          <t>93 x R$ 4.162,00</t>
+          <t>175 x R$ 711,00</t>
         </is>
       </c>
       <c r="I114" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J114" s="4" t="inlineStr"/>
@@ -6075,7 +6083,7 @@
     <row r="115" ht="30" customHeight="1">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>CT4232</t>
+          <t>CT4249</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
@@ -6085,70 +6093,74 @@
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>155000,00</t>
+          <t>102000,00</t>
         </is>
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>61740,00</t>
+          <t>59090,00</t>
         </is>
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F115" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G115" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H115" s="5" t="inlineStr">
         <is>
-          <t>144 x R$ 1.275,00</t>
+          <t>65 x R$ 1.690,00</t>
         </is>
       </c>
       <c r="I115" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J115" s="4" t="inlineStr"/>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J115" s="4" t="inlineStr">
+        <is>
+          <t>As 18 últimas parcelas serão de R$ 1.292,00</t>
+        </is>
+      </c>
     </row>
     <row r="116" ht="30" customHeight="1">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>CT4238</t>
+          <t>CT4252</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>126597,00</t>
+          <t>174000,00</t>
         </is>
       </c>
       <c r="D116" s="4" t="inlineStr">
         <is>
-          <t>74319,85</t>
+          <t>87690,00</t>
         </is>
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>122</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G116" s="4" t="inlineStr">
@@ -6158,20 +6170,24 @@
       </c>
       <c r="H116" s="5" t="inlineStr">
         <is>
-          <t>63 x R$ 2.030,00</t>
+          <t>122 x R$ 1.541,00</t>
         </is>
       </c>
       <c r="I116" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J116" s="4" t="inlineStr"/>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J116" s="4" t="inlineStr">
+        <is>
+          <t>As 30 últimas parcelas serão de R$ 1.456,00</t>
+        </is>
+      </c>
     </row>
     <row r="117" ht="30" customHeight="1">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>CT4239</t>
+          <t>CT4253</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
@@ -6181,22 +6197,22 @@
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>82973,00</t>
+          <t>200000,00</t>
         </is>
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>46138,65</t>
+          <t>94990,00</t>
         </is>
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>154</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G117" s="4" t="inlineStr">
@@ -6206,20 +6222,24 @@
       </c>
       <c r="H117" s="5" t="inlineStr">
         <is>
-          <t>133 x R$ 723,00</t>
+          <t>154 x R$ 1.505,00</t>
         </is>
       </c>
       <c r="I117" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J117" s="4" t="inlineStr"/>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J117" s="4" t="inlineStr">
+        <is>
+          <t>As primeiras 24 parcelas serão de R$ 980,00</t>
+        </is>
+      </c>
     </row>
     <row r="118" ht="30" customHeight="1">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>CT4240</t>
+          <t>CT4254</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
@@ -6229,22 +6249,22 @@
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>189000,00</t>
+          <t>218000,00</t>
         </is>
       </c>
       <c r="D118" s="4" t="inlineStr">
         <is>
-          <t>39440,00</t>
+          <t>137890,00</t>
         </is>
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G118" s="4" t="inlineStr">
@@ -6254,12 +6274,12 @@
       </c>
       <c r="H118" s="5" t="inlineStr">
         <is>
-          <t>35 x R$ 6.325,00</t>
+          <t>62 x R$ 2.226,00</t>
         </is>
       </c>
       <c r="I118" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J118" s="4" t="inlineStr"/>
@@ -6267,7 +6287,7 @@
     <row r="119" ht="30" customHeight="1">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>CT4241</t>
+          <t>CT4255</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
@@ -6277,22 +6297,22 @@
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>588000,00</t>
+          <t>242000,00</t>
         </is>
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>294390,00</t>
+          <t>122090,00</t>
         </is>
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F119" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G119" s="4" t="inlineStr">
@@ -6302,12 +6322,12 @@
       </c>
       <c r="H119" s="5" t="inlineStr">
         <is>
-          <t>109 x R$ 4.758,00</t>
+          <t>137 x R$ 1.867,00</t>
         </is>
       </c>
       <c r="I119" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J119" s="4" t="inlineStr"/>
@@ -6315,7 +6335,7 @@
     <row r="120" ht="30" customHeight="1">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>CT4242</t>
+          <t>CT4256</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
@@ -6325,22 +6345,22 @@
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>142000,00</t>
+          <t>144000,00</t>
         </is>
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>72090,00</t>
+          <t>74190,00</t>
         </is>
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G120" s="4" t="inlineStr">
@@ -6350,12 +6370,12 @@
       </c>
       <c r="H120" s="5" t="inlineStr">
         <is>
-          <t>189 x R$ 806,00</t>
+          <t>164 x R$ 1.092,00</t>
         </is>
       </c>
       <c r="I120" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J120" s="4" t="inlineStr"/>
@@ -6363,7 +6383,7 @@
     <row r="121" ht="30" customHeight="1">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>CT4243</t>
+          <t>CT4257</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
@@ -6373,22 +6393,22 @@
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>70000,00</t>
+          <t>197000,00</t>
         </is>
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>38490,00</t>
+          <t>83840,00</t>
         </is>
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F121" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G121" s="4" t="inlineStr">
@@ -6398,12 +6418,12 @@
       </c>
       <c r="H121" s="5" t="inlineStr">
         <is>
-          <t>194 x R$ 444,00</t>
+          <t>152 x R$ 1.488,00</t>
         </is>
       </c>
       <c r="I121" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J121" s="4" t="inlineStr"/>
@@ -6411,7 +6431,7 @@
     <row r="122" ht="30" customHeight="1">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>CT4244</t>
+          <t>CT4258</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
@@ -6421,49 +6441,45 @@
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>295000,00</t>
+          <t>153000,00</t>
         </is>
       </c>
       <c r="D122" s="4" t="inlineStr">
         <is>
-          <t>138740,00</t>
+          <t>81640,00</t>
         </is>
       </c>
       <c r="E122" s="4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>161</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G122" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H122" s="5" t="inlineStr">
         <is>
-          <t>147 x R$ 1.942,00</t>
+          <t>161 x R$ 1.140,00</t>
         </is>
       </c>
       <c r="I122" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J122" s="4" t="inlineStr">
-        <is>
-          <t>Taxa transf R$ 4250,00</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J122" s="4" t="inlineStr"/>
     </row>
     <row r="123" ht="30" customHeight="1">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>CT4245</t>
+          <t>CT4259</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
@@ -6473,18 +6489,16 @@
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>394200,00</t>
+          <t>123748,00</t>
         </is>
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
-          <t>256700,00</t>
-        </is>
-      </c>
-      <c r="E123" s="4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+          <t>56186,40</t>
+        </is>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>111</v>
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
@@ -6498,7 +6512,8 @@
       </c>
       <c r="H123" s="5" t="inlineStr">
         <is>
-          <t>96 x R$ 2.480,00</t>
+          <t>3 x R$ 1.771,00.
+108 x R$ 1.083,00</t>
         </is>
       </c>
       <c r="I123" s="4" t="inlineStr">
@@ -6508,14 +6523,14 @@
       </c>
       <c r="J123" s="4" t="inlineStr">
         <is>
-          <t>Oportunidade , cota com deságio !</t>
+          <t>As 03 primeiras parcelas serão de R$ 1.771,00. Taxa: R$ 1.768,00</t>
         </is>
       </c>
     </row>
     <row r="124" ht="30" customHeight="1">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>CT4246</t>
+          <t>CT4260</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
@@ -6525,22 +6540,22 @@
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>700000,00</t>
+          <t>111650,00</t>
         </is>
       </c>
       <c r="D124" s="4" t="inlineStr">
         <is>
-          <t>434990,00</t>
+          <t>55572,50</t>
         </is>
       </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G124" s="4" t="inlineStr">
@@ -6550,24 +6565,20 @@
       </c>
       <c r="H124" s="5" t="inlineStr">
         <is>
-          <t>96 x R$ 5.075,00</t>
+          <t>162 x R$ 735,00</t>
         </is>
       </c>
       <c r="I124" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J124" s="4" t="inlineStr">
-        <is>
-          <t>Oportunidade, cota com Deságio !</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J124" s="4" t="inlineStr"/>
     </row>
     <row r="125" ht="30" customHeight="1">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>CT4247</t>
+          <t>CT4261</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
@@ -6577,22 +6588,22 @@
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>102420,00</t>
+          <t>54600,00</t>
         </is>
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>50111,00</t>
+          <t>29720,00</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F125" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G125" s="4" t="inlineStr">
@@ -6602,12 +6613,12 @@
       </c>
       <c r="H125" s="5" t="inlineStr">
         <is>
-          <t>175 x R$ 711,00</t>
+          <t>158 x R$ 375,00</t>
         </is>
       </c>
       <c r="I125" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="J125" s="4" t="inlineStr"/>
@@ -6615,7 +6626,7 @@
     <row r="126" ht="30" customHeight="1">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>CT4249</t>
+          <t>CT4262</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
@@ -6625,22 +6636,22 @@
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>102000,00</t>
+          <t>69750,00</t>
         </is>
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>59090,00</t>
+          <t>39477,50</t>
         </is>
       </c>
       <c r="E126" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F126" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G126" s="4" t="inlineStr">
@@ -6650,24 +6661,20 @@
       </c>
       <c r="H126" s="5" t="inlineStr">
         <is>
-          <t>65 x R$ 1.690,00</t>
+          <t>138 x R$ 486,00</t>
         </is>
       </c>
       <c r="I126" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J126" s="4" t="inlineStr">
-        <is>
-          <t>As 18 últimas parcelas serão de R$ 1.292,00</t>
-        </is>
-      </c>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="J126" s="4" t="inlineStr"/>
     </row>
     <row r="127" ht="30" customHeight="1">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>CT4251</t>
+          <t>CT4263</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
@@ -6677,20 +6684,22 @@
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>164200,00</t>
+          <t>79700,00</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>86200,00</t>
-        </is>
-      </c>
-      <c r="E127" s="4" t="n">
-        <v>154</v>
+          <t>41975,00</t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
       </c>
       <c r="F127" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G127" s="4" t="inlineStr">
@@ -6700,25 +6709,20 @@
       </c>
       <c r="H127" s="5" t="inlineStr">
         <is>
-          <t>25 x R$ 722,00
-129 x R$ 1.109,00</t>
+          <t>163 x R$ 560,00</t>
         </is>
       </c>
       <c r="I127" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J127" s="4" t="inlineStr">
-        <is>
-          <t>As 25 primeiras parcelas serão de R$ 722,00</t>
-        </is>
-      </c>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="J127" s="4" t="inlineStr"/>
     </row>
     <row r="128" ht="30" customHeight="1">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>CT4252</t>
+          <t>CT4264</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
@@ -6728,22 +6732,22 @@
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>173000,00</t>
+          <t>137200,00</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>87640,00</t>
+          <t>71850,00</t>
         </is>
       </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>141</t>
         </is>
       </c>
       <c r="F128" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G128" s="4" t="inlineStr">
@@ -6753,24 +6757,20 @@
       </c>
       <c r="H128" s="5" t="inlineStr">
         <is>
-          <t>122 x R$ 1.541,00</t>
+          <t>141 x R$ 1.099,00</t>
         </is>
       </c>
       <c r="I128" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J128" s="4" t="inlineStr">
-        <is>
-          <t>As 30 últimas parcelas serão de R$ 1.456,00</t>
-        </is>
-      </c>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="J128" s="4" t="inlineStr"/>
     </row>
     <row r="129" ht="30" customHeight="1">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>CT4253</t>
+          <t>CT4265</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
@@ -6780,22 +6780,22 @@
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>200000,00</t>
+          <t>148020,00</t>
         </is>
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>94990,00</t>
+          <t>77391,00</t>
         </is>
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F129" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G129" s="4" t="inlineStr">
@@ -6805,49 +6805,49 @@
       </c>
       <c r="H129" s="5" t="inlineStr">
         <is>
-          <t>154 x R$ 1.505,00</t>
+          <t>61 x R$ 2.021,00</t>
         </is>
       </c>
       <c r="I129" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J129" s="4" t="inlineStr">
         <is>
-          <t>As primeiras 24 parcelas serão de R$ 980,00</t>
+          <t>Taxa: R$ 650,00</t>
         </is>
       </c>
     </row>
     <row r="130" ht="30" customHeight="1">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>CT4254</t>
+          <t>CT4266</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>218000,00</t>
+          <t>52450,00</t>
         </is>
       </c>
       <c r="D130" s="4" t="inlineStr">
         <is>
-          <t>137890,00</t>
+          <t>22612,50</t>
         </is>
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F130" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G130" s="4" t="inlineStr">
@@ -6857,12 +6857,12 @@
       </c>
       <c r="H130" s="5" t="inlineStr">
         <is>
-          <t>62 x R$ 2.226,00</t>
+          <t>44 x R$ 1.179,00</t>
         </is>
       </c>
       <c r="I130" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J130" s="4" t="inlineStr"/>
@@ -6870,32 +6870,32 @@
     <row r="131" ht="30" customHeight="1">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>CT4255</t>
+          <t>CT4267</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>242000,00</t>
+          <t>52700,00</t>
         </is>
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
-          <t>122090,00</t>
+          <t>22625,00</t>
         </is>
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G131" s="4" t="inlineStr">
@@ -6905,45 +6905,49 @@
       </c>
       <c r="H131" s="5" t="inlineStr">
         <is>
-          <t>137 x R$ 1.867,00</t>
+          <t>41 x R$ 1.250,00</t>
         </is>
       </c>
       <c r="I131" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J131" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J131" s="4" t="inlineStr">
+        <is>
+          <t>AF72</t>
+        </is>
+      </c>
     </row>
     <row r="132" ht="30" customHeight="1">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>CT4256</t>
+          <t>CT4268</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>144000,00</t>
+          <t>53200,00</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
         <is>
-          <t>74190,00</t>
+          <t>21650,00</t>
         </is>
       </c>
       <c r="E132" s="4" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F132" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G132" s="4" t="inlineStr">
@@ -6953,20 +6957,24 @@
       </c>
       <c r="H132" s="5" t="inlineStr">
         <is>
-          <t>164 x R$ 1.092,00</t>
+          <t>41 x R$ 1.322,00</t>
         </is>
       </c>
       <c r="I132" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J132" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J132" s="4" t="inlineStr">
+        <is>
+          <t>AF99</t>
+        </is>
+      </c>
     </row>
     <row r="133" ht="30" customHeight="1">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>CT4257</t>
+          <t>CT4270</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
@@ -6976,22 +6984,20 @@
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>197000,00</t>
+          <t>144800,00</t>
         </is>
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>83840,00</t>
-        </is>
-      </c>
-      <c r="E133" s="4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
+          <t>47230,00</t>
+        </is>
+      </c>
+      <c r="E133" s="4" t="n">
+        <v>74</v>
       </c>
       <c r="F133" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G133" s="4" t="inlineStr">
@@ -7001,20 +7007,25 @@
       </c>
       <c r="H133" s="5" t="inlineStr">
         <is>
-          <t>152 x R$ 1.488,00</t>
+          <t>3 x R$ 3.063,00.
+71 x R$ 2.236,00</t>
         </is>
       </c>
       <c r="I133" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J133" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J133" s="4" t="inlineStr">
+        <is>
+          <t>As 03 primeiras parcelas serão de R$ 3.063,00. Taxa: R$ 2.068,47</t>
+        </is>
+      </c>
     </row>
     <row r="134" ht="30" customHeight="1">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>CT4258</t>
+          <t>CT4271</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
@@ -7024,22 +7035,20 @@
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>153000,00</t>
+          <t>206600,00</t>
         </is>
       </c>
       <c r="D134" s="4" t="inlineStr">
         <is>
-          <t>81640,00</t>
-        </is>
-      </c>
-      <c r="E134" s="4" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
+          <t>40320,00</t>
+        </is>
+      </c>
+      <c r="E134" s="4" t="n">
+        <v>29</v>
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G134" s="4" t="inlineStr">
@@ -7049,20 +7058,25 @@
       </c>
       <c r="H134" s="5" t="inlineStr">
         <is>
-          <t>161 x R$ 1.140,00</t>
+          <t>4 x R$ 8.984,00
+25 x R$ 8.158,00</t>
         </is>
       </c>
       <c r="I134" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J134" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J134" s="4" t="inlineStr">
+        <is>
+          <t>As 04 primeiras parcelas serão de R$ 8.984,00</t>
+        </is>
+      </c>
     </row>
     <row r="135" ht="30" customHeight="1">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>CT4259</t>
+          <t>CT4274</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
@@ -7072,16 +7086,18 @@
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>123748,00</t>
+          <t>569000,00</t>
         </is>
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>56186,40</t>
-        </is>
-      </c>
-      <c r="E135" s="4" t="n">
-        <v>111</v>
+          <t>280440,00</t>
+        </is>
+      </c>
+      <c r="E135" s="4" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
         <is>
@@ -7090,13 +7106,12 @@
       </c>
       <c r="G135" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H135" s="5" t="inlineStr">
         <is>
-          <t>3 x R$ 1.771,00.
-108 x R$ 1.083,00</t>
+          <t>146 x R$ 3.659,00</t>
         </is>
       </c>
       <c r="I135" s="4" t="inlineStr">
@@ -7106,14 +7121,14 @@
       </c>
       <c r="J135" s="4" t="inlineStr">
         <is>
-          <t>As 03 primeiras parcelas serão de R$ 1.771,00. Taxa: R$ 1.768,00</t>
+          <t>Taxa transferência R$ 8.190,00</t>
         </is>
       </c>
     </row>
     <row r="136" ht="30" customHeight="1">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>CT4260</t>
+          <t>CT4275</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
@@ -7123,22 +7138,22 @@
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>111650,00</t>
+          <t>230500,00</t>
         </is>
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>55572,50</t>
+          <t>113515,00</t>
         </is>
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G136" s="4" t="inlineStr">
@@ -7148,7 +7163,7 @@
       </c>
       <c r="H136" s="5" t="inlineStr">
         <is>
-          <t>162 x R$ 735,00</t>
+          <t>133 x R$ 1.905,00</t>
         </is>
       </c>
       <c r="I136" s="4" t="inlineStr">
@@ -7156,12 +7171,16 @@
           <t>10/05/2025</t>
         </is>
       </c>
-      <c r="J136" s="4" t="inlineStr"/>
+      <c r="J136" s="4" t="inlineStr">
+        <is>
+          <t>A primeira parcela será de R$ 1.770,00</t>
+        </is>
+      </c>
     </row>
     <row r="137" ht="30" customHeight="1">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>CT4261</t>
+          <t>CT4276</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
@@ -7171,22 +7190,22 @@
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>54600,00</t>
+          <t>75300,00</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>29720,00</t>
+          <t>42755,00</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>166</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G137" s="4" t="inlineStr">
@@ -7196,12 +7215,12 @@
       </c>
       <c r="H137" s="5" t="inlineStr">
         <is>
-          <t>158 x R$ 375,00</t>
+          <t>166 x R$ 547,00</t>
         </is>
       </c>
       <c r="I137" s="4" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J137" s="4" t="inlineStr"/>
@@ -7209,7 +7228,7 @@
     <row r="138" ht="30" customHeight="1">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>CT4262</t>
+          <t>CT4277</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
@@ -7219,17 +7238,17 @@
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>69750,00</t>
+          <t>100500,00</t>
         </is>
       </c>
       <c r="D138" s="4" t="inlineStr">
         <is>
-          <t>39477,50</t>
+          <t>52015,00</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>155</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
@@ -7244,7 +7263,7 @@
       </c>
       <c r="H138" s="5" t="inlineStr">
         <is>
-          <t>138 x R$ 486,00</t>
+          <t>155 x R$ 749,00</t>
         </is>
       </c>
       <c r="I138" s="4" t="inlineStr">
@@ -7257,7 +7276,7 @@
     <row r="139" ht="30" customHeight="1">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>CT4263</t>
+          <t>CT4278</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
@@ -7267,17 +7286,17 @@
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>79700,00</t>
+          <t>255000,00</t>
         </is>
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>41975,00</t>
+          <t>127740,00</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr">
@@ -7292,7 +7311,7 @@
       </c>
       <c r="H139" s="5" t="inlineStr">
         <is>
-          <t>163 x R$ 560,00</t>
+          <t>100 x R$ 2.459,00</t>
         </is>
       </c>
       <c r="I139" s="4" t="inlineStr">
@@ -7305,7 +7324,7 @@
     <row r="140" ht="30" customHeight="1">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>CT4264</t>
+          <t>CT4279</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
@@ -7315,22 +7334,22 @@
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>137200,00</t>
+          <t>107604,00</t>
         </is>
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>71850,00</t>
+          <t>47370,20</t>
         </is>
       </c>
       <c r="E140" s="4" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>166</t>
         </is>
       </c>
       <c r="F140" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G140" s="4" t="inlineStr">
@@ -7340,20 +7359,24 @@
       </c>
       <c r="H140" s="5" t="inlineStr">
         <is>
-          <t>141 x R$ 1.099,00</t>
+          <t>166 x R$ 796,00</t>
         </is>
       </c>
       <c r="I140" s="4" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
-        </is>
-      </c>
-      <c r="J140" s="4" t="inlineStr"/>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="J140" s="4" t="inlineStr">
+        <is>
+          <t>As 11 primeiras serão de R$ 976,00</t>
+        </is>
+      </c>
     </row>
     <row r="141" ht="30" customHeight="1">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>CT4265</t>
+          <t>CT4280</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
@@ -7363,22 +7386,22 @@
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>148020,00</t>
+          <t>70000,00</t>
         </is>
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>77391,00</t>
+          <t>33490,00</t>
         </is>
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>155</t>
         </is>
       </c>
       <c r="F141" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G141" s="4" t="inlineStr">
@@ -7388,49 +7411,45 @@
       </c>
       <c r="H141" s="5" t="inlineStr">
         <is>
-          <t>61 x R$ 2.021,00</t>
+          <t>155 x R$ 556,00</t>
         </is>
       </c>
       <c r="I141" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J141" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 650,00</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J141" s="4" t="inlineStr"/>
     </row>
     <row r="142" ht="30" customHeight="1">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>CT4266</t>
+          <t>CT4281</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>52450,00</t>
+          <t>97000,00</t>
         </is>
       </c>
       <c r="D142" s="4" t="inlineStr">
         <is>
-          <t>22612,50</t>
+          <t>52840,00</t>
         </is>
       </c>
       <c r="E142" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F142" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G142" s="4" t="inlineStr">
@@ -7440,15 +7459,207 @@
       </c>
       <c r="H142" s="5" t="inlineStr">
         <is>
-          <t>44 x R$ 1.179,00</t>
+          <t>112 x R$ 676,00</t>
         </is>
       </c>
       <c r="I142" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="J142" s="4" t="inlineStr"/>
+    </row>
+    <row r="143" ht="30" customHeight="1">
+      <c r="A143" s="4" t="inlineStr">
+        <is>
+          <t>CT4282</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>100000,00</t>
+        </is>
+      </c>
+      <c r="D143" s="4" t="inlineStr">
+        <is>
+          <t>49990,00</t>
+        </is>
+      </c>
+      <c r="E143" s="4" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="F143" s="4" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G143" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H143" s="5" t="inlineStr">
+        <is>
+          <t>175 x R$ 662,00</t>
+        </is>
+      </c>
+      <c r="I143" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J143" s="4" t="inlineStr"/>
+    </row>
+    <row r="144" ht="30" customHeight="1">
+      <c r="A144" s="4" t="inlineStr">
+        <is>
+          <t>CT4283</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>124000,00</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>61190,00</t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G144" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H144" s="5" t="inlineStr">
+        <is>
+          <t>153 x R$ 791,00</t>
+        </is>
+      </c>
+      <c r="I144" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J144" s="4" t="inlineStr"/>
+    </row>
+    <row r="145" ht="30" customHeight="1">
+      <c r="A145" s="4" t="inlineStr">
+        <is>
+          <t>CT4284</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>150000,00</t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t>73490,00</t>
+        </is>
+      </c>
+      <c r="E145" s="4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F145" s="4" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G145" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H145" s="5" t="inlineStr">
+        <is>
+          <t>150 x R$ 942,00</t>
+        </is>
+      </c>
+      <c r="I145" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J145" s="4" t="inlineStr"/>
+    </row>
+    <row r="146" ht="30" customHeight="1">
+      <c r="A146" s="4" t="inlineStr">
+        <is>
+          <t>CT4285</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>347100,00</t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t>166345,00</t>
+        </is>
+      </c>
+      <c r="E146" s="4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>Bradesco</t>
+        </is>
+      </c>
+      <c r="G146" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H146" s="5" t="inlineStr">
+        <is>
+          <t>150 x R$ 2.450,00</t>
+        </is>
+      </c>
+      <c r="I146" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J146" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scraper-completo/DADOS EXTRAIDOS/extracao_consorciocontemplado.xlsx
+++ b/scraper-completo/DADOS EXTRAIDOS/extracao_consorciocontemplado.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,9 @@
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="35" customWidth="1" min="8" max="8"/>
+    <col width="36" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="111" customWidth="1" min="10" max="10"/>
+    <col width="119" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -522,17 +522,17 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>80000,00</t>
+          <t>80500,00</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>47990,00</t>
+          <t>49015,00</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>152 x R$ 435,00</t>
+          <t>151 x R$ 435,00</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr"/>
@@ -575,12 +575,12 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>66250,00</t>
+          <t>64250,00</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>64 x R$ 1.878,00</t>
+          <t>63 x R$ 1.878,00</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>CT3581</t>
+          <t>CT3769</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -774,22 +774,22 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>365000,00</t>
+          <t>80000,00</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>278240,00</t>
+          <t>50990,00</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>26 x R$ 4.498,00</t>
+          <t>151 x R$ 406,00</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr"/>
@@ -812,27 +812,27 @@
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>CT3722</t>
+          <t>CT3777</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>135000,00</t>
+          <t>202496,00</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>68740,00</t>
+          <t>108114,80</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -847,45 +847,49 @@
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>92 x R$ 1.396,00</t>
+          <t>65 x R$ 2.906,00</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>VP07 Taxa: R$ 1.957,00</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>CT3723</t>
+          <t>CT3790</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>153000,00</t>
+          <t>18700,00</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>77640,00</t>
+          <t>12925,00</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -895,45 +899,49 @@
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>83 x R$ 1.847,00</t>
+          <t>57 x R$ 355,00</t>
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J9" s="4" t="inlineStr"/>
+          <t>15/03/2025</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 650,00</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>CT3769</t>
+          <t>CT3839</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>79500,00</t>
+          <t>36500,00</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>50965,00</t>
+          <t>24815,00</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -943,40 +951,44 @@
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>152 x R$ 406,00</t>
+          <t>29 x R$ 786,10</t>
         </is>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr"/>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>Veículos Leve- usado até 8 anos. Tem R$22.000,00 já pago</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>CT3777</t>
+          <t>CT3920</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>200800,00</t>
+          <t>115500,00</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>106030,00</t>
+          <t>55765,00</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -991,24 +1003,20 @@
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>66 x R$ 2.906,00</t>
+          <t>152 x R$ 875,00</t>
         </is>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>VP07 Taxa: R$ 1.957,00</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr"/>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>CT3790</t>
+          <t>CT3955</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -1018,22 +1026,22 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>18700,00</t>
+          <t>110350,00</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>12925,00</t>
+          <t>70507,50</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
@@ -1043,24 +1051,20 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>57 x R$ 355,00</t>
+          <t>48 x R$ 1.657,00</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 650,00</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr"/>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>CT3839</t>
+          <t>CT3967</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -1070,12 +1074,12 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>35800,00</t>
+          <t>59880,00</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>22780,00</t>
+          <t>31984,00</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1085,7 +1089,7 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
@@ -1095,24 +1099,20 @@
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>31 x R$ 786,10</t>
+          <t>31 x R$ 1.716,00</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
-        </is>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>Veículos usado até 8 anos. Tem R$19.000,00 já pago</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr"/>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>CT3864</t>
+          <t>CT3970</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>431033,00</t>
+          <t>111000,00</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>232541,65</t>
+          <t>55540,00</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>131</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>111 x R$ 3.459,00</t>
+          <t>131 x R$ 909,00</t>
         </is>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr"/>
@@ -1160,7 +1160,7 @@
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>CT3871</t>
+          <t>CT3994</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -1170,49 +1170,45 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>445000,00</t>
+          <t>111000,00</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>217240,00</t>
+          <t>57540,00</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>181 x R$ 2.641,00</t>
+          <t>130 x R$ 924,00</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
-        </is>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>Oportunidade !</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr"/>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>CT3897</t>
+          <t>CT4014</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -1222,17 +1218,17 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>71243,00</t>
+          <t>455000,00</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>43552,15</t>
+          <t>226740,00</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -1242,29 +1238,25 @@
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>191 x R$ 472,00</t>
+          <t>153 x R$ 3.002,00</t>
         </is>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 700,00</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr"/>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>CT3920</t>
+          <t>CT4015</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -1274,17 +1266,17 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>115500,00</t>
+          <t>448000,00</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>55765,00</t>
+          <t>227390,00</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -1299,12 +1291,12 @@
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>153 x R$ 875,00</t>
+          <t>150 x R$ 3.119,00</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr"/>
@@ -1312,32 +1304,32 @@
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>CT3967</t>
+          <t>CT4018</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>59880,00</t>
+          <t>108000,00</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>29984,00</t>
+          <t>48390,00</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
@@ -1347,12 +1339,12 @@
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>32 x R$ 1.716,00</t>
+          <t>137 x R$ 930,00</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr"/>
@@ -1360,7 +1352,7 @@
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>CT3970</t>
+          <t>CT4025</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1370,22 +1362,22 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>111000,00</t>
+          <t>184000,00</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>55540,00</t>
+          <t>87190,00</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -1395,12 +1387,12 @@
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>132 x R$ 909,00</t>
+          <t>28 x R$ 5.695,00</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr"/>
@@ -1408,7 +1400,7 @@
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>CT3994</t>
+          <t>CT4028</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1418,22 +1410,22 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>111000,00</t>
+          <t>835000,00</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>57540,00</t>
+          <t>437740,00</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
@@ -1443,12 +1435,12 @@
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>130 x R$ 924,00</t>
+          <t>73 x R$ 11.992,00</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr"/>
@@ -1456,7 +1448,7 @@
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>CT4014</t>
+          <t>CT4029</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1466,37 +1458,37 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>450465,00</t>
+          <t>1080000,00</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>222513,25</t>
+          <t>633990,00</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>154 x R$ 3.003,00</t>
+          <t>18 x R$ 37.850,00</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr"/>
@@ -1504,7 +1496,7 @@
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>CT4015</t>
+          <t>CT4054</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1514,17 +1506,17 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>444000,00</t>
+          <t>300000,00</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>226190,00</t>
+          <t>170990,00</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -1534,12 +1526,12 @@
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>150 x R$ 2.901,01</t>
+          <t>97 x R$ 2.568,00</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
@@ -1552,7 +1544,7 @@
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>CT4016</t>
+          <t>CT4126</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1562,18 +1554,16 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>894000,00</t>
+          <t>120000,00</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>444690,00</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
+          <t>55990,00</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>152</v>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
@@ -1582,29 +1572,30 @@
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>153 x R$ 5.094,00</t>
+          <t>8 x R$ 1.083,40
+144 x R$ 816,45</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>Junção</t>
+          <t>Sendo as 8 primeiras parcelas de R$ 1.083,40</t>
         </is>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>CT4018</t>
+          <t>CT4127</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1614,22 +1605,20 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>108000,00</t>
+          <t>135300,00</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>48390,00</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
+          <t>66755,00</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>146</v>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -1639,20 +1628,25 @@
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>137 x R$ 930,00</t>
+          <t>9 x R$ 1.245,13
+137 x R$ 948,25</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>Sendo as 9 primeiras parcelas de R$ 1.245,13</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="30" customHeight="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>CT4021</t>
+          <t>CT4138</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1662,17 +1656,17 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>118000,00</t>
+          <t>130580,00</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>61890,00</t>
+          <t>86519,00</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
@@ -1687,24 +1681,24 @@
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>153 x R$ 929,00</t>
+          <t>95 x R$ 1.190,00</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>Taxa: R$ 1.162,40</t>
+          <t>Taxa: R$ 1.735,00</t>
         </is>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>CT4025</t>
+          <t>CT4157</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1714,22 +1708,22 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>181500,00</t>
+          <t>70180,00</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>81065,00</t>
+          <t>42499,00</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
@@ -1739,20 +1733,24 @@
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>29 x R$ 5.315,00</t>
+          <t>192 x R$ 470,00</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J26" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.000,00</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="30" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>CT4028</t>
+          <t>CT4161</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1762,22 +1760,22 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>830000,00</t>
+          <t>74591,00</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>425490,00</t>
+          <t>43719,55</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
@@ -1787,12 +1785,12 @@
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>74 x R$ 11.992,00</t>
+          <t>168 x R$ 410,00</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr"/>
@@ -1800,7 +1798,7 @@
     <row r="28" ht="30" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>CT4029</t>
+          <t>CT4164</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1810,22 +1808,22 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>1070000,00</t>
+          <t>96030,00</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>591490,00</t>
+          <t>79791,50</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
@@ -1835,12 +1833,12 @@
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>19 x R$ 37.850,00</t>
+          <t>145 x R$ 390,00</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr"/>
@@ -1848,7 +1846,7 @@
     <row r="29" ht="30" customHeight="1">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>CT4036</t>
+          <t>CT4174</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1858,22 +1856,22 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>331000,00</t>
+          <t>16600,00</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>161540,00</t>
+          <t>10820,00</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
@@ -1883,24 +1881,24 @@
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>82 x R$ 3.636,00</t>
+          <t>50 x R$ 320,00</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>VP 13 - VEICULOS PESADOS</t>
+          <t>Taxa: R$ 650,00</t>
         </is>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>CT4054</t>
+          <t>CT4180</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1910,22 +1908,22 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>300000,00</t>
+          <t>152600,00</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>170990,00</t>
+          <t>72620,00</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
@@ -1935,12 +1933,12 @@
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>97 x R$ 2.568,00</t>
+          <t>142 x R$ 1.114,00</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>15/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr"/>
@@ -1948,32 +1946,32 @@
     <row r="31" ht="30" customHeight="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>CT4065</t>
+          <t>CT4182</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>189660,00</t>
+          <t>44300,00</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>87473,00</t>
+          <t>25205,00</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
@@ -1983,72 +1981,72 @@
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>137 x R$ 1.289,00</t>
+          <t>39 x R$ 911,00</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="J31" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>AF103</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>CT4080</t>
+          <t>CT4185</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>125000,00</t>
+          <t>105000,00</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>48240,00</t>
+          <t>52240,00</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>76 x R$ 1.898,00</t>
+          <t>167 x R$ 695,00</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>15/06/2025</t>
-        </is>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>AF- Veículos Leve até 8 anos de uso</t>
-        </is>
-      </c>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr"/>
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>CT4082</t>
+          <t>CT4192</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -2058,22 +2056,22 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>405494,00</t>
+          <t>160000,00</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>250264,70</t>
+          <t>73990,00</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
@@ -2083,12 +2081,12 @@
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>158 x R$ 1.899,00</t>
+          <t>171 x R$ 1.061,00</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr"/>
@@ -2096,7 +2094,7 @@
     <row r="34" ht="30" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>CT4086</t>
+          <t>CT4193</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -2106,22 +2104,22 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>87000,00</t>
+          <t>106000,00</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>48340,00</t>
+          <t>47290,00</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
@@ -2131,12 +2129,12 @@
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>110 x R$ 588,00</t>
+          <t>30 x R$ 3.695,00</t>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr"/>
@@ -2144,7 +2142,7 @@
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>CT4089</t>
+          <t>CT4197</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -2154,20 +2152,22 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>96240,00</t>
+          <t>1600000,00</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>28802,00</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="n">
-        <v>61</v>
+          <t>799990,00</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
@@ -2177,25 +2177,20 @@
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>3 x R$ 2.491,00
-58 x R$ 1.934,00</t>
+          <t>73 x R$ 24.285,00</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>As 03 primeiras parcelas serão de R$ 2.491,00</t>
-        </is>
-      </c>
+          <t>20/06/2025</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr"/>
     </row>
     <row r="36" ht="30" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>CT4100</t>
+          <t>CT4198</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -2205,37 +2200,37 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>73100,00</t>
+          <t>334000,00</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>35645,00</t>
+          <t>253700,00</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>182 x R$ 479,00</t>
+          <t>49 x R$ 2.102,00</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr"/>
@@ -2243,7 +2238,7 @@
     <row r="37" ht="30" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>CT4106</t>
+          <t>CT4226</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -2253,17 +2248,17 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>274500,00</t>
+          <t>106000,00</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>140715,00</t>
+          <t>54290,00</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
@@ -2273,29 +2268,25 @@
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>145 x R$ 1.718,00</t>
+          <t>164 x R$ 641,00</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>Taxa transf R$ 3923,00</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J37" s="4" t="inlineStr"/>
     </row>
     <row r="38" ht="30" customHeight="1">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>CT4110</t>
+          <t>CT4231</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -2305,16 +2296,18 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>119000,00</t>
+          <t>653000,00</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>54940,00</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>102</v>
+          <t>396640,00</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
@@ -2328,50 +2321,45 @@
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>3 x R$ 2.056,00.
-99 x R$ 1.317,00</t>
+          <t>92 x R$ 4.163,00</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>As 03 primeiras parcelas serão de R$ 2.056,00. Taxa: R$ 1.720,22</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr"/>
     </row>
     <row r="39" ht="30" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>CT4118</t>
+          <t>CT4239</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>28700,00</t>
+          <t>83000,00</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>21425,00</t>
+          <t>44140,00</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
@@ -2381,12 +2369,12 @@
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>70 x R$ 227,00</t>
+          <t>132 x R$ 723,00</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr"/>
@@ -2394,7 +2382,7 @@
     <row r="40" ht="30" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>CT4126</t>
+          <t>CT4243</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -2404,16 +2392,18 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>120000,00</t>
+          <t>70000,00</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>55990,00</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>153</v>
+          <t>38490,00</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
@@ -2427,25 +2417,20 @@
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>9 x R$ 1.083,40
-144 x R$ 816,45</t>
+          <t>193 x R$ 444,00</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J40" s="4" t="inlineStr">
-        <is>
-          <t>Sendo as 9 primeiras parcelas de R$ 1.083,40</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="inlineStr"/>
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>CT4127</t>
+          <t>CT4250</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -2455,20 +2440,22 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>135300,00</t>
+          <t>128000,00</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>66755,00</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>147</v>
+          <t>65390,00</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
@@ -2478,25 +2465,20 @@
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>10 x R$ 1.245,13
-137 x R$ 948,25</t>
+          <t>167 x R$ 866,00</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>Sendo as 10 primeiras parcelas de R$ 1.245,13</t>
-        </is>
-      </c>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="inlineStr"/>
     </row>
     <row r="42" ht="30" customHeight="1">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>CT4137</t>
+          <t>CT4251</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -2506,22 +2488,20 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>70230,00</t>
+          <t>166000,00</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>43501,50</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
+          <t>87290,00</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>153</v>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
@@ -2531,24 +2511,25 @@
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>191 x R$ 471,00</t>
+          <t>24 x R$ 722,00
+129 x R$ 1.109,00</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>Taxa: R$ 1.000,00</t>
+          <t>As 24 primeiras parcelas serão de R$ 722,00</t>
         </is>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>CT4138</t>
+          <t>CT4252</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -2558,22 +2539,22 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>129450,00</t>
+          <t>175500,00</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>82462,50</t>
+          <t>88765,00</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>121</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
@@ -2583,24 +2564,24 @@
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>95 x R$ 1.187,00</t>
+          <t>121 x R$ 1.541,00</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>A primeira parcela será de R$ 1.490,00</t>
+          <t>As 30 últimas parcelas serão de R$ 1.456,00</t>
         </is>
       </c>
     </row>
     <row r="44" ht="30" customHeight="1">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>CT4139</t>
+          <t>CT4256</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -2610,22 +2591,22 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>138900,00</t>
+          <t>144000,00</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>48935,00</t>
+          <t>74190,00</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
@@ -2635,12 +2616,12 @@
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>37 x R$ 4.211,00</t>
+          <t>164 x R$ 1.092,00</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr"/>
@@ -2648,47 +2629,47 @@
     <row r="45" ht="30" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>CT4155</t>
+          <t>CT4258</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>109100,00</t>
+          <t>153000,00</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>56955,00</t>
+          <t>81640,00</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>161</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>79 x R$ 1.293,00</t>
+          <t>161 x R$ 1.140,00</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr"/>
@@ -2696,7 +2677,7 @@
     <row r="46" ht="30" customHeight="1">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>CT4157</t>
+          <t>CT4265</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -2706,22 +2687,22 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>70180,00</t>
+          <t>148020,00</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>42499,00</t>
+          <t>77391,00</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
@@ -2731,7 +2712,7 @@
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>192 x R$ 470,00</t>
+          <t>61 x R$ 2.021,00</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
@@ -2741,14 +2722,14 @@
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>Taxa: R$ 1.000,00</t>
+          <t>Taxa: R$ 650,00</t>
         </is>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>CT4159</t>
+          <t>CT4275</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -2758,20 +2739,22 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>72488,00</t>
+          <t>232500,00</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>42614,40</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>188</v>
+          <t>115615,00</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
@@ -2781,25 +2764,20 @@
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>2 x R$ 557,00
-186 x R$ 390,00</t>
+          <t>132 x R$ 1.905,00</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J47" s="4" t="inlineStr">
-        <is>
-          <t>As 02 primeiras parcelas serão de R$ 557,00</t>
-        </is>
-      </c>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="J47" s="4" t="inlineStr"/>
     </row>
     <row r="48" ht="30" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>CT4160</t>
+          <t>CT4280</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -2809,22 +2787,22 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>73414,00</t>
+          <t>70000,00</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>43660,70</t>
+          <t>33490,00</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>155</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
@@ -2834,24 +2812,20 @@
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>188 x R$ 392,00</t>
+          <t>155 x R$ 556,00</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>A primeira parcela será de R$ 559,00</t>
-        </is>
-      </c>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr"/>
     </row>
     <row r="49" ht="30" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>CT4161</t>
+          <t>CT4282</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -2861,22 +2835,22 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>74591,00</t>
+          <t>100000,00</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>43719,55</t>
+          <t>48990,00</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
@@ -2886,12 +2860,12 @@
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>168 x R$ 410,00</t>
+          <t>175 x R$ 662,00</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr"/>
@@ -2899,7 +2873,7 @@
     <row r="50" ht="30" customHeight="1">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>CT4164</t>
+          <t>CT4283</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -2909,22 +2883,22 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>96030,00</t>
+          <t>124000,00</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>79791,50</t>
+          <t>61190,00</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
@@ -2934,12 +2908,12 @@
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>145 x R$ 390,00</t>
+          <t>153 x R$ 791,00</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/05/2025</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr"/>
@@ -2947,7 +2921,7 @@
     <row r="51" ht="30" customHeight="1">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>CT4166</t>
+          <t>CT4294</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -2957,17 +2931,17 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>109960,00</t>
+          <t>115000,00</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>72488,00</t>
+          <t>65740,00</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
@@ -2982,12 +2956,12 @@
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>177 x R$ 469,00</t>
+          <t>123 x R$ 929,30</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr"/>
@@ -2995,32 +2969,32 @@
     <row r="52" ht="30" customHeight="1">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>CT4174</t>
+          <t>CT4297</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>16600,00</t>
+          <t>272000,00</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>10820,00</t>
+          <t>143590,00</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
@@ -3030,24 +3004,20 @@
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>52 x R$ 512,00</t>
+          <t>191 x R$ 1.690,00</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="J52" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 650,00</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J52" s="4" t="inlineStr"/>
     </row>
     <row r="53" ht="30" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>CT4176</t>
+          <t>CT4300</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -3057,22 +3027,22 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>99500,00</t>
+          <t>151000,00</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>57965,00</t>
+          <t>89540,00</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
@@ -3082,24 +3052,20 @@
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>186 x R$ 554,00</t>
+          <t>140 x R$ 843,00</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J53" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 1.505,60</t>
-        </is>
-      </c>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr"/>
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>CT4178</t>
+          <t>CT4308</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -3109,12 +3075,12 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>168265,00</t>
+          <t>182000,00</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>85403,25</t>
+          <t>101090,00</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
@@ -3124,22 +3090,22 @@
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>137 x R$ 1.271,00</t>
+          <t>137 x R$ 1.425,00</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr"/>
@@ -3147,7 +3113,7 @@
     <row r="55" ht="30" customHeight="1">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>CT4180</t>
+          <t>CT4309</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -3157,22 +3123,22 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>152160,00</t>
+          <t>317000,00</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>72598,00</t>
+          <t>138840,00</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>116</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
@@ -3182,7 +3148,7 @@
       </c>
       <c r="H55" s="5" t="inlineStr">
         <is>
-          <t>142 x R$ 1.114,00</t>
+          <t>116 x R$ 3.204,00</t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
@@ -3190,12 +3156,16 @@
           <t>10/06/2025</t>
         </is>
       </c>
-      <c r="J55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>As 06 primeiras serão de R$ 2.346,00 + 54 de 3.204,00 e as 56 últimas parcelas serão de R$ 3.180,00. Tax: R$ 4.500,00</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="30" customHeight="1">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>CT4181</t>
+          <t>CT4316</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -3205,22 +3175,22 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>216423,00</t>
+          <t>111723,00</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>103811,15</t>
+          <t>55576,15</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>157</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
@@ -3230,44 +3200,40 @@
       </c>
       <c r="H56" s="5" t="inlineStr">
         <is>
-          <t>174 x R$ 1.464,00</t>
+          <t>157 x R$ 717,00</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="J56" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 1.000,00</t>
-        </is>
-      </c>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="J56" s="4" t="inlineStr"/>
     </row>
     <row r="57" ht="30" customHeight="1">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>CT4182</t>
+          <t>CT4322</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>44300,00</t>
+          <t>651950,00</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>24205,00</t>
+          <t>348587,50</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>193</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
@@ -3282,49 +3248,45 @@
       </c>
       <c r="H57" s="5" t="inlineStr">
         <is>
-          <t>40 x R$ 911,00</t>
+          <t>193 x R$ 3.944,00</t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J57" s="4" t="inlineStr">
-        <is>
-          <t>AF103</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J57" s="4" t="inlineStr"/>
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>CT4185</t>
+          <t>CT4323</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>105000,00</t>
+          <t>19342,00</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>52240,00</t>
+          <t>10957,10</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
@@ -3334,12 +3296,12 @@
       </c>
       <c r="H58" s="5" t="inlineStr">
         <is>
-          <t>167 x R$ 695,00</t>
+          <t>33 x R$ 735,00</t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr"/>
@@ -3347,7 +3309,7 @@
     <row r="59" ht="30" customHeight="1">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>CT4192</t>
+          <t>CT4328</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -3357,45 +3319,49 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>160000,00</t>
+          <t>135000,00</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>73990,00</t>
+          <t>66740,00</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H59" s="5" t="inlineStr">
         <is>
-          <t>171 x R$ 1.061,00</t>
+          <t>146 x R$ 945,00</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J59" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>As 9 primeiras serão R$ 1.266,00</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>CT4193</t>
+          <t>CT4329</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -3405,22 +3371,22 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>104500,00</t>
+          <t>270000,00</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>43215,00</t>
+          <t>133490,00</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
@@ -3430,20 +3396,24 @@
       </c>
       <c r="H60" s="5" t="inlineStr">
         <is>
-          <t>31 x R$ 3.695,00</t>
+          <t>146 x R$ 1.894,00</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J60" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>As 9 primeiras serão R$ 2.512,00</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="30" customHeight="1">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>CT4197</t>
+          <t>CT4330</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -3453,22 +3423,22 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>1590000,00</t>
+          <t>390000,00</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>771490,00</t>
+          <t>189490,00</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
@@ -3478,20 +3448,24 @@
       </c>
       <c r="H61" s="5" t="inlineStr">
         <is>
-          <t>74 x R$ 24.285,00</t>
+          <t>152 x R$ 2.710,00</t>
         </is>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J61" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t>as 9 primeiras serão R$ 3.595,00</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="30" customHeight="1">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>CT4198</t>
+          <t>CT4332</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -3501,22 +3475,22 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>333500,00</t>
+          <t>109800,00</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>251675,00</t>
+          <t>79480,00</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
@@ -3526,20 +3500,24 @@
       </c>
       <c r="H62" s="5" t="inlineStr">
         <is>
-          <t>50 x R$ 2.102,00</t>
+          <t>83 x R$ 623,00</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J62" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.098,00</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="30" customHeight="1">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>CT4199</t>
+          <t>CT4336</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -3549,22 +3527,22 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>258360,00</t>
+          <t>87500,00</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>125908,00</t>
+          <t>39365,00</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
@@ -3574,12 +3552,12 @@
       </c>
       <c r="H63" s="5" t="inlineStr">
         <is>
-          <t>101 x R$ 2.303,00</t>
+          <t>159 x R$ 601,00</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr"/>
@@ -3587,7 +3565,7 @@
     <row r="64" ht="30" customHeight="1">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>CT4210</t>
+          <t>CT4337</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -3597,37 +3575,37 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>83200,00</t>
+          <t>100100,00</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>42150,00</t>
+          <t>52995,00</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>173</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H64" s="5" t="inlineStr">
         <is>
-          <t>147 x R$ 716,00</t>
+          <t>173 x R$ 700,00</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr"/>
@@ -3635,27 +3613,27 @@
     <row r="65" ht="30" customHeight="1">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>CT4220</t>
+          <t>CT4338</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>43200,00</t>
+          <t>110000,00</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>37150,00</t>
+          <t>55490,00</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>182</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
@@ -3670,12 +3648,12 @@
       </c>
       <c r="H65" s="5" t="inlineStr">
         <is>
-          <t>39 x R$ 319,00</t>
+          <t>182 x R$ 785,00</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr"/>
@@ -3683,27 +3661,27 @@
     <row r="66" ht="30" customHeight="1">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>CT4221</t>
+          <t>CT4339</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>58600,00</t>
+          <t>197500,00</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>39920,00</t>
+          <t>104865,00</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
@@ -3718,12 +3696,12 @@
       </c>
       <c r="H66" s="5" t="inlineStr">
         <is>
-          <t>54 x R$ 549,00</t>
+          <t>136 x R$ 1.354,00</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr"/>
@@ -3731,7 +3709,7 @@
     <row r="67" ht="30" customHeight="1">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>CT4222</t>
+          <t>CT4345</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -3741,22 +3719,22 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>59350,00</t>
+          <t>18400,00</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>39957,50</t>
+          <t>13910,00</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
@@ -3766,12 +3744,12 @@
       </c>
       <c r="H67" s="5" t="inlineStr">
         <is>
-          <t>45 x R$ 719,00</t>
+          <t>53 x R$ 286,00</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr"/>
@@ -3779,7 +3757,7 @@
     <row r="68" ht="30" customHeight="1">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>CT4223</t>
+          <t>CT4346</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -3789,22 +3767,22 @@
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>77600,00</t>
+          <t>32900,00</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>53870,00</t>
+          <t>21635,00</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
@@ -3814,12 +3792,12 @@
       </c>
       <c r="H68" s="5" t="inlineStr">
         <is>
-          <t>39 x R$ 1.022,00</t>
+          <t>40 x R$ 658,00</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr"/>
@@ -3827,7 +3805,7 @@
     <row r="69" ht="30" customHeight="1">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>CT4224</t>
+          <t>CT4347</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -3837,22 +3815,22 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>89000,00</t>
+          <t>33900,00</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>52440,00</t>
+          <t>19685,00</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
@@ -3862,12 +3840,12 @@
       </c>
       <c r="H69" s="5" t="inlineStr">
         <is>
-          <t>20 x R$ 3.184,00</t>
+          <t>44 x R$ 775,00</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="J69" s="4" t="inlineStr"/>
@@ -3875,32 +3853,32 @@
     <row r="70" ht="30" customHeight="1">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>CT4225</t>
+          <t>CT4351</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>92150,00</t>
+          <t>675000,00</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>57597,50</t>
+          <t>373740,00</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
@@ -3910,12 +3888,12 @@
       </c>
       <c r="H70" s="5" t="inlineStr">
         <is>
-          <t>67 x R$ 1.015,00</t>
+          <t>120 x R$ 4.675,00</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr"/>
@@ -3923,27 +3901,27 @@
     <row r="71" ht="30" customHeight="1">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>CT4226</t>
+          <t>CT4353</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>106000,00</t>
+          <t>161054,00</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>54290,00</t>
+          <t>88042,70</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
@@ -3953,17 +3931,17 @@
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H71" s="5" t="inlineStr">
         <is>
-          <t>165 x R$ 641,00</t>
+          <t>66 x R$ 1.856,00</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr"/>
@@ -3971,27 +3949,27 @@
     <row r="72" ht="30" customHeight="1">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>CT4228</t>
+          <t>CT4354</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>205600,00</t>
+          <t>200000,00</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>110270,00</t>
+          <t>99990,00</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>114</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
@@ -4001,49 +3979,45 @@
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H72" s="5" t="inlineStr">
         <is>
-          <t>153 x R$ 1.189,00</t>
+          <t>114 x R$ 2.073,00</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J72" s="4" t="inlineStr">
-        <is>
-          <t>Oportunidade, cota com R$89mil já pago</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J72" s="4" t="inlineStr"/>
     </row>
     <row r="73" ht="30" customHeight="1">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>CT4232</t>
+          <t>CT4355</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>155000,00</t>
+          <t>372000,00</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>61740,00</t>
+          <t>198590,00</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
@@ -4053,17 +4027,17 @@
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H73" s="5" t="inlineStr">
         <is>
-          <t>144 x R$ 1.275,00</t>
+          <t>109 x R$ 3.723,00</t>
         </is>
       </c>
       <c r="I73" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J73" s="4" t="inlineStr"/>
@@ -4071,32 +4045,32 @@
     <row r="74" ht="30" customHeight="1">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>CT4239</t>
+          <t>CT4362</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>82973,00</t>
+          <t>36900,00</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>46138,65</t>
+          <t>18835,00</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
@@ -4106,45 +4080,49 @@
       </c>
       <c r="H74" s="5" t="inlineStr">
         <is>
-          <t>133 x R$ 723,00</t>
+          <t>29 x R$ 1.016,00</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J74" s="4" t="inlineStr"/>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>Veículos Leve - 8 anos uso</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="30" customHeight="1">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>CT4243</t>
+          <t>CT4364</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>70000,00</t>
+          <t>36901,00</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>38490,00</t>
+          <t>18835,05</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
@@ -4154,20 +4132,24 @@
       </c>
       <c r="H75" s="5" t="inlineStr">
         <is>
-          <t>194 x R$ 444,00</t>
+          <t>29 x R$ 1.016,00</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J75" s="4" t="inlineStr"/>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="J75" s="4" t="inlineStr">
+        <is>
+          <t>Veículos Leve - 8 anos uso</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>CT4244</t>
+          <t>CT4365</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -4177,17 +4159,17 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>295000,00</t>
+          <t>78678,00</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>139740,00</t>
+          <t>48923,90</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
@@ -4197,54 +4179,50 @@
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H76" s="5" t="inlineStr">
         <is>
-          <t>147 x R$ 1.942,00</t>
+          <t>145 x R$ 538,00</t>
         </is>
       </c>
       <c r="I76" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J76" s="4" t="inlineStr">
-        <is>
-          <t>Taxa transf R$ 4250,00</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J76" s="4" t="inlineStr"/>
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>CT4245</t>
+          <t>CT4368</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>394200,00</t>
+          <t>73800,00</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>256700,00</t>
+          <t>36680,00</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G77" s="4" t="inlineStr">
@@ -4254,49 +4232,49 @@
       </c>
       <c r="H77" s="5" t="inlineStr">
         <is>
-          <t>96 x R$ 2.480,00</t>
+          <t>29 x R$ 2.032,00</t>
         </is>
       </c>
       <c r="I77" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>05/07/2025</t>
         </is>
       </c>
       <c r="J77" s="4" t="inlineStr">
         <is>
-          <t>Oportunidade , cota com deságio !</t>
+          <t>Veículos Leve 8 anos - Tx transf. R$ 1.300,00</t>
         </is>
       </c>
     </row>
     <row r="78" ht="30" customHeight="1">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>CT4250</t>
+          <t>CT4369</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>127800,00</t>
+          <t>133450,00</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>65380,00</t>
+          <t>71662,50</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G78" s="4" t="inlineStr">
@@ -4306,45 +4284,49 @@
       </c>
       <c r="H78" s="5" t="inlineStr">
         <is>
-          <t>167 x R$ 866,00</t>
+          <t>66 x R$ 1.803,00</t>
         </is>
       </c>
       <c r="I78" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="J78" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.934,00</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="30" customHeight="1">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>CT4252</t>
+          <t>CT4370</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>174500,00</t>
+          <t>110500,00</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>88715,00</t>
+          <t>58515,00</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G79" s="4" t="inlineStr">
@@ -4354,49 +4336,49 @@
       </c>
       <c r="H79" s="5" t="inlineStr">
         <is>
-          <t>121 x R$ 1.541,00</t>
+          <t>29 x R$ 2.817,00</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>05/07/2025</t>
         </is>
       </c>
       <c r="J79" s="4" t="inlineStr">
         <is>
-          <t>As 30 últimas parcelas serão de R$ 1.456,00</t>
+          <t>Veículos Leve 8 anos - Tx transfer. R$ 1.950,00</t>
         </is>
       </c>
     </row>
     <row r="80" ht="30" customHeight="1">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>CT4255</t>
+          <t>CT4372</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>244000,00</t>
+          <t>572000,00</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>124190,00</t>
+          <t>290590,00</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>114</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G80" s="4" t="inlineStr">
@@ -4406,45 +4388,49 @@
       </c>
       <c r="H80" s="5" t="inlineStr">
         <is>
-          <t>136 x R$ 1.867,00</t>
+          <t>114 x R$ 5.796,00</t>
         </is>
       </c>
       <c r="I80" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="J80" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J80" s="4" t="inlineStr">
+        <is>
+          <t>As 05 últimas parcela serão de R$ 2.073,00</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="30" customHeight="1">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>CT4256</t>
+          <t>CT4373</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>144000,00</t>
+          <t>198200,00</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>74190,00</t>
+          <t>92900,00</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G81" s="4" t="inlineStr">
@@ -4454,12 +4440,12 @@
       </c>
       <c r="H81" s="5" t="inlineStr">
         <is>
-          <t>164 x R$ 1.092,00</t>
+          <t>46 x R$ 4.132,00</t>
         </is>
       </c>
       <c r="I81" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J81" s="4" t="inlineStr"/>
@@ -4467,7 +4453,7 @@
     <row r="82" ht="30" customHeight="1">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>CT4257</t>
+          <t>CT4374</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -4477,22 +4463,22 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>197000,00</t>
+          <t>121000,00</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>84840,00</t>
+          <t>82040,00</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G82" s="4" t="inlineStr">
@@ -4502,12 +4488,12 @@
       </c>
       <c r="H82" s="5" t="inlineStr">
         <is>
-          <t>151 x R$ 1.488,00</t>
+          <t>127 x R$ 582,00</t>
         </is>
       </c>
       <c r="I82" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J82" s="4" t="inlineStr"/>
@@ -4515,7 +4501,7 @@
     <row r="83" ht="30" customHeight="1">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>CT4258</t>
+          <t>CT4376</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -4525,22 +4511,22 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>153000,00</t>
+          <t>817300,00</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>81640,00</t>
+          <t>505855,00</t>
         </is>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>122</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G83" s="4" t="inlineStr">
@@ -4550,45 +4536,49 @@
       </c>
       <c r="H83" s="5" t="inlineStr">
         <is>
-          <t>161 x R$ 1.140,00</t>
+          <t>122 x R$ 4.975,00</t>
         </is>
       </c>
       <c r="I83" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
-        </is>
-      </c>
-      <c r="J83" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J83" s="4" t="inlineStr">
+        <is>
+          <t>junção - no final + 37 x R$ 2473,00</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="30" customHeight="1">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>CT4261</t>
+          <t>CT4377</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>54600,00</t>
+          <t>52450,00</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>29720,00</t>
+          <t>23612,50</t>
         </is>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G84" s="4" t="inlineStr">
@@ -4598,40 +4588,44 @@
       </c>
       <c r="H84" s="5" t="inlineStr">
         <is>
-          <t>158 x R$ 375,00</t>
+          <t>43 x R$ 1.179,00</t>
         </is>
       </c>
       <c r="I84" s="4" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
-        </is>
-      </c>
-      <c r="J84" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 698,99</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="30" customHeight="1">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>CT4265</t>
+          <t>CT4388</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>148020,00</t>
+          <t>19417,00</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>77391,00</t>
+          <t>10960,85</t>
         </is>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
@@ -4646,47 +4640,45 @@
       </c>
       <c r="H85" s="5" t="inlineStr">
         <is>
-          <t>61 x R$ 2.021,00</t>
+          <t>34 x R$ 735,00</t>
         </is>
       </c>
       <c r="I85" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J85" s="4" t="inlineStr">
-        <is>
-          <t>Taxa: R$ 650,00</t>
-        </is>
-      </c>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="J85" s="4" t="inlineStr"/>
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>CT4270</t>
+          <t>CT4390</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>144800,00</t>
+          <t>19500,00</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>47230,00</t>
-        </is>
-      </c>
-      <c r="E86" s="4" t="n">
-        <v>74</v>
+          <t>10965,00</t>
+        </is>
+      </c>
+      <c r="E86" s="4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G86" s="4" t="inlineStr">
@@ -4696,48 +4688,45 @@
       </c>
       <c r="H86" s="5" t="inlineStr">
         <is>
-          <t>3 x R$ 3.063,00.
-71 x R$ 2.236,00</t>
+          <t>33 x R$ 735,00</t>
         </is>
       </c>
       <c r="I86" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J86" s="4" t="inlineStr">
-        <is>
-          <t>As 03 primeiras parcelas serão de R$ 3.063,00. Taxa: R$ 2.068,47</t>
-        </is>
-      </c>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="J86" s="4" t="inlineStr"/>
     </row>
     <row r="87" ht="30" customHeight="1">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>CT4271</t>
+          <t>CT4391</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>206600,00</t>
+          <t>20173,00</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>40320,00</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="n">
-        <v>29</v>
+          <t>10998,65</t>
+        </is>
+      </c>
+      <c r="E87" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G87" s="4" t="inlineStr">
@@ -4747,25 +4736,20 @@
       </c>
       <c r="H87" s="5" t="inlineStr">
         <is>
-          <t>4 x R$ 8.984,00
-25 x R$ 8.158,00</t>
+          <t>32 x R$ 733,00</t>
         </is>
       </c>
       <c r="I87" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J87" s="4" t="inlineStr">
-        <is>
-          <t>As 04 primeiras parcelas serão de R$ 8.984,00</t>
-        </is>
-      </c>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="J87" s="4" t="inlineStr"/>
     </row>
     <row r="88" ht="30" customHeight="1">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>CT4274</t>
+          <t>CT4395</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -4775,49 +4759,45 @@
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>569000,00</t>
+          <t>587000,00</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>280440,00</t>
+          <t>411340,00</t>
         </is>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G88" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H88" s="5" t="inlineStr">
         <is>
-          <t>146 x R$ 3.659,00</t>
+          <t>79 x R$ 2.762,00</t>
         </is>
       </c>
       <c r="I88" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J88" s="4" t="inlineStr">
-        <is>
-          <t>Taxa transferência R$ 8.190,00</t>
-        </is>
-      </c>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="J88" s="4" t="inlineStr"/>
     </row>
     <row r="89" ht="30" customHeight="1">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>CT4275</t>
+          <t>CT4396</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -4827,37 +4807,37 @@
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>231500,00</t>
+          <t>384000,00</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>115565,00</t>
+          <t>276190,00</t>
         </is>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G89" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H89" s="5" t="inlineStr">
         <is>
-          <t>132 x R$ 1.905,00</t>
+          <t>109 x R$ 1.320,00</t>
         </is>
       </c>
       <c r="I89" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J89" s="4" t="inlineStr"/>
@@ -4865,7 +4845,7 @@
     <row r="90" ht="30" customHeight="1">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>CT4278</t>
+          <t>CT4398</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
@@ -4875,22 +4855,22 @@
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>255000,00</t>
+          <t>136000,00</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>127740,00</t>
+          <t>69790,00</t>
         </is>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>91</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G90" s="4" t="inlineStr">
@@ -4900,12 +4880,12 @@
       </c>
       <c r="H90" s="5" t="inlineStr">
         <is>
-          <t>100 x R$ 2.459,00</t>
+          <t>91 x R$ 1.395,00</t>
         </is>
       </c>
       <c r="I90" s="4" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J90" s="4" t="inlineStr"/>
@@ -4913,7 +4893,7 @@
     <row r="91" ht="30" customHeight="1">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>CT4279</t>
+          <t>CT4399</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -4923,17 +4903,17 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>107604,00</t>
+          <t>155000,00</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>47370,20</t>
+          <t>81740,00</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
@@ -4943,29 +4923,25 @@
       </c>
       <c r="G91" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H91" s="5" t="inlineStr">
         <is>
-          <t>166 x R$ 796,00</t>
+          <t>82 x R$ 1.845,00</t>
         </is>
       </c>
       <c r="I91" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J91" s="4" t="inlineStr">
-        <is>
-          <t>As 11 primeiras serão de R$ 976,00</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J91" s="4" t="inlineStr"/>
     </row>
     <row r="92" ht="30" customHeight="1">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>CT4280</t>
+          <t>CT4400</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -4975,22 +4951,22 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>70000,00</t>
+          <t>735000,00</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>33490,00</t>
+          <t>482740,00</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G92" s="4" t="inlineStr">
@@ -5000,12 +4976,12 @@
       </c>
       <c r="H92" s="5" t="inlineStr">
         <is>
-          <t>155 x R$ 556,00</t>
+          <t>18 x R$ 23.155,00</t>
         </is>
       </c>
       <c r="I92" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J92" s="4" t="inlineStr"/>
@@ -5013,7 +4989,7 @@
     <row r="93" ht="30" customHeight="1">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>CT4281</t>
+          <t>CT4403</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -5023,22 +4999,22 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>97000,00</t>
+          <t>84800,00</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>52840,00</t>
+          <t>44230,00</t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>135</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G93" s="4" t="inlineStr">
@@ -5048,12 +5024,12 @@
       </c>
       <c r="H93" s="5" t="inlineStr">
         <is>
-          <t>112 x R$ 676,00</t>
+          <t>135 x R$ 519,00</t>
         </is>
       </c>
       <c r="I93" s="4" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J93" s="4" t="inlineStr"/>
@@ -5061,32 +5037,32 @@
     <row r="94" ht="30" customHeight="1">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>CT4282</t>
+          <t>CT4405</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>100000,00</t>
+          <t>40000,00</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>49990,00</t>
+          <t>21990,00</t>
         </is>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G94" s="4" t="inlineStr">
@@ -5096,12 +5072,12 @@
       </c>
       <c r="H94" s="5" t="inlineStr">
         <is>
-          <t>175 x R$ 662,00</t>
+          <t>41 x R$ 1.066,00</t>
         </is>
       </c>
       <c r="I94" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J94" s="4" t="inlineStr"/>
@@ -5109,7 +5085,7 @@
     <row r="95" ht="30" customHeight="1">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>CT4283</t>
+          <t>CT4406</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
@@ -5119,22 +5095,22 @@
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>124000,00</t>
+          <t>57000,00</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>61190,00</t>
+          <t>36840,00</t>
         </is>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G95" s="4" t="inlineStr">
@@ -5144,12 +5120,12 @@
       </c>
       <c r="H95" s="5" t="inlineStr">
         <is>
-          <t>153 x R$ 791,00</t>
+          <t>159 x R$ 373,00</t>
         </is>
       </c>
       <c r="I95" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="J95" s="4" t="inlineStr"/>
@@ -5157,7 +5133,7 @@
     <row r="96" ht="30" customHeight="1">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>CT4286</t>
+          <t>CT4408</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
@@ -5167,45 +5143,49 @@
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>433060,00</t>
+          <t>970000,00</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>211643,00</t>
+          <t>476490,00</t>
         </is>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G96" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H96" s="5" t="inlineStr">
         <is>
-          <t>205 x R$ 2.269,62</t>
+          <t>160 x R$ 6.300,00</t>
         </is>
       </c>
       <c r="I96" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J96" s="4" t="inlineStr"/>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="J96" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 9.670,00</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="30" customHeight="1">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>CT4289</t>
+          <t>CT4410</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
@@ -5215,17 +5195,17 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>360000,00</t>
+          <t>108200,00</t>
         </is>
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>167990,00</t>
+          <t>62400,00</t>
         </is>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr">
@@ -5235,17 +5215,17 @@
       </c>
       <c r="G97" s="4" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="H97" s="5" t="inlineStr">
         <is>
-          <t>188 x R$ 2.437,23</t>
+          <t>165 x R$ 745,00</t>
         </is>
       </c>
       <c r="I97" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J97" s="4" t="inlineStr"/>
@@ -5253,7 +5233,7 @@
     <row r="98" ht="30" customHeight="1">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>CT4290</t>
+          <t>CT4411</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -5263,17 +5243,17 @@
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>117040,00</t>
+          <t>145700,00</t>
         </is>
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
-          <t>69842,00</t>
+          <t>83275,00</t>
         </is>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
@@ -5288,12 +5268,12 @@
       </c>
       <c r="H98" s="5" t="inlineStr">
         <is>
-          <t>121 x R$ 747,00</t>
+          <t>180 x R$ 819,00</t>
         </is>
       </c>
       <c r="I98" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J98" s="4" t="inlineStr"/>
@@ -5301,7 +5281,7 @@
     <row r="99" ht="30" customHeight="1">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>CT4293</t>
+          <t>CT4414</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
@@ -5311,17 +5291,17 @@
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>110000,00</t>
+          <t>405500,00</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>60490,00</t>
+          <t>235265,00</t>
         </is>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>193</t>
         </is>
       </c>
       <c r="F99" s="4" t="inlineStr">
@@ -5336,12 +5316,12 @@
       </c>
       <c r="H99" s="5" t="inlineStr">
         <is>
-          <t>180 x R$ 615,00</t>
+          <t>193 x R$ 2.612,00</t>
         </is>
       </c>
       <c r="I99" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J99" s="4" t="inlineStr"/>
@@ -5349,7 +5329,7 @@
     <row r="100" ht="30" customHeight="1">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>CT4294</t>
+          <t>CT4415</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
@@ -5359,17 +5339,17 @@
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>115000,00</t>
+          <t>502600,00</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>64740,00</t>
+          <t>245120,00</t>
         </is>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
@@ -5379,17 +5359,17 @@
       </c>
       <c r="G100" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H100" s="5" t="inlineStr">
         <is>
-          <t>124 x R$ 929,30</t>
+          <t>191 x R$ 3.097,00</t>
         </is>
       </c>
       <c r="I100" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J100" s="4" t="inlineStr"/>
@@ -5397,32 +5377,32 @@
     <row r="101" ht="30" customHeight="1">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>CT4296</t>
+          <t>CT4416</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>74800,00</t>
+          <t>112000,00</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>42730,00</t>
+          <t>58590,00</t>
         </is>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G101" s="4" t="inlineStr">
@@ -5432,12 +5412,12 @@
       </c>
       <c r="H101" s="5" t="inlineStr">
         <is>
-          <t>120 x R$ 586,00</t>
+          <t>51 x R$ 2.465,00</t>
         </is>
       </c>
       <c r="I101" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="J101" s="4" t="inlineStr"/>
@@ -5445,32 +5425,32 @@
     <row r="102" ht="30" customHeight="1">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>CT4297</t>
+          <t>CT4417</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>270000,00</t>
+          <t>128000,00</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>143490,00</t>
+          <t>58390,00</t>
         </is>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G102" s="4" t="inlineStr">
@@ -5480,12 +5460,12 @@
       </c>
       <c r="H102" s="5" t="inlineStr">
         <is>
-          <t>192 x R$ 1.690,00</t>
+          <t>39 x R$ 3.590,00</t>
         </is>
       </c>
       <c r="I102" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="J102" s="4" t="inlineStr"/>
@@ -5493,32 +5473,32 @@
     <row r="103" ht="30" customHeight="1">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>CT4300</t>
+          <t>CT4418</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>151000,00</t>
+          <t>209000,00</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>89540,00</t>
+          <t>104440,00</t>
         </is>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G103" s="4" t="inlineStr">
@@ -5528,12 +5508,12 @@
       </c>
       <c r="H103" s="5" t="inlineStr">
         <is>
-          <t>140 x R$ 843,00</t>
+          <t>56 x R$ 3.640,00</t>
         </is>
       </c>
       <c r="I103" s="4" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="J103" s="4" t="inlineStr"/>
@@ -5541,32 +5521,32 @@
     <row r="104" ht="30" customHeight="1">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>CT4307</t>
+          <t>CT4419</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>127000,00</t>
+          <t>210000,00</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>64340,00</t>
+          <t>106490,00</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G104" s="4" t="inlineStr">
@@ -5576,12 +5556,12 @@
       </c>
       <c r="H104" s="5" t="inlineStr">
         <is>
-          <t>183 x R$ 854,00</t>
+          <t>56 x R$ 3.637,00</t>
         </is>
       </c>
       <c r="I104" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="J104" s="4" t="inlineStr"/>
@@ -5589,7 +5569,7 @@
     <row r="105" ht="30" customHeight="1">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>CT4308</t>
+          <t>CT4420</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
@@ -5599,37 +5579,37 @@
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>181000,00</t>
+          <t>171801,00</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>101040,00</t>
+          <t>73580,05</t>
         </is>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G105" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H105" s="5" t="inlineStr">
         <is>
-          <t>137 x R$ 1.425,00</t>
+          <t>126 x R$ 1.601,00</t>
         </is>
       </c>
       <c r="I105" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J105" s="4" t="inlineStr"/>
@@ -5637,7 +5617,7 @@
     <row r="106" ht="30" customHeight="1">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>CT4309</t>
+          <t>CT4421</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
@@ -5647,20 +5627,22 @@
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>317000,00</t>
+          <t>90000,00</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>147840,00</t>
-        </is>
-      </c>
-      <c r="E106" s="4" t="n">
-        <v>116</v>
+          <t>43490,00</t>
+        </is>
+      </c>
+      <c r="E106" s="4" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>Rodobens</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G106" s="4" t="inlineStr">
@@ -5670,8 +5652,7 @@
       </c>
       <c r="H106" s="5" t="inlineStr">
         <is>
-          <t>6 x R$ 2.346,00
-110 x R$ 3.204,00</t>
+          <t>160 x R$ 641,00</t>
         </is>
       </c>
       <c r="I106" s="4" t="inlineStr">
@@ -5679,41 +5660,37 @@
           <t>10/06/2025</t>
         </is>
       </c>
-      <c r="J106" s="4" t="inlineStr">
-        <is>
-          <t>As 06 primeiras parcelas serão de R$ 2.346,00 e as 56 últimas parcelas serão de R$ 3.180,00. Tax: R$ 4.500,00</t>
-        </is>
-      </c>
+      <c r="J106" s="4" t="inlineStr"/>
     </row>
     <row r="107" ht="30" customHeight="1">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>CT4316</t>
+          <t>CT4425</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>110423,00</t>
+          <t>135460,00</t>
         </is>
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>55511,15</t>
+          <t>66763,00</t>
         </is>
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G107" s="4" t="inlineStr">
@@ -5723,45 +5700,49 @@
       </c>
       <c r="H107" s="5" t="inlineStr">
         <is>
-          <t>158 x R$ 717,00</t>
+          <t>66 x R$ 2.125,00</t>
         </is>
       </c>
       <c r="I107" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="J107" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J107" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.934,00</t>
+        </is>
+      </c>
     </row>
     <row r="108" ht="30" customHeight="1">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>CT4318</t>
+          <t>CT4426</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>140929,00</t>
+          <t>137027,00</t>
         </is>
       </c>
       <c r="D108" s="4" t="inlineStr">
         <is>
-          <t>74036,45</t>
+          <t>79841,35</t>
         </is>
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G108" s="4" t="inlineStr">
@@ -5771,40 +5752,44 @@
       </c>
       <c r="H108" s="5" t="inlineStr">
         <is>
-          <t>125 x R$ 898,00</t>
+          <t>65 x R$ 1.957,00</t>
         </is>
       </c>
       <c r="I108" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="J108" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J108" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.957,00</t>
+        </is>
+      </c>
     </row>
     <row r="109" ht="30" customHeight="1">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>CT4322</t>
+          <t>CT4427</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Veiculos</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>651950,00</t>
+          <t>180855,00</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>342587,50</t>
+          <t>96032,75</t>
         </is>
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
@@ -5819,20 +5804,24 @@
       </c>
       <c r="H109" s="5" t="inlineStr">
         <is>
-          <t>194 x R$ 3.944,00</t>
+          <t>62 x R$ 2.678,00</t>
         </is>
       </c>
       <c r="I109" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J109" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J109" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.809,00</t>
+        </is>
+      </c>
     </row>
     <row r="110" ht="30" customHeight="1">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>CT4323</t>
+          <t>CT4430</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
@@ -5842,22 +5831,22 @@
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>19381,00</t>
+          <t>430000,00</t>
         </is>
       </c>
       <c r="D110" s="4" t="inlineStr">
         <is>
-          <t>10959,05</t>
+          <t>213490,00</t>
         </is>
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G110" s="4" t="inlineStr">
@@ -5867,45 +5856,49 @@
       </c>
       <c r="H110" s="5" t="inlineStr">
         <is>
-          <t>33 x R$ 735,00</t>
+          <t>66 x R$ 5.784,00</t>
         </is>
       </c>
       <c r="I110" s="4" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="J110" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J110" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 5.810,00</t>
+        </is>
+      </c>
     </row>
     <row r="111" ht="30" customHeight="1">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>CT4324</t>
+          <t>CT4431</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Veiculos</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>23558,00</t>
+          <t>281000,00</t>
         </is>
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>13167,90</t>
+          <t>144040,00</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G111" s="4" t="inlineStr">
@@ -5915,12 +5908,12 @@
       </c>
       <c r="H111" s="5" t="inlineStr">
         <is>
-          <t>32 x R$ 881,00</t>
+          <t>191 x R$ 1.772,00</t>
         </is>
       </c>
       <c r="I111" s="4" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J111" s="4" t="inlineStr"/>
@@ -5928,7 +5921,7 @@
     <row r="112" ht="30" customHeight="1">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>CT4325</t>
+          <t>CT4432</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
@@ -5938,17 +5931,17 @@
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>100000,00</t>
+          <t>74000,00</t>
         </is>
       </c>
       <c r="D112" s="4" t="inlineStr">
         <is>
-          <t>56990,00</t>
+          <t>37690,00</t>
         </is>
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>182</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
@@ -5963,20 +5956,24 @@
       </c>
       <c r="H112" s="5" t="inlineStr">
         <is>
-          <t>192 x R$ 675,00</t>
+          <t>182 x R$ 478,00</t>
         </is>
       </c>
       <c r="I112" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J112" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J112" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 732,00</t>
+        </is>
+      </c>
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>CT4327</t>
+          <t>CT4434</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
@@ -5986,17 +5983,17 @@
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>117500,00</t>
+          <t>116621,00</t>
         </is>
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>60865,00</t>
+          <t>65821,05</t>
         </is>
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
@@ -6011,20 +6008,24 @@
       </c>
       <c r="H113" s="5" t="inlineStr">
         <is>
-          <t>157 x R$ 834,00</t>
+          <t>82 x R$ 1.096,00</t>
         </is>
       </c>
       <c r="I113" s="4" t="inlineStr">
         <is>
-          <t>15/06/2025</t>
-        </is>
-      </c>
-      <c r="J113" s="4" t="inlineStr"/>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="J113" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 1.139,19</t>
+        </is>
+      </c>
     </row>
     <row r="114" ht="30" customHeight="1">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>CT4328</t>
+          <t>CT4445</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
@@ -6034,17 +6035,17 @@
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>134700,00</t>
+          <t>322000,00</t>
         </is>
       </c>
       <c r="D114" s="4" t="inlineStr">
         <is>
-          <t>66725,00</t>
+          <t>146090,00</t>
         </is>
       </c>
       <c r="E114" s="4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F114" s="4" t="inlineStr">
@@ -6054,29 +6055,25 @@
       </c>
       <c r="G114" s="4" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Reservada</t>
         </is>
       </c>
       <c r="H114" s="5" t="inlineStr">
         <is>
-          <t>147 x R$ 945,00</t>
+          <t>175 x R$ 2.160,00</t>
         </is>
       </c>
       <c r="I114" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="J114" s="4" t="inlineStr">
-        <is>
-          <t>As 10 primeiras serão R$ 1.266,00</t>
-        </is>
-      </c>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J114" s="4" t="inlineStr"/>
     </row>
     <row r="115" ht="30" customHeight="1">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>CT4329</t>
+          <t>CT4447</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
@@ -6086,17 +6083,17 @@
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>270000,00</t>
+          <t>193500,00</t>
         </is>
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>133490,00</t>
+          <t>93665,00</t>
         </is>
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F115" s="4" t="inlineStr">
@@ -6111,24 +6108,24 @@
       </c>
       <c r="H115" s="5" t="inlineStr">
         <is>
-          <t>147 x R$ 1.894,00</t>
+          <t>164 x R$ 1.242,00</t>
         </is>
       </c>
       <c r="I115" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="J115" s="4" t="inlineStr">
         <is>
-          <t>As 10 primeiras serão R$ 2.512,00</t>
+          <t>Junção</t>
         </is>
       </c>
     </row>
     <row r="116" ht="30" customHeight="1">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>CT4330</t>
+          <t>CT4453</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
@@ -6138,22 +6135,20 @@
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>390000,00</t>
+          <t>215000,00</t>
         </is>
       </c>
       <c r="D116" s="4" t="inlineStr">
         <is>
-          <t>189490,00</t>
-        </is>
-      </c>
-      <c r="E116" s="4" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
+          <t>104740,00</t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>132</v>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G116" s="4" t="inlineStr">
@@ -6163,24 +6158,25 @@
       </c>
       <c r="H116" s="5" t="inlineStr">
         <is>
-          <t>153 x R$ 2.710,00</t>
+          <t>21 x R$ 1.333,00
+111 x R$ 1.900,00</t>
         </is>
       </c>
       <c r="I116" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J116" s="4" t="inlineStr">
         <is>
-          <t>as 10 primeiras serão R$ 3.595,00</t>
+          <t>As 21 primeiras parcelas serão de R$ 1.333,00</t>
         </is>
       </c>
     </row>
     <row r="117" ht="30" customHeight="1">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>CT4331</t>
+          <t>CT4454</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
@@ -6190,22 +6186,22 @@
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>475000,00</t>
+          <t>550000,00</t>
         </is>
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>243740,00</t>
+          <t>223490,00</t>
         </is>
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G117" s="4" t="inlineStr">
@@ -6215,7 +6211,7 @@
       </c>
       <c r="H117" s="5" t="inlineStr">
         <is>
-          <t>114 x R$ 3.920,00</t>
+          <t>50 x R$ 11.050,00</t>
         </is>
       </c>
       <c r="I117" s="4" t="inlineStr">
@@ -6228,7 +6224,7 @@
     <row r="118" ht="30" customHeight="1">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>CT4332</t>
+          <t>CT4455</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
@@ -6238,22 +6234,22 @@
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>109800,00</t>
+          <t>102000,00</t>
         </is>
       </c>
       <c r="D118" s="4" t="inlineStr">
         <is>
-          <t>79480,00</t>
+          <t>52090,00</t>
         </is>
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G118" s="4" t="inlineStr">
@@ -6263,12 +6259,12 @@
       </c>
       <c r="H118" s="5" t="inlineStr">
         <is>
-          <t>84 x R$ 623,00</t>
+          <t>136 x R$ 671,00</t>
         </is>
       </c>
       <c r="I118" s="4" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J118" s="4" t="inlineStr"/>
@@ -6276,7 +6272,7 @@
     <row r="119" ht="30" customHeight="1">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>CT4335</t>
+          <t>CT4457</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
@@ -6286,22 +6282,22 @@
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>700000,00</t>
+          <t>118700,00</t>
         </is>
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>334990,00</t>
+          <t>53925,00</t>
         </is>
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>195</t>
         </is>
       </c>
       <c r="F119" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G119" s="4" t="inlineStr">
@@ -6311,12 +6307,12 @@
       </c>
       <c r="H119" s="5" t="inlineStr">
         <is>
-          <t>190 x R$ 4.293,00</t>
+          <t>195 x R$ 734,00</t>
         </is>
       </c>
       <c r="I119" s="4" t="inlineStr">
         <is>
-          <t>15/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J119" s="4" t="inlineStr"/>
@@ -6324,7 +6320,7 @@
     <row r="120" ht="30" customHeight="1">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>CT4336</t>
+          <t>CT4458</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
@@ -6334,22 +6330,22 @@
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>87500,00</t>
+          <t>112000,00</t>
         </is>
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>39365,00</t>
+          <t>60590,00</t>
         </is>
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>208</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G120" s="4" t="inlineStr">
@@ -6359,12 +6355,12 @@
       </c>
       <c r="H120" s="5" t="inlineStr">
         <is>
-          <t>159 x R$ 601,00</t>
+          <t>208 x R$ 565,00</t>
         </is>
       </c>
       <c r="I120" s="4" t="inlineStr">
         <is>
-          <t>15/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="J120" s="4" t="inlineStr"/>
@@ -6372,7 +6368,7 @@
     <row r="121" ht="30" customHeight="1">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>CT4337</t>
+          <t>CT4459</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
@@ -6382,22 +6378,22 @@
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>100100,00</t>
+          <t>368000,00</t>
         </is>
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>52995,00</t>
+          <t>192390,00</t>
         </is>
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>186</t>
         </is>
       </c>
       <c r="F121" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Rodobens</t>
         </is>
       </c>
       <c r="G121" s="4" t="inlineStr">
@@ -6407,7 +6403,7 @@
       </c>
       <c r="H121" s="5" t="inlineStr">
         <is>
-          <t>173 x R$ 700,00</t>
+          <t>186 x R$ 2.332,00</t>
         </is>
       </c>
       <c r="I121" s="4" t="inlineStr">
@@ -6420,7 +6416,7 @@
     <row r="122" ht="30" customHeight="1">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>CT4338</t>
+          <t>CT4460</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
@@ -6430,22 +6426,22 @@
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>110000,00</t>
+          <t>368500,00</t>
         </is>
       </c>
       <c r="D122" s="4" t="inlineStr">
         <is>
-          <t>55490,00</t>
+          <t>176415,00</t>
         </is>
       </c>
       <c r="E122" s="4" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G122" s="4" t="inlineStr">
@@ -6455,20 +6451,24 @@
       </c>
       <c r="H122" s="5" t="inlineStr">
         <is>
-          <t>182 x R$ 785,00</t>
+          <t>192 x R$ 2.219,00</t>
         </is>
       </c>
       <c r="I122" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="J122" s="4" t="inlineStr"/>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="J122" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 3.674,32</t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="30" customHeight="1">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>CT4339</t>
+          <t>CT4461</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
@@ -6478,22 +6478,22 @@
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>197500,00</t>
+          <t>300000,00</t>
         </is>
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
-          <t>104865,00</t>
+          <t>151990,00</t>
         </is>
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>187</t>
         </is>
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G123" s="4" t="inlineStr">
@@ -6503,20 +6503,24 @@
       </c>
       <c r="H123" s="5" t="inlineStr">
         <is>
-          <t>136 x R$ 354,00</t>
+          <t>187 x R$ 1.974,00</t>
         </is>
       </c>
       <c r="I123" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="J123" s="4" t="inlineStr"/>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J123" s="4" t="inlineStr">
+        <is>
+          <t>Taxa: R$ 3.180,00</t>
+        </is>
+      </c>
     </row>
     <row r="124" ht="30" customHeight="1">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>CT4340</t>
+          <t>CT4462</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
@@ -6526,17 +6530,17 @@
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>702000,00</t>
+          <t>431000,00</t>
         </is>
       </c>
       <c r="D124" s="4" t="inlineStr">
         <is>
-          <t>335090,00</t>
+          <t>241540,00</t>
         </is>
       </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
@@ -6551,7 +6555,7 @@
       </c>
       <c r="H124" s="5" t="inlineStr">
         <is>
-          <t>190 x R$ 4.281,00</t>
+          <t>147 x R$ 2.509,00</t>
         </is>
       </c>
       <c r="I124" s="4" t="inlineStr">
@@ -6564,7 +6568,7 @@
     <row r="125" ht="30" customHeight="1">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>CT4341</t>
+          <t>CT4463</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
@@ -6574,22 +6578,22 @@
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>446500,00</t>
+          <t>86900,00</t>
         </is>
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>220315,00</t>
+          <t>44335,00</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F125" s="4" t="inlineStr">
         <is>
-          <t>Itaú Consórcio</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G125" s="4" t="inlineStr">
@@ -6599,7 +6603,7 @@
       </c>
       <c r="H125" s="5" t="inlineStr">
         <is>
-          <t>204 x R$ 2.218,00</t>
+          <t>151 x R$ 613,00</t>
         </is>
       </c>
       <c r="I125" s="4" t="inlineStr">
@@ -6612,7 +6616,7 @@
     <row r="126" ht="30" customHeight="1">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>CT4342</t>
+          <t>CT4464</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
@@ -6622,22 +6626,22 @@
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>69200,00</t>
+          <t>158000,00</t>
         </is>
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>35450,00</t>
+          <t>76890,00</t>
         </is>
       </c>
       <c r="E126" s="4" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>148</t>
         </is>
       </c>
       <c r="F126" s="4" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G126" s="4" t="inlineStr">
@@ -6647,7 +6651,7 @@
       </c>
       <c r="H126" s="5" t="inlineStr">
         <is>
-          <t>141 x R$ 362,00</t>
+          <t>148 x R$ 11.970,10</t>
         </is>
       </c>
       <c r="I126" s="4" t="inlineStr">
@@ -6660,7 +6664,7 @@
     <row r="127" ht="30" customHeight="1">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>CT4343</t>
+          <t>CT4465</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
@@ -6670,22 +6674,22 @@
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>182750,00</t>
+          <t>38600,00</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>94127,50</t>
+          <t>21920,00</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F127" s="4" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G127" s="4" t="inlineStr">
@@ -6695,12 +6699,12 @@
       </c>
       <c r="H127" s="5" t="inlineStr">
         <is>
-          <t>153 x R$ 1.163,00</t>
+          <t>169 x R$ 298,00</t>
         </is>
       </c>
       <c r="I127" s="4" t="inlineStr">
         <is>
-          <t>15/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="J127" s="4" t="inlineStr"/>
@@ -6708,7 +6712,7 @@
     <row r="128" ht="30" customHeight="1">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>CT4344</t>
+          <t>CT4468</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
@@ -6718,22 +6722,22 @@
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>171800,00</t>
+          <t>123000,00</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>84580,00</t>
+          <t>65140,00</t>
         </is>
       </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F128" s="4" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú Consórcio</t>
         </is>
       </c>
       <c r="G128" s="4" t="inlineStr">
@@ -6743,15 +6747,1183 @@
       </c>
       <c r="H128" s="5" t="inlineStr">
         <is>
-          <t>136 x R$ 1.261,00</t>
+          <t>160 x R$ 806,00</t>
         </is>
       </c>
       <c r="I128" s="4" t="inlineStr">
         <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="J128" s="4" t="inlineStr"/>
+    </row>
+    <row r="129" ht="30" customHeight="1">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>CT4469</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>135500,00</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t>70765,00</t>
+        </is>
+      </c>
+      <c r="E129" s="4" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="F129" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G129" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H129" s="5" t="inlineStr">
+        <is>
+          <t>161 x R$ 934,00</t>
+        </is>
+      </c>
+      <c r="I129" s="4" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="J129" s="4" t="inlineStr"/>
+    </row>
+    <row r="130" ht="30" customHeight="1">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>CT4470</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>112000,00</t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t>54590,00</t>
+        </is>
+      </c>
+      <c r="E130" s="4" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="G130" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H130" s="5" t="inlineStr">
+        <is>
+          <t>212 x R$ 608,00</t>
+        </is>
+      </c>
+      <c r="I130" s="4" t="inlineStr">
+        <is>
           <t>10/06/2025</t>
         </is>
       </c>
-      <c r="J128" s="4" t="inlineStr"/>
+      <c r="J130" s="4" t="inlineStr"/>
+    </row>
+    <row r="131" ht="30" customHeight="1">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>CT4471</t>
+        </is>
+      </c>
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>258500,00</t>
+        </is>
+      </c>
+      <c r="D131" s="4" t="inlineStr">
+        <is>
+          <t>132915,00</t>
+        </is>
+      </c>
+      <c r="E131" s="4" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F131" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G131" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H131" s="5" t="inlineStr">
+        <is>
+          <t>160 x R$ 1.739,00</t>
+        </is>
+      </c>
+      <c r="I131" s="4" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="J131" s="4" t="inlineStr">
+        <is>
+          <t>Junção - Taxa transf R$ 1300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="30" customHeight="1">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>CT4472</t>
+        </is>
+      </c>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>139130,00</t>
+        </is>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
+          <t>68946,50</t>
+        </is>
+      </c>
+      <c r="E132" s="4" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="G132" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H132" s="5" t="inlineStr">
+        <is>
+          <t>181 x R$ 876,00</t>
+        </is>
+      </c>
+      <c r="I132" s="4" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="J132" s="4" t="inlineStr"/>
+    </row>
+    <row r="133" ht="30" customHeight="1">
+      <c r="A133" s="4" t="inlineStr">
+        <is>
+          <t>CT4473</t>
+        </is>
+      </c>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>70000,00</t>
+        </is>
+      </c>
+      <c r="D133" s="4" t="inlineStr">
+        <is>
+          <t>37490,00</t>
+        </is>
+      </c>
+      <c r="E133" s="4" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F133" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G133" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H133" s="5" t="inlineStr">
+        <is>
+          <t>58 x R$ 1.118,00</t>
+        </is>
+      </c>
+      <c r="I133" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J133" s="4" t="inlineStr"/>
+    </row>
+    <row r="134" ht="30" customHeight="1">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>CT4474</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>35060,00</t>
+        </is>
+      </c>
+      <c r="D134" s="4" t="inlineStr">
+        <is>
+          <t>20743,00</t>
+        </is>
+      </c>
+      <c r="E134" s="4" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G134" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H134" s="5" t="inlineStr">
+        <is>
+          <t>87 x R$ 793,00</t>
+        </is>
+      </c>
+      <c r="I134" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J134" s="4" t="inlineStr"/>
+    </row>
+    <row r="135" ht="30" customHeight="1">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>CT4475</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>942000,00</t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>467090,00</t>
+        </is>
+      </c>
+      <c r="E135" s="4" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F135" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G135" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H135" s="5" t="inlineStr">
+        <is>
+          <t>180 x R$ 5.905,00</t>
+        </is>
+      </c>
+      <c r="I135" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J135" s="4" t="inlineStr"/>
+    </row>
+    <row r="136" ht="30" customHeight="1">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>CT4476</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>126894,00</t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>69334,70</t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G136" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H136" s="5" t="inlineStr">
+        <is>
+          <t>93 x R$ 1.460,00</t>
+        </is>
+      </c>
+      <c r="I136" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J136" s="4" t="inlineStr"/>
+    </row>
+    <row r="137" ht="30" customHeight="1">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>CT4477</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>135350,00</t>
+        </is>
+      </c>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t>73757,50</t>
+        </is>
+      </c>
+      <c r="E137" s="4" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F137" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G137" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H137" s="5" t="inlineStr">
+        <is>
+          <t>91 x R$ 1.395,00</t>
+        </is>
+      </c>
+      <c r="I137" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J137" s="4" t="inlineStr"/>
+    </row>
+    <row r="138" ht="30" customHeight="1">
+      <c r="A138" s="4" t="inlineStr">
+        <is>
+          <t>CT4478</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t>153750,00</t>
+        </is>
+      </c>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t>84677,50</t>
+        </is>
+      </c>
+      <c r="E138" s="4" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G138" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H138" s="5" t="inlineStr">
+        <is>
+          <t>82 x R$ 1.845,00</t>
+        </is>
+      </c>
+      <c r="I138" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J138" s="4" t="inlineStr"/>
+    </row>
+    <row r="139" ht="30" customHeight="1">
+      <c r="A139" s="4" t="inlineStr">
+        <is>
+          <t>CT4479</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>154105,00</t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
+          <t>67695,25</t>
+        </is>
+      </c>
+      <c r="E139" s="4" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="F139" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G139" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H139" s="5" t="inlineStr">
+        <is>
+          <t>145 x R$ 1.303,00</t>
+        </is>
+      </c>
+      <c r="I139" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J139" s="4" t="inlineStr">
+        <is>
+          <t>A primeira parcela será de R$ 1.917,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="30" customHeight="1">
+      <c r="A140" s="4" t="inlineStr">
+        <is>
+          <t>CT4480</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>126117,00</t>
+        </is>
+      </c>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t>65295,85</t>
+        </is>
+      </c>
+      <c r="E140" s="4" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G140" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H140" s="5" t="inlineStr">
+        <is>
+          <t>63 x R$ 1.874,00</t>
+        </is>
+      </c>
+      <c r="I140" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J140" s="4" t="inlineStr"/>
+    </row>
+    <row r="141" ht="30" customHeight="1">
+      <c r="A141" s="4" t="inlineStr">
+        <is>
+          <t>CT4481</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t>221370,00</t>
+        </is>
+      </c>
+      <c r="D141" s="4" t="inlineStr">
+        <is>
+          <t>126058,50</t>
+        </is>
+      </c>
+      <c r="E141" s="4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F141" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G141" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H141" s="5" t="inlineStr">
+        <is>
+          <t>64 x R$ 2.632,00</t>
+        </is>
+      </c>
+      <c r="I141" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J141" s="4" t="inlineStr"/>
+    </row>
+    <row r="142" ht="30" customHeight="1">
+      <c r="A142" s="4" t="inlineStr">
+        <is>
+          <t>CT4482</t>
+        </is>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>19730,00</t>
+        </is>
+      </c>
+      <c r="D142" s="4" t="inlineStr">
+        <is>
+          <t>10976,50</t>
+        </is>
+      </c>
+      <c r="E142" s="4" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G142" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H142" s="5" t="inlineStr">
+        <is>
+          <t>41 x R$ 590,00</t>
+        </is>
+      </c>
+      <c r="I142" s="4" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="J142" s="4" t="inlineStr"/>
+    </row>
+    <row r="143" ht="30" customHeight="1">
+      <c r="A143" s="4" t="inlineStr">
+        <is>
+          <t>CT4483</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>32801,00</t>
+        </is>
+      </c>
+      <c r="D143" s="4" t="inlineStr">
+        <is>
+          <t>15630,05</t>
+        </is>
+      </c>
+      <c r="E143" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F143" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G143" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H143" s="5" t="inlineStr">
+        <is>
+          <t>34 x R$ 1.299,00</t>
+        </is>
+      </c>
+      <c r="I143" s="4" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="J143" s="4" t="inlineStr"/>
+    </row>
+    <row r="144" ht="30" customHeight="1">
+      <c r="A144" s="4" t="inlineStr">
+        <is>
+          <t>CT4484</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>38842,00</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>16932,10</t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G144" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H144" s="5" t="inlineStr">
+        <is>
+          <t>33 x R$ 1.480,00</t>
+        </is>
+      </c>
+      <c r="I144" s="4" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="J144" s="4" t="inlineStr"/>
+    </row>
+    <row r="145" ht="30" customHeight="1">
+      <c r="A145" s="4" t="inlineStr">
+        <is>
+          <t>CT4485</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>71636,00</t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t>27571,80</t>
+        </is>
+      </c>
+      <c r="E145" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F145" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G145" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H145" s="5" t="inlineStr">
+        <is>
+          <t>34 x R$ 2.699,00</t>
+        </is>
+      </c>
+      <c r="I145" s="4" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="J145" s="4" t="inlineStr"/>
+    </row>
+    <row r="146" ht="30" customHeight="1">
+      <c r="A146" s="4" t="inlineStr">
+        <is>
+          <t>CT4486</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>Veiculos</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>126960,00</t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t>71338,00</t>
+        </is>
+      </c>
+      <c r="E146" s="4" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G146" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H146" s="5" t="inlineStr">
+        <is>
+          <t>62 x R$ 2.030,00</t>
+        </is>
+      </c>
+      <c r="I146" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J146" s="4" t="inlineStr"/>
+    </row>
+    <row r="147" ht="30" customHeight="1">
+      <c r="A147" s="4" t="inlineStr">
+        <is>
+          <t>CT4487</t>
+        </is>
+      </c>
+      <c r="B147" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C147" s="4" t="inlineStr">
+        <is>
+          <t>185000,00</t>
+        </is>
+      </c>
+      <c r="D147" s="4" t="inlineStr">
+        <is>
+          <t>81240,00</t>
+        </is>
+      </c>
+      <c r="E147" s="4" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F147" s="4" t="inlineStr">
+        <is>
+          <t>Rodobens</t>
+        </is>
+      </c>
+      <c r="G147" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H147" s="5" t="inlineStr">
+        <is>
+          <t>137 x R$ 1.805,00</t>
+        </is>
+      </c>
+      <c r="I147" s="4" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="J147" s="4" t="inlineStr"/>
+    </row>
+    <row r="148" ht="30" customHeight="1">
+      <c r="A148" s="4" t="inlineStr">
+        <is>
+          <t>CT4488</t>
+        </is>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>281000,00</t>
+        </is>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t>139040,00</t>
+        </is>
+      </c>
+      <c r="E148" s="4" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G148" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H148" s="5" t="inlineStr">
+        <is>
+          <t>164 x R$ 1.855,00</t>
+        </is>
+      </c>
+      <c r="I148" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="J148" s="4" t="inlineStr">
+        <is>
+          <t>Junção- taxa transferência R$ 3320,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="30" customHeight="1">
+      <c r="A149" s="4" t="inlineStr">
+        <is>
+          <t>CT4489</t>
+        </is>
+      </c>
+      <c r="B149" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t>297000,00</t>
+        </is>
+      </c>
+      <c r="D149" s="4" t="inlineStr">
+        <is>
+          <t>154840,00</t>
+        </is>
+      </c>
+      <c r="E149" s="4" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="F149" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G149" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H149" s="5" t="inlineStr">
+        <is>
+          <t>162 x R$ 2.038,00</t>
+        </is>
+      </c>
+      <c r="I149" s="4" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="J149" s="4" t="inlineStr">
+        <is>
+          <t>Junção - taxa transferência R$ 1950,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="30" customHeight="1">
+      <c r="A150" s="4" t="inlineStr">
+        <is>
+          <t>CT4490</t>
+        </is>
+      </c>
+      <c r="B150" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C150" s="4" t="inlineStr">
+        <is>
+          <t>68100,00</t>
+        </is>
+      </c>
+      <c r="D150" s="4" t="inlineStr">
+        <is>
+          <t>38395,00</t>
+        </is>
+      </c>
+      <c r="E150" s="4" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G150" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H150" s="5" t="inlineStr">
+        <is>
+          <t>140 x R$ 466,00</t>
+        </is>
+      </c>
+      <c r="I150" s="4" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="J150" s="4" t="inlineStr"/>
+    </row>
+    <row r="151" ht="30" customHeight="1">
+      <c r="A151" s="4" t="inlineStr">
+        <is>
+          <t>CT4491</t>
+        </is>
+      </c>
+      <c r="B151" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C151" s="4" t="inlineStr">
+        <is>
+          <t>112500,00</t>
+        </is>
+      </c>
+      <c r="D151" s="4" t="inlineStr">
+        <is>
+          <t>60615,00</t>
+        </is>
+      </c>
+      <c r="E151" s="4" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F151" s="4" t="inlineStr">
+        <is>
+          <t>Itaú Consórcio</t>
+        </is>
+      </c>
+      <c r="G151" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H151" s="5" t="inlineStr">
+        <is>
+          <t>147 x R$ 572,00</t>
+        </is>
+      </c>
+      <c r="I151" s="4" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="J151" s="4" t="inlineStr"/>
+    </row>
+    <row r="152" ht="30" customHeight="1">
+      <c r="A152" s="4" t="inlineStr">
+        <is>
+          <t>CT4492</t>
+        </is>
+      </c>
+      <c r="B152" s="4" t="inlineStr">
+        <is>
+          <t>Imoveis</t>
+        </is>
+      </c>
+      <c r="C152" s="4" t="inlineStr">
+        <is>
+          <t>435000,00</t>
+        </is>
+      </c>
+      <c r="D152" s="4" t="inlineStr">
+        <is>
+          <t>261740,00</t>
+        </is>
+      </c>
+      <c r="E152" s="4" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G152" s="4" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H152" s="5" t="inlineStr">
+        <is>
+          <t>143 x R$ 2.633,00</t>
+        </is>
+      </c>
+      <c r="I152" s="4" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="J152" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
